--- a/sanitized.xlsx
+++ b/sanitized.xlsx
@@ -4,20 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="impacts" sheetId="1" r:id="rId1"/>
     <sheet name="cycles" sheetId="2" r:id="rId2"/>
     <sheet name="gobmk" sheetId="3" r:id="rId3"/>
     <sheet name="xalan" sheetId="4" r:id="rId4"/>
+    <sheet name="calculix" sheetId="5" r:id="rId5"/>
+    <sheet name="h264ref" sheetId="6" r:id="rId6"/>
+    <sheet name="soplex" sheetId="7" r:id="rId7"/>
+    <sheet name="namd" sheetId="8" r:id="rId8"/>
+    <sheet name="lbquantum" sheetId="9" r:id="rId9"/>
+    <sheet name="astar" sheetId="10" r:id="rId10"/>
+    <sheet name="omnetpp" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
   <si>
     <t>astar</t>
   </si>
@@ -238,9 +245,6 @@
     <t>Time avg</t>
   </si>
   <si>
-    <t>Cummulative of achieved Prob</t>
-  </si>
-  <si>
     <t>Trial1_1</t>
   </si>
   <si>
@@ -260,19 +264,53 @@
   </si>
   <si>
     <t xml:space="preserve"> Ran for 2 iterations</t>
+  </si>
+  <si>
+    <t># States</t>
+  </si>
+  <si>
+    <t>Target Prob</t>
+  </si>
+  <si>
+    <t>#State</t>
+  </si>
+  <si>
+    <t># State</t>
+  </si>
+  <si>
+    <t>Time Avg</t>
+  </si>
+  <si>
+    <t>Cummulative P(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Cum P(x)</t>
+  </si>
+  <si>
+    <t>Tial2_1</t>
+  </si>
+  <si>
+    <t>Tial1</t>
+  </si>
+  <si>
+    <t>Cumm P(x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,13 +348,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -333,7 +383,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -365,6 +415,19 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,26 +737,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -709,29 +773,35 @@
       <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="30">
         <v>1.2834594041313406E-4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="30">
         <v>2.1442775660045998E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="30">
         <v>0.33952034229804823</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="30">
         <v>0.63890853610149256</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="31">
         <f>SUM(B3:E3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -751,8 +821,11 @@
         <f t="shared" ref="F4:F17" si="0">SUM(B4:E4)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -772,50 +845,59 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="30">
         <v>8.0112737558179117E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="30">
         <v>1.5356956609701745E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="30">
         <v>0.41425834292429586</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="30">
         <v>0.49027196290782338</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="26">
         <v>0.55787416422928249</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="26">
         <v>8.5177789602389489E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="26">
         <v>0.10111786815378739</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="26">
         <v>0.25583017801454061</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -835,29 +917,35 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G8" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="30">
         <v>6.7005215275899754E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="30">
         <v>1.4538994579256415E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="30">
         <v>0.26103554457456096</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="30">
         <v>0.65742024557028289</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -877,29 +965,35 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G10" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="30">
         <v>3.8811964996131666E-5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="30">
         <v>8.5013908223510778E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="30">
         <v>0.35943373808809798</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="30">
         <v>0.55551354172339518</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -919,8 +1013,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -940,29 +1037,35 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G13" s="23">
         <v>30</v>
       </c>
-      <c r="B14" s="2">
+    </row>
+    <row r="14" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="30">
         <v>5.4633169675272097E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="30">
         <v>2.2687373545158353E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="30">
         <v>0.33065849273216069</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="30">
         <v>0.59202096404740878</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="31">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -982,47 +1085,56 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G15" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="30">
         <v>7.8399059839140861E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="30">
         <v>-5.8398694731363131E-10</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="30">
         <v>0.26865044922418779</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="30">
         <v>0.65295049152065832</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F16" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="30">
         <v>0.66762059666886309</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="30">
         <v>0.11110449975789675</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="30">
         <v>0.10945166171061692</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="30">
         <v>0.11182324186262332</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="F17" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="32">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1031,6 +1143,1315 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.06</v>
+      </c>
+      <c r="D3">
+        <v>500000</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>30000</v>
+      </c>
+      <c r="G3" s="22">
+        <f>E3/$E$18</f>
+        <v>0.12936610608020699</v>
+      </c>
+      <c r="H3">
+        <v>0.13</v>
+      </c>
+      <c r="I3">
+        <f>C3</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4">
+        <v>550000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="0">D4*C4</f>
+        <v>27500</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G17" si="1">E4/$E$18</f>
+        <v>0.11858559724018973</v>
+      </c>
+      <c r="H4">
+        <v>0.13</v>
+      </c>
+      <c r="I4">
+        <f>C4+I3</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.09</v>
+      </c>
+      <c r="D5">
+        <v>300000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11642949547218628</v>
+      </c>
+      <c r="H5">
+        <v>0.12</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I17" si="2">C5+I4</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.13</v>
+      </c>
+      <c r="D6">
+        <v>190000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>24700</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.10651142733937041</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.09</v>
+      </c>
+      <c r="D7">
+        <v>250000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>9.7024579560155241E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>750000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>9.7024579560155241E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.09</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.45000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+      <c r="D9">
+        <v>250000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>8.6244070720137997E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.09</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.15</v>
+      </c>
+      <c r="D10">
+        <v>90000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>5.8214747736093142E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.04</v>
+      </c>
+      <c r="D11">
+        <v>200000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>3.4497628288055193E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.04</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.72000000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+      <c r="D12">
+        <v>250000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>4.3122035360068998E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.04</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.76000000000000012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>100000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>4.3122035360068998E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.03</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.8600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0.06</v>
+      </c>
+      <c r="D14">
+        <v>95000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5700</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="1"/>
+        <v>2.4579560155239329E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.03</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.92000000000000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.04</v>
+      </c>
+      <c r="D15">
+        <v>120000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>2.0698576972833119E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.02</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.96000000000000019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.03</v>
+      </c>
+      <c r="D16">
+        <v>130000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>1.6817593790426907E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.02</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0.01</v>
+      </c>
+      <c r="D17">
+        <v>180000</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="1"/>
+        <v>7.7619663648124193E-3</v>
+      </c>
+      <c r="H17">
+        <v>0.01</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>SUM(C3:C17)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E3:E17)</f>
+        <v>231900</v>
+      </c>
+      <c r="G18" s="22">
+        <f>SUM(G3:G17)</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H3:H17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <f>0.4*A21</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.16</v>
+      </c>
+      <c r="D25">
+        <v>50000</v>
+      </c>
+      <c r="E25">
+        <f>D25*C25</f>
+        <v>8000</v>
+      </c>
+      <c r="G25" s="22">
+        <f>E25/$E$40</f>
+        <v>0.13238457719675659</v>
+      </c>
+      <c r="H25">
+        <v>0.13</v>
+      </c>
+      <c r="I25">
+        <f>C25</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+      <c r="D26">
+        <v>75000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E39" si="3">D26*C26</f>
+        <v>7500</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" ref="G26:G39" si="4">E26/$E$40</f>
+        <v>0.12411054112195929</v>
+      </c>
+      <c r="H26">
+        <v>0.13</v>
+      </c>
+      <c r="I26">
+        <f>C26+I25</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0.25</v>
+      </c>
+      <c r="D27">
+        <v>30000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="4"/>
+        <v>0.12411054112195929</v>
+      </c>
+      <c r="H27">
+        <v>0.12</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I39" si="5">C27+I26</f>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0.13</v>
+      </c>
+      <c r="D28">
+        <v>49000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>6370</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="4"/>
+        <v>0.10541121959291742</v>
+      </c>
+      <c r="H28">
+        <v>0.1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0.156</v>
+      </c>
+      <c r="D29">
+        <v>35000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>5460</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="4"/>
+        <v>9.0352473936786359E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0.05</v>
+      </c>
+      <c r="D30">
+        <v>105000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>5250</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="4"/>
+        <v>8.6877378785371509E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.09</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>0.84600000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>0.04</v>
+      </c>
+      <c r="D31">
+        <v>150000</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="4"/>
+        <v>9.9288432897567433E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.09</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>0.88600000000000012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D32">
+        <v>400000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="4"/>
+        <v>2.6476915439351316E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.05</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0.89000000000000012</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0.02</v>
+      </c>
+      <c r="D33">
+        <v>100000</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="4"/>
+        <v>3.3096144299189147E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.04</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>0.91000000000000014</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>0.02</v>
+      </c>
+      <c r="D34">
+        <v>150000</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="4"/>
+        <v>4.9644216448783716E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.04</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>0.93000000000000016</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>0.01</v>
+      </c>
+      <c r="D35">
+        <v>100000</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="4"/>
+        <v>1.6548072149594573E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.03</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>0.94000000000000017</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>0.03</v>
+      </c>
+      <c r="D36">
+        <v>105000</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>3150</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="4"/>
+        <v>5.2126427271222901E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.03</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>0.9700000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>0.01</v>
+      </c>
+      <c r="D37">
+        <v>120000</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="4"/>
+        <v>1.9857686579513485E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.02</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>0.9800000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>0.01</v>
+      </c>
+      <c r="D38">
+        <v>130000</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="G38" s="22">
+        <f t="shared" si="4"/>
+        <v>2.1512493794472943E-2</v>
+      </c>
+      <c r="H38">
+        <v>0.02</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>0.99000000000000021</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>0.01</v>
+      </c>
+      <c r="D39">
+        <v>110000</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="shared" si="4"/>
+        <v>1.8202879364554031E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.01</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f>SUM(C25:C39)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E40">
+        <f>SUM(E25:E39)</f>
+        <v>60430</v>
+      </c>
+      <c r="G40" s="22">
+        <f>SUM(G25:G39)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="H40">
+        <f>SUM(H25:H39)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G3:I18">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.06</v>
+      </c>
+      <c r="D3">
+        <v>500000</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>30000</v>
+      </c>
+      <c r="G3" s="22">
+        <f>E3/$E$18</f>
+        <v>0.12936610608020699</v>
+      </c>
+      <c r="H3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4">
+        <v>550000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="0">D4*C4</f>
+        <v>27500</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G18" si="1">E4/$E$18</f>
+        <v>0.11858559724018973</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.09</v>
+      </c>
+      <c r="D5">
+        <v>300000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11642949547218628</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.13</v>
+      </c>
+      <c r="D6">
+        <v>190000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>24700</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.10651142733937041</v>
+      </c>
+      <c r="H6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.09</v>
+      </c>
+      <c r="D7">
+        <v>250000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>9.7024579560155241E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>750000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>9.7024579560155241E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+      <c r="D9">
+        <v>250000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>8.6244070720137997E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.15</v>
+      </c>
+      <c r="D10">
+        <v>90000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>5.8214747736093142E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.04</v>
+      </c>
+      <c r="D11">
+        <v>200000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>3.4497628288055193E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+      <c r="D12">
+        <v>250000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>4.3122035360068998E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>100000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>4.3122035360068998E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0.06</v>
+      </c>
+      <c r="D14">
+        <v>95000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5700</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="1"/>
+        <v>2.4579560155239329E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.04</v>
+      </c>
+      <c r="D15">
+        <v>120000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>2.0698576972833119E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.03</v>
+      </c>
+      <c r="D16">
+        <v>130000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>1.6817593790426907E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0.01</v>
+      </c>
+      <c r="D17">
+        <v>180000</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="1"/>
+        <v>7.7619663648124193E-3</v>
+      </c>
+      <c r="H17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>SUM(C3:C17)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E3:E17)</f>
+        <v>231900</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H3:H17)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G3:I18">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3145,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,7 +4604,7 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3208,8 +4629,8 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I3" s="22">
-        <f>G3</f>
-        <v>6.0120240480961921E-2</v>
+        <f>C3</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3234,8 +4655,8 @@
         <v>0.08</v>
       </c>
       <c r="I4" s="22">
-        <f>G4+I3</f>
-        <v>0.12692050768203073</v>
+        <f>C4+I3</f>
+        <v>0.12000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3260,8 +4681,8 @@
         <v>0.08</v>
       </c>
       <c r="I5" s="22">
-        <f t="shared" ref="I5:I14" si="1">G5+I4</f>
-        <v>0.22044088176352705</v>
+        <f t="shared" ref="I5:I14" si="1">C5+I4</f>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3287,7 +4708,7 @@
       </c>
       <c r="I6" s="22">
         <f t="shared" si="1"/>
-        <v>0.35404141616566465</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3313,7 +4734,7 @@
       </c>
       <c r="I7" s="22">
         <f t="shared" si="1"/>
-        <v>0.40748162992651971</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3339,7 +4760,7 @@
       </c>
       <c r="I8" s="22">
         <f t="shared" si="1"/>
-        <v>0.5410821643286573</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3365,7 +4786,7 @@
       </c>
       <c r="I9" s="22">
         <f t="shared" si="1"/>
-        <v>0.57114228456913829</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3391,7 +4812,7 @@
       </c>
       <c r="I10" s="22">
         <f t="shared" si="1"/>
-        <v>0.70474281897127589</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3417,7 +4838,7 @@
       </c>
       <c r="I11" s="22">
         <f t="shared" si="1"/>
-        <v>0.79692718770875082</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3443,7 +4864,7 @@
       </c>
       <c r="I12" s="22">
         <f t="shared" si="1"/>
-        <v>0.83700734802939214</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3469,7 +4890,7 @@
       </c>
       <c r="I13" s="22">
         <f t="shared" si="1"/>
-        <v>0.98396793587174347</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3497,6 +4918,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15">
@@ -3524,31 +4948,31 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
         <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3570,8 +4994,8 @@
       <c r="H22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I22" t="s">
-        <v>73</v>
+      <c r="I22" s="22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3596,8 +5020,8 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I23" s="22">
-        <f>G23</f>
-        <v>6.4981949458483748E-2</v>
+        <f>C23</f>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3622,8 +5046,8 @@
         <v>0.08</v>
       </c>
       <c r="I24" s="22">
-        <f>G24+I23</f>
-        <v>0.1407942238267148</v>
+        <f>C24+I23</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3648,8 +5072,8 @@
         <v>0.08</v>
       </c>
       <c r="I25" s="22">
-        <f t="shared" ref="I25:I34" si="3">G25+I24</f>
-        <v>0.19855595667870035</v>
+        <f t="shared" ref="I25:I34" si="3">C25+I24</f>
+        <v>0.13</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3675,7 +5099,7 @@
       </c>
       <c r="I26" s="22">
         <f t="shared" si="3"/>
-        <v>0.32490974729241873</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3701,7 +5125,7 @@
       </c>
       <c r="I27" s="22">
         <f t="shared" si="3"/>
-        <v>0.37545126353790609</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3727,7 +5151,7 @@
       </c>
       <c r="I28" s="22">
         <f t="shared" si="3"/>
-        <v>0.51985559566786999</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,7 +5177,7 @@
       </c>
       <c r="I29" s="22">
         <f t="shared" si="3"/>
-        <v>0.54873646209386273</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3779,7 +5203,7 @@
       </c>
       <c r="I30" s="22">
         <f t="shared" si="3"/>
-        <v>0.68953068592057754</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3805,7 +5229,7 @@
       </c>
       <c r="I31" s="22">
         <f t="shared" si="3"/>
-        <v>0.77617328519855588</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3831,7 +5255,7 @@
       </c>
       <c r="I32" s="22">
         <f t="shared" si="3"/>
-        <v>0.81227436823104682</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -3857,7 +5281,7 @@
       </c>
       <c r="I33" s="22">
         <f t="shared" si="3"/>
-        <v>0.95667870036101066</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -3883,7 +5307,10 @@
       </c>
       <c r="I34" s="22">
         <f t="shared" si="3"/>
-        <v>0.99999999999999978</v>
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -3913,4 +5340,3265 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.49</v>
+      </c>
+      <c r="D3" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="8">
+        <f>C3*D3</f>
+        <v>49000</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="22">
+        <f>E3/$E$10</f>
+        <v>0.3843137254901961</v>
+      </c>
+      <c r="H3">
+        <v>0.39</v>
+      </c>
+      <c r="I3" s="22">
+        <f>C3</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="4">
+        <v>250000</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E9" si="0">C4*D4</f>
+        <v>20000</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G9" si="1">E4/$E$10</f>
+        <v>0.15686274509803921</v>
+      </c>
+      <c r="H4">
+        <v>0.17</v>
+      </c>
+      <c r="I4" s="22">
+        <f>C4+I3</f>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>95000</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>14250</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11176470588235295</v>
+      </c>
+      <c r="H5">
+        <v>0.11</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" ref="I5:I9" si="2">C5+I4</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="4">
+        <v>500000</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="H6">
+        <v>0.11</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.09</v>
+      </c>
+      <c r="D7" s="4">
+        <v>150000</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="H7">
+        <v>0.09</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="2"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>8.6274509803921567E-2</v>
+      </c>
+      <c r="H8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="4">
+        <v>95000</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>4750</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>3.7254901960784313E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.06</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>SUM(C3:C9)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <f>SUM(E3:E9)</f>
+        <v>127500</v>
+      </c>
+      <c r="G10" s="22">
+        <f>SUM(G3:G9)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H3:H9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <f>0.3*A12</f>
+        <v>2.1</v>
+      </c>
+      <c r="C12">
+        <f>0.4*A12</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D12" s="33">
+        <f>0.5*A12</f>
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.74</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="8">
+        <f>C16*D16</f>
+        <v>7400</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="22">
+        <f>E16/$E$23</f>
+        <v>0.39257294429708223</v>
+      </c>
+      <c r="H16">
+        <v>0.39</v>
+      </c>
+      <c r="I16" s="22">
+        <f>C16</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="4">
+        <v>25000</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" ref="E17:E22" si="3">C17*D17</f>
+        <v>3250</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="22">
+        <f t="shared" ref="G17:G22" si="4">E17/$E$23</f>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="H17">
+        <v>0.17</v>
+      </c>
+      <c r="I17" s="22">
+        <f>C17+I16</f>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0.06</v>
+      </c>
+      <c r="D18" s="4">
+        <v>35000</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="22">
+        <f t="shared" si="4"/>
+        <v>0.11140583554376658</v>
+      </c>
+      <c r="H18">
+        <v>0.11</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" ref="I18:I22" si="5">C18+I17</f>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="22">
+        <f t="shared" si="4"/>
+        <v>0.10610079575596817</v>
+      </c>
+      <c r="H19">
+        <v>0.11</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="4">
+        <v>90000</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="22">
+        <f t="shared" si="4"/>
+        <v>9.5490716180371346E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.09</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="22">
+        <f t="shared" si="4"/>
+        <v>5.3050397877984087E-2</v>
+      </c>
+      <c r="H21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="5"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="4">
+        <v>65000</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="22">
+        <f t="shared" si="4"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.06</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>SUM(C16:C22)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <f>SUM(E16:E22)</f>
+        <v>18850</v>
+      </c>
+      <c r="G23" s="22">
+        <f>SUM(G16:G22)</f>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H16:H22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G24" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G3:H10">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.17</v>
+      </c>
+      <c r="D3" s="35">
+        <v>200000</v>
+      </c>
+      <c r="E3">
+        <f>C3*D3</f>
+        <v>34000</v>
+      </c>
+      <c r="G3" s="22">
+        <f>E3/$E$11</f>
+        <v>0.22788203753351208</v>
+      </c>
+      <c r="H3">
+        <v>0.23</v>
+      </c>
+      <c r="I3" s="22">
+        <f>C3</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">C4*D4</f>
+        <v>25000</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G10" si="1">E4/$E$11</f>
+        <v>0.16756032171581769</v>
+      </c>
+      <c r="H4">
+        <v>0.18</v>
+      </c>
+      <c r="I4" s="22">
+        <f>C4+I3</f>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="35">
+        <v>150000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.15080428954423591</v>
+      </c>
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" ref="I5:I10" si="2">C5+I4</f>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="35">
+        <v>2000000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.13404825737265416</v>
+      </c>
+      <c r="H6">
+        <v>0.13</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.19</v>
+      </c>
+      <c r="D7" s="35">
+        <v>80000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>15200</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>0.10187667560321716</v>
+      </c>
+      <c r="H7">
+        <v>0.12</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="35">
+        <v>450000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>9.048257372654156E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.09</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>6.7024128686327081E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.06</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="35">
+        <v>90000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>6.0321715817694369E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.04</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C3:C10)</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E3:E10)</f>
+        <v>149200</v>
+      </c>
+      <c r="G11" s="22">
+        <f>SUM(G3:G10)</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H3:H10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <f>0.3*A13</f>
+        <v>2.4</v>
+      </c>
+      <c r="C13">
+        <f>0.4*A13</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.41</v>
+      </c>
+      <c r="D17" s="35">
+        <v>30000</v>
+      </c>
+      <c r="E17">
+        <f>C17*D17</f>
+        <v>12300</v>
+      </c>
+      <c r="G17" s="22">
+        <f>E17/$E$25</f>
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="H17">
+        <v>0.23</v>
+      </c>
+      <c r="I17" s="22">
+        <f>C17</f>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="35">
+        <v>50000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E24" si="3">C18*D18</f>
+        <v>10000</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" ref="G18:G24" si="4">E18/$E$25</f>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="H18">
+        <v>0.18</v>
+      </c>
+      <c r="I18" s="22">
+        <f>C18+I17</f>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.22</v>
+      </c>
+      <c r="D19" s="35">
+        <v>35000</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>7700</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="4"/>
+        <v>0.1425925925925926</v>
+      </c>
+      <c r="H19">
+        <v>0.15</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" ref="I19:I24" si="5">C19+I18</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D20" s="35">
+        <v>500000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="4"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H20">
+        <v>0.13</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="5"/>
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0.09</v>
+      </c>
+      <c r="D21" s="35">
+        <v>80000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="4"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.12</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="5"/>
+        <v>0.93499999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="35">
+        <v>450000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>4500</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.09</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="5"/>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="4"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.06</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="5"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="35">
+        <v>90000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.04</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="5"/>
+        <v>0.995</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>SUM(C17:C24)</f>
+        <v>0.995</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E17:E24)</f>
+        <v>54000</v>
+      </c>
+      <c r="G25" s="22">
+        <f>SUM(G17:G24)</f>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f>SUM(H17:H24)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G3:H11">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="22"/>
+    <col min="9" max="9" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.41</v>
+      </c>
+      <c r="D3" s="35">
+        <v>200000</v>
+      </c>
+      <c r="E3">
+        <f>C3*D3</f>
+        <v>82000</v>
+      </c>
+      <c r="G3" s="22">
+        <f>E3/$E$11</f>
+        <v>0.4924924924924925</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="22">
+        <f>C3</f>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">C4*D4</f>
+        <v>25000</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G10" si="1">E4/$E$11</f>
+        <v>0.15015015015015015</v>
+      </c>
+      <c r="H4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I4" s="22">
+        <f>C4+I3</f>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="35">
+        <v>150000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="H5">
+        <v>0.12</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" ref="I5:I10" si="2">C5+I4</f>
+        <v>0.80999999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="35">
+        <v>2000000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>8.408408408408409E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.09</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="35">
+        <v>80000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>4.8048048048048048E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="2"/>
+        <v>0.91699999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="35">
+        <v>450000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.04</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="2"/>
+        <v>0.93699999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D9" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>1.9819819819819819E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="2"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="35">
+        <v>90000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>1.6216216216216217E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.03</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C3:C10)</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E3:E10)</f>
+        <v>166500</v>
+      </c>
+      <c r="G11" s="22">
+        <f>SUM(G3:G10)</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H3:H10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <f>0.3*A14</f>
+        <v>2.4</v>
+      </c>
+      <c r="C14">
+        <f>0.4*A14</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D18" s="35">
+        <v>30000</v>
+      </c>
+      <c r="E18">
+        <f>C18*D18</f>
+        <v>20490</v>
+      </c>
+      <c r="G18" s="22">
+        <f>E18/$E$26</f>
+        <v>0.49866147481138962</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="22">
+        <f>C18</f>
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.11</v>
+      </c>
+      <c r="D19" s="35">
+        <v>50000</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E25" si="3">C19*D19</f>
+        <v>5500</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" ref="G19:G25" si="4">E19/$E$26</f>
+        <v>0.13385251886103675</v>
+      </c>
+      <c r="H19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I19" s="22">
+        <f>C19+I18</f>
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D20" s="35">
+        <v>35000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>4900.0000000000009</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="4"/>
+        <v>0.11925042589437822</v>
+      </c>
+      <c r="H20">
+        <v>0.12</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" ref="I20:I25" si="5">C20+I19</f>
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="35">
+        <v>500000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="4"/>
+        <v>8.5178875638841564E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.09</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="5"/>
+        <v>0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="35">
+        <v>80000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="4"/>
+        <v>5.8408371866634216E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.05</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="5"/>
+        <v>0.97000000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D23" s="35">
+        <v>450000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="4"/>
+        <v>4.3806278899975661E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.04</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="5"/>
+        <v>0.97400000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D24" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="4"/>
+        <v>3.8938914577756147E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.03</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="5"/>
+        <v>0.9900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="35">
+        <v>90000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="4"/>
+        <v>2.190313944998783E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.03</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>SUM(C18:C25)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <f>SUM(E18:E25)</f>
+        <v>41090</v>
+      </c>
+      <c r="G26" s="22">
+        <f>SUM(G18:G25)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H18:H25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G3:I10">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
+      <c r="D3">
+        <v>500000</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>40000</v>
+      </c>
+      <c r="G3" s="22">
+        <f>E3/$E$14</f>
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="H3">
+        <v>0.17</v>
+      </c>
+      <c r="I3">
+        <f>C3</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.15</v>
+      </c>
+      <c r="D4">
+        <v>250000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E13" si="0">D4*C4</f>
+        <v>37500</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G13" si="1">E4/$E$14</f>
+        <v>0.16447368421052633</v>
+      </c>
+      <c r="H4">
+        <v>0.16</v>
+      </c>
+      <c r="I4">
+        <f>C4+I3</f>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>700000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.15350877192982457</v>
+      </c>
+      <c r="H5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I13" si="2">C5+I4</f>
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.35</v>
+      </c>
+      <c r="D6">
+        <v>80000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.12280701754385964</v>
+      </c>
+      <c r="H6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.62999999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>450000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>9.8684210526315791E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.11</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.67999999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>650000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>19500</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>8.5526315789473686E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.09</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>250000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>6.5789473684210523E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.06</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>90000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>3.9473684210526314E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.03</v>
+      </c>
+      <c r="D11">
+        <v>300000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>3.9473684210526314E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.04</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+      <c r="D12">
+        <v>150000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>3.2894736842105261E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.02</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.05</v>
+      </c>
+      <c r="D13">
+        <v>100000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>2.1929824561403508E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.02</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>SUM(C3:C13)</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E3:E13)</f>
+        <v>228000</v>
+      </c>
+      <c r="G14" s="22">
+        <f>SUM(G3:G13)</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H3:H13)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <f>0.3*A17</f>
+        <v>3.3</v>
+      </c>
+      <c r="C17">
+        <f>0.4*A17</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.21</v>
+      </c>
+      <c r="D19">
+        <v>50000</v>
+      </c>
+      <c r="E19">
+        <f>D19*C19</f>
+        <v>10500</v>
+      </c>
+      <c r="G19" s="22">
+        <f>E19/$E$30</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.17</v>
+      </c>
+      <c r="I19">
+        <f>C19</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.27</v>
+      </c>
+      <c r="D20">
+        <v>35000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E29" si="3">D20*C20</f>
+        <v>9450</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" ref="G20:G29" si="4">E20/$E$30</f>
+        <v>0.1512</v>
+      </c>
+      <c r="H20">
+        <v>0.16</v>
+      </c>
+      <c r="I20">
+        <f>C20+I19</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.11</v>
+      </c>
+      <c r="D21">
+        <v>75000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>8250</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="4"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I29" si="5">C21+I20</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D22">
+        <v>30000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>8700</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="4"/>
+        <v>0.13919999999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.02</v>
+      </c>
+      <c r="D23">
+        <v>450000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="4"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.11</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
+      </c>
+      <c r="D24">
+        <v>250000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="H24">
+        <v>0.09</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0.01</v>
+      </c>
+      <c r="D25">
+        <v>250000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="H25">
+        <v>0.06</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0.04</v>
+      </c>
+      <c r="D26">
+        <v>90000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="4"/>
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.05</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0.01</v>
+      </c>
+      <c r="D27">
+        <v>300000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.04</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0.01</v>
+      </c>
+      <c r="D28">
+        <v>150000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="4"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.02</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>0.99</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.01</v>
+      </c>
+      <c r="D29">
+        <v>100000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="4"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.02</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f>SUM(C19:C29)</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>SUM(E19:E29)</f>
+        <v>62500</v>
+      </c>
+      <c r="G30" s="22">
+        <f>SUM(G19:G29)</f>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f>SUM(H19:H29)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G3:I14">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>500000</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>25000</v>
+      </c>
+      <c r="G3" s="22">
+        <f>E3/$E$17</f>
+        <v>0.13365410318096765</v>
+      </c>
+      <c r="H3">
+        <v>0.13</v>
+      </c>
+      <c r="I3">
+        <f>C3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>250000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E16" si="0">D4*C4</f>
+        <v>25000</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G16" si="1">E4/$E$17</f>
+        <v>0.13365410318096765</v>
+      </c>
+      <c r="H4">
+        <v>0.11</v>
+      </c>
+      <c r="I4">
+        <f>C4+I3</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>700000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11226944667201283</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I16" si="2">C5+I4</f>
+        <v>0.18000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.26</v>
+      </c>
+      <c r="D6">
+        <v>80000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11120021384656509</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.44000000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.03</v>
+      </c>
+      <c r="D7">
+        <v>450000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>7.2173215717722533E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.08</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.47000000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.02</v>
+      </c>
+      <c r="D8">
+        <v>650000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>6.950013365410318E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.08</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.4900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.04</v>
+      </c>
+      <c r="D9">
+        <v>250000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>5.3461641272387062E-2</v>
+      </c>
+      <c r="H9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.53000000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.15</v>
+      </c>
+      <c r="D10">
+        <v>90000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>7.2173215717722533E-2</v>
+      </c>
+      <c r="H10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.68000000000000016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.04</v>
+      </c>
+      <c r="D11">
+        <v>300000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>6.4153969526864474E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.06</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.7200000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D12">
+        <v>150000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>10500.000000000002</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>5.6134723336006428E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.06</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.79000000000000026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>100000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>5.3461641272387062E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.89000000000000024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+      <c r="D14">
+        <v>95000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4750</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="1"/>
+        <v>2.5394279604383854E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.04</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.94000000000000028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.04</v>
+      </c>
+      <c r="D15">
+        <v>120000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>2.566158781074579E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.03</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.98000000000000032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.02</v>
+      </c>
+      <c r="D16">
+        <v>160000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>1.710772520716386E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.02</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>SUM(C3:C16)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E3:E16)</f>
+        <v>187050</v>
+      </c>
+      <c r="G17" s="22">
+        <f>SUM(G3:G16)</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f>SUM(H3:H16)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <f>0.4*A20</f>
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.15</v>
+      </c>
+      <c r="D23">
+        <v>50000</v>
+      </c>
+      <c r="E23">
+        <f>D23*C23</f>
+        <v>7500</v>
+      </c>
+      <c r="G23" s="22">
+        <f>E23/$E$37</f>
+        <v>0.13250883392226148</v>
+      </c>
+      <c r="H23">
+        <v>0.13</v>
+      </c>
+      <c r="I23">
+        <f>C23</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.13</v>
+      </c>
+      <c r="D24">
+        <v>45000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E36" si="3">D24*C24</f>
+        <v>5850</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" ref="G24:G36" si="4">E24/$E$37</f>
+        <v>0.10335689045936396</v>
+      </c>
+      <c r="H24">
+        <v>0.11</v>
+      </c>
+      <c r="I24">
+        <f>C24+I23</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0.15</v>
+      </c>
+      <c r="D25">
+        <v>40000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="4"/>
+        <v>0.10600706713780919</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I36" si="5">C25+I24</f>
+        <v>0.43000000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D26">
+        <v>45000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>6300.0000000000009</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="4"/>
+        <v>0.11130742049469966</v>
+      </c>
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D27">
+        <v>25000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>3500.0000000000005</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="4"/>
+        <v>6.1837455830388702E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.08</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>0.71000000000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D28">
+        <v>65000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>4550</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="4"/>
+        <v>8.0388692579505303E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.08</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>0.04</v>
+      </c>
+      <c r="D29">
+        <v>105000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>4200</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="4"/>
+        <v>7.4204946996466431E-2</v>
+      </c>
+      <c r="H29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>0.82000000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.05</v>
+      </c>
+      <c r="D30">
+        <v>90000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>4500</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="4"/>
+        <v>7.9505300353356886E-2</v>
+      </c>
+      <c r="H30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>0.87000000000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0.04</v>
+      </c>
+      <c r="D31">
+        <v>100000</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="4"/>
+        <v>7.0671378091872794E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.06</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>0.91000000000000014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>0.02</v>
+      </c>
+      <c r="D32">
+        <v>150000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="4"/>
+        <v>5.3003533568904596E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.06</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0.93000000000000016</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0.03</v>
+      </c>
+      <c r="D33">
+        <v>100000</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="4"/>
+        <v>5.3003533568904596E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.05</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>0.96000000000000019</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0.02</v>
+      </c>
+      <c r="D34">
+        <v>95000</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="4"/>
+        <v>3.3568904593639579E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.04</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>0.9800000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>0.01</v>
+      </c>
+      <c r="D35">
+        <v>120000</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="4"/>
+        <v>2.1201413427561839E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.03</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>0.99000000000000021</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>0.01</v>
+      </c>
+      <c r="D36">
+        <v>110000</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="4"/>
+        <v>1.9434628975265017E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.02</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f>SUM(C23:C36)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E37">
+        <f>SUM(E23:E36)</f>
+        <v>56600</v>
+      </c>
+      <c r="G37" s="22">
+        <f>SUM(G23:G36)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H37">
+        <f>SUM(H23:H36)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G3:I16">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sanitized.xlsx
+++ b/sanitized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27322"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="3140" yWindow="40" windowWidth="28080" windowHeight="14660" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="impacts" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,19 @@
     <sheet name="lbquantum" sheetId="9" r:id="rId9"/>
     <sheet name="astar" sheetId="10" r:id="rId10"/>
     <sheet name="omnetpp" sheetId="11" r:id="rId11"/>
+    <sheet name="milc" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="91">
   <si>
     <t>astar</t>
   </si>
@@ -310,7 +316,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +360,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -378,10 +400,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -432,8 +472,26 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -740,16 +798,16 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="23"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="36" t="s">
         <v>38</v>
       </c>
@@ -757,7 +815,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -777,7 +835,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>19</v>
       </c>
@@ -801,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -825,7 +883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -849,7 +907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>22</v>
       </c>
@@ -873,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="25" customFormat="1">
       <c r="A7" s="25" t="s">
         <v>23</v>
       </c>
@@ -897,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -921,7 +979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>25</v>
       </c>
@@ -945,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -969,7 +1027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="29" customFormat="1">
       <c r="A11" s="29" t="s">
         <v>27</v>
       </c>
@@ -993,7 +1051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1041,7 +1099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="29" customFormat="1">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -1065,31 +1123,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" s="29" customFormat="1">
+      <c r="A15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="30">
         <v>0.15748526577428065</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="30">
         <v>5.2960158996627607E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="30">
         <v>0.32796408710006281</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="30">
         <v>0.46159048812902903</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="32">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="29" customFormat="1">
       <c r="A16" s="29" t="s">
         <v>32</v>
       </c>
@@ -1113,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="29" customFormat="1">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -1142,7 +1200,12 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1150,18 +1213,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -1184,7 +1247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1210,7 +1273,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1236,7 +1299,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1262,7 +1325,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1288,7 +1351,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1314,7 +1377,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1340,7 +1403,7 @@
         <v>0.45000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1366,7 +1429,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1392,7 +1455,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1418,7 +1481,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1444,7 +1507,7 @@
         <v>0.76000000000000012</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1470,7 +1533,7 @@
         <v>0.8600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1496,7 +1559,7 @@
         <v>0.92000000000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1522,7 +1585,7 @@
         <v>0.96000000000000019</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1551,7 +1614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1577,7 +1640,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18">
         <f>SUM(C3:C17)</f>
         <v>1.0000000000000002</v>
@@ -1595,10 +1658,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1607,7 +1670,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1617,12 +1680,12 @@
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
         <v>59</v>
       </c>
@@ -1645,7 +1708,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="B25">
         <v>0</v>
       </c>
@@ -1671,7 +1734,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1697,7 +1760,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="B27">
         <v>2</v>
       </c>
@@ -1723,7 +1786,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="B28">
         <v>3</v>
       </c>
@@ -1749,7 +1812,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="B29">
         <v>4</v>
       </c>
@@ -1775,7 +1838,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30">
         <v>5</v>
       </c>
@@ -1801,7 +1864,7 @@
         <v>0.84600000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="B31">
         <v>6</v>
       </c>
@@ -1827,7 +1890,7 @@
         <v>0.88600000000000012</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32">
         <v>7</v>
       </c>
@@ -1853,7 +1916,7 @@
         <v>0.89000000000000012</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33">
         <v>8</v>
       </c>
@@ -1879,7 +1942,7 @@
         <v>0.91000000000000014</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34">
         <v>9</v>
       </c>
@@ -1905,7 +1968,7 @@
         <v>0.93000000000000016</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35">
         <v>10</v>
       </c>
@@ -1931,7 +1994,7 @@
         <v>0.94000000000000017</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36">
         <v>11</v>
       </c>
@@ -1957,7 +2020,7 @@
         <v>0.9700000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37">
         <v>12</v>
       </c>
@@ -1983,7 +2046,7 @@
         <v>0.9800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38">
         <v>13</v>
       </c>
@@ -2009,7 +2072,7 @@
         <v>0.99000000000000021</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39">
         <v>14</v>
       </c>
@@ -2035,7 +2098,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="C40">
         <f>SUM(C25:C39)</f>
         <v>1.0000000000000002</v>
@@ -2058,25 +2121,30 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -2099,161 +2167,189 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="D3">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="E3">
         <f>D3*C3</f>
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="G3" s="22">
         <f>E3/$E$18</f>
-        <v>0.12936610608020699</v>
+        <v>0.10789602746444335</v>
       </c>
       <c r="H3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>C3</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D4">
-        <v>550000</v>
+        <v>650000</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E17" si="0">D4*C4</f>
-        <v>27500</v>
+        <v>19500</v>
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G18" si="1">E4/$E$18</f>
-        <v>0.11858559724018973</v>
+        <v>9.5635115252574787E-2</v>
       </c>
       <c r="H4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>C4+I3</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="D5">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>21600</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" si="1"/>
-        <v>0.11642949547218628</v>
+        <v>0.10593428151054439</v>
       </c>
       <c r="H5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" ref="I5:I17" si="2">C5+I4</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D6">
         <v>190000</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>24700</v>
+        <v>19000</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>0.10651142733937041</v>
+        <v>9.3182932810201083E-2</v>
       </c>
       <c r="H6">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="D7">
         <v>250000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="G7" s="22">
         <f t="shared" si="1"/>
-        <v>9.7024579560155241E-2</v>
+        <v>9.8087297694948505E-2</v>
       </c>
       <c r="H7">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.38000000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D8">
-        <v>750000</v>
+        <v>350000</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="G8" s="22">
         <f t="shared" si="1"/>
-        <v>9.7024579560155241E-2</v>
+        <v>8.5826385483079942E-2</v>
       </c>
       <c r="H8">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.43000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G9" s="22">
         <f t="shared" si="1"/>
-        <v>8.6244070720137997E-2</v>
+        <v>7.3565473271211379E-2</v>
       </c>
       <c r="H9">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2269,13 +2365,17 @@
       </c>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
-        <v>5.8214747736093142E-2</v>
+        <v>6.6208925944090238E-2</v>
       </c>
       <c r="H10">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2291,13 +2391,17 @@
       </c>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
-        <v>3.4497628288055193E-2</v>
+        <v>3.9234919077979401E-2</v>
       </c>
       <c r="H11">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.72000000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2313,13 +2417,17 @@
       </c>
       <c r="G12" s="22">
         <f t="shared" si="1"/>
-        <v>4.3122035360068998E-2</v>
+        <v>4.9043648847474253E-2</v>
       </c>
       <c r="H12">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.76000000000000012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2327,21 +2435,25 @@
         <v>0.1</v>
       </c>
       <c r="D13">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G13" s="22">
         <f t="shared" si="1"/>
-        <v>4.3122035360068998E-2</v>
+        <v>4.413928396272683E-2</v>
       </c>
       <c r="H13">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.8600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2349,21 +2461,25 @@
         <v>0.06</v>
       </c>
       <c r="D14">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>5700</v>
+        <v>6300</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="1"/>
-        <v>2.4579560155239329E-2</v>
+        <v>3.089749877390878E-2</v>
       </c>
       <c r="H14">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.92000000000000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2379,13 +2495,17 @@
       </c>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
-        <v>2.0698576972833119E-2</v>
+        <v>2.3540951446787643E-2</v>
       </c>
       <c r="H15">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.96000000000000019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2393,21 +2513,25 @@
         <v>0.03</v>
       </c>
       <c r="D16">
-        <v>130000</v>
+        <v>530000</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>3900</v>
+        <v>15900</v>
       </c>
       <c r="G16" s="22">
         <f t="shared" si="1"/>
-        <v>1.6817593790426907E-2</v>
+        <v>7.7979401667484058E-2</v>
       </c>
       <c r="H16">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.99000000000000021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2423,20 +2547,24 @@
       </c>
       <c r="G17" s="22">
         <f t="shared" si="1"/>
-        <v>7.7619663648124193E-3</v>
+        <v>8.8278567925453647E-3</v>
       </c>
       <c r="H17">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="C18">
         <f>SUM(C3:C17)</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="E18">
         <f>SUM(E3:E17)</f>
-        <v>231900</v>
+        <v>203900</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" si="1"/>
@@ -2445,6 +2573,459 @@
       <c r="H18">
         <f>SUM(H3:H17)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <f>A21*0.4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.19</v>
+      </c>
+      <c r="D24">
+        <v>20000</v>
+      </c>
+      <c r="E24">
+        <f>D24*C24</f>
+        <v>3800</v>
+      </c>
+      <c r="G24" s="22">
+        <f>E24/$E$39</f>
+        <v>0.11072261072261072</v>
+      </c>
+      <c r="H24">
+        <v>0.12</v>
+      </c>
+      <c r="I24">
+        <f>C24</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.25</v>
+      </c>
+      <c r="D25">
+        <v>15000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E38" si="3">D25*C25</f>
+        <v>3750</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" ref="G25:G38" si="4">E25/$E$39</f>
+        <v>0.10926573426573427</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <f>C25+I24</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+      <c r="D26">
+        <v>36000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="4"/>
+        <v>0.1048951048951049</v>
+      </c>
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I38" si="5">C26+I25</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0.155</v>
+      </c>
+      <c r="D27">
+        <v>19000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>2945</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="4"/>
+        <v>8.5810023310023312E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.09</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>0.69500000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0.12</v>
+      </c>
+      <c r="D28">
+        <v>25000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="4"/>
+        <v>8.7412587412587409E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.09</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>0.81500000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0.08</v>
+      </c>
+      <c r="D29">
+        <v>35000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="4"/>
+        <v>8.1585081585081584E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.08</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>0.02</v>
+      </c>
+      <c r="D30">
+        <v>150000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="4"/>
+        <v>8.7412587412587409E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.08</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.03</v>
+      </c>
+      <c r="D31">
+        <v>90000</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="4"/>
+        <v>7.8671328671328672E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.08</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0.01</v>
+      </c>
+      <c r="D32">
+        <v>200000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="4"/>
+        <v>5.8275058275058272E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.06</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0.95500000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D33">
+        <v>450000</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>2250</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="4"/>
+        <v>6.555944055944056E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.06</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>0.96000000000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>0.02</v>
+      </c>
+      <c r="D34">
+        <v>90000</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="4"/>
+        <v>5.2447552447552448E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.05</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>0.98000000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>105000</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>1365</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="4"/>
+        <v>3.9772727272727272E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.05</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>0.9930000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>120000</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="4"/>
+        <v>1.7482517482517484E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.02</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>0.99800000000000011</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>1E-3</v>
+      </c>
+      <c r="D37">
+        <v>530000</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="4"/>
+        <v>1.5442890442890442E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.01</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>1E-3</v>
+      </c>
+      <c r="D38">
+        <v>180000</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="G38" s="22">
+        <f t="shared" si="4"/>
+        <v>5.244755244755245E-3</v>
+      </c>
+      <c r="H38">
+        <v>0.01</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="C39">
+        <f>SUM(C24:C38)</f>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f>SUM(E24:E38)</f>
+        <v>34320</v>
+      </c>
+      <c r="G39" s="22">
+        <f>SUM(G24:G38)</f>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f>SUM(H24:H38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="G40" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2452,6 +3033,1694 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="10.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.19</v>
+      </c>
+      <c r="D3">
+        <v>200000</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>38000</v>
+      </c>
+      <c r="G3" s="22">
+        <f>E3/$E$33</f>
+        <v>0.18269230769230768</v>
+      </c>
+      <c r="H3">
+        <v>0.18</v>
+      </c>
+      <c r="I3">
+        <f>C3</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>650000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E32" si="0">D4*C4</f>
+        <v>19500</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G32" si="1">E4/$E$33</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <f>C4+I3</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>360000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>6.9230769230769235E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.08</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I32" si="2">C5+I4</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>190000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>9500</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>4.567307692307692E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
+        <v>250000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>4.807692307692308E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>350000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>10500</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>5.0480769230769232E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9">
+        <v>150000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10500.000000000002</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>5.0480769230769239E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.08</v>
+      </c>
+      <c r="D10">
+        <v>90000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>3.4615384615384617E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.04</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.04</v>
+      </c>
+      <c r="D11">
+        <v>200000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.04</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0.03</v>
+      </c>
+      <c r="D12">
+        <v>250000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>3.6057692307692304E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.03</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>90000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>2.5961538461538463E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.03</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.66000000000000014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+      <c r="D14">
+        <v>105000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="1"/>
+        <v>2.5240384615384616E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.03</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.71000000000000019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.05</v>
+      </c>
+      <c r="D15">
+        <v>120000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153848E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.03</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.76000000000000023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+      <c r="D16">
+        <v>530000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5300</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>2.548076923076923E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.03</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.77000000000000024</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0.02</v>
+      </c>
+      <c r="D17">
+        <v>180000</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="1"/>
+        <v>1.7307692307692309E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.02</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.79000000000000026</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0.02</v>
+      </c>
+      <c r="D18">
+        <v>200000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.02</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.81000000000000028</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0.01</v>
+      </c>
+      <c r="D19">
+        <v>650000</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.02</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.82000000000000028</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0.02</v>
+      </c>
+      <c r="D20">
+        <v>360000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="1"/>
+        <v>3.4615384615384617E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.02</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.8400000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+      <c r="D21">
+        <v>190000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="1"/>
+        <v>1.826923076923077E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.02</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0.86000000000000032</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0.01</v>
+      </c>
+      <c r="D22">
+        <v>250000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="1"/>
+        <v>1.201923076923077E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.01</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0.87000000000000033</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>350000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="1"/>
+        <v>1.6826923076923076E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.01</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0.88000000000000034</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
+        <v>150000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="1"/>
+        <v>7.2115384615384619E-3</v>
+      </c>
+      <c r="H24">
+        <v>0.01</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0.89000000000000035</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>0.02</v>
+      </c>
+      <c r="D25">
+        <v>90000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="1"/>
+        <v>8.6538461538461543E-3</v>
+      </c>
+      <c r="H25">
+        <v>0.01</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0.91000000000000036</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>0.01</v>
+      </c>
+      <c r="D26">
+        <v>200000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="1"/>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="H26">
+        <v>0.01</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.92000000000000037</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>0.01</v>
+      </c>
+      <c r="D27">
+        <v>250000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="1"/>
+        <v>1.201923076923077E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.01</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0.93000000000000038</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>0.03</v>
+      </c>
+      <c r="D28">
+        <v>90000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="1"/>
+        <v>1.2980769230769231E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.01</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0.96000000000000041</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>0.01</v>
+      </c>
+      <c r="D29">
+        <v>105000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="1"/>
+        <v>5.0480769230769234E-3</v>
+      </c>
+      <c r="H29">
+        <v>0.01</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.97000000000000042</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>0.01</v>
+      </c>
+      <c r="D30">
+        <v>120000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="1"/>
+        <v>5.7692307692307696E-3</v>
+      </c>
+      <c r="H30">
+        <v>0.01</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0.98000000000000043</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>0.01</v>
+      </c>
+      <c r="D31">
+        <v>530000</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>5300</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="1"/>
+        <v>2.548076923076923E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.01</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0.99000000000000044</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>0.01</v>
+      </c>
+      <c r="D32">
+        <v>180000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="1"/>
+        <v>8.6538461538461543E-3</v>
+      </c>
+      <c r="H32">
+        <v>0.01</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="C33">
+        <f>SUM(C3:C32)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="E33">
+        <f>SUM(E3:E32)</f>
+        <v>208000</v>
+      </c>
+      <c r="G33" s="22">
+        <f>SUM(G3:G32)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H33">
+        <f>SUM(H3:H32)</f>
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D37">
+        <v>50000</v>
+      </c>
+      <c r="E37">
+        <f>D37*C37</f>
+        <v>9700</v>
+      </c>
+      <c r="G37" s="22">
+        <f>E37/$E$67</f>
+        <v>0.15348101265822786</v>
+      </c>
+      <c r="H37">
+        <v>0.18</v>
+      </c>
+      <c r="I37">
+        <f>C37</f>
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0.11</v>
+      </c>
+      <c r="D38">
+        <v>65000</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E66" si="3">D38*C38</f>
+        <v>7150</v>
+      </c>
+      <c r="G38" s="22">
+        <f t="shared" ref="G38:G66" si="4">E38/$E$67</f>
+        <v>0.11313291139240507</v>
+      </c>
+      <c r="H38">
+        <v>0.1</v>
+      </c>
+      <c r="I38">
+        <f>C38+I37</f>
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0.04</v>
+      </c>
+      <c r="D39">
+        <v>106000</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>4240</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="shared" si="4"/>
+        <v>6.7088607594936706E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.08</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I66" si="5">C39+I38</f>
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D40">
+        <v>39000</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>2730.0000000000005</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="4"/>
+        <v>4.3196202531645578E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.05</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0.13</v>
+      </c>
+      <c r="D41">
+        <v>25000</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>3250</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" si="4"/>
+        <v>5.1424050632911396E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.05</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0.1</v>
+      </c>
+      <c r="D42">
+        <v>35000</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+      <c r="G42" s="22">
+        <f t="shared" si="4"/>
+        <v>5.5379746835443035E-2</v>
+      </c>
+      <c r="H42">
+        <v>0.05</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>0.05</v>
+      </c>
+      <c r="D43">
+        <v>75000</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>3750</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="4"/>
+        <v>5.9335443037974681E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.05</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>0.69400000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>0.05</v>
+      </c>
+      <c r="D44">
+        <v>50000</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="G44" s="22">
+        <f t="shared" si="4"/>
+        <v>3.9556962025316458E-2</v>
+      </c>
+      <c r="H44">
+        <v>0.04</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>0.74400000000000011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D45">
+        <v>200000</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="G45" s="22">
+        <f t="shared" si="4"/>
+        <v>4.746835443037975E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.04</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>0.75900000000000012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>0.04</v>
+      </c>
+      <c r="D46">
+        <v>25000</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="G46" s="22">
+        <f t="shared" si="4"/>
+        <v>1.5822784810126583E-2</v>
+      </c>
+      <c r="H46">
+        <v>0.03</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="5"/>
+        <v>0.79900000000000015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>0.02</v>
+      </c>
+      <c r="D47">
+        <v>90000</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" si="4"/>
+        <v>2.8481012658227847E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.03</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>0.81900000000000017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>0.02</v>
+      </c>
+      <c r="D48">
+        <v>105000</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="G48" s="22">
+        <f t="shared" si="4"/>
+        <v>3.3227848101265819E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.03</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="5"/>
+        <v>0.83900000000000019</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>0.03</v>
+      </c>
+      <c r="D49">
+        <v>78000</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>2340</v>
+      </c>
+      <c r="G49" s="22">
+        <f t="shared" si="4"/>
+        <v>3.7025316455696206E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.03</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>0.86900000000000022</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>0.01</v>
+      </c>
+      <c r="D50">
+        <v>153000</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>1530</v>
+      </c>
+      <c r="G50" s="22">
+        <f t="shared" si="4"/>
+        <v>2.4208860759493672E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.03</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="5"/>
+        <v>0.87900000000000023</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D51">
+        <v>180000</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+      <c r="G51" s="22">
+        <f t="shared" si="4"/>
+        <v>1.9936708860759492E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.02</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="5"/>
+        <v>0.88600000000000023</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D52">
+        <v>200000</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="G52" s="22">
+        <f t="shared" si="4"/>
+        <v>2.2151898734177215E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.02</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="5"/>
+        <v>0.89300000000000024</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>0.01</v>
+      </c>
+      <c r="D53">
+        <v>105000</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="G53" s="22">
+        <f t="shared" si="4"/>
+        <v>1.661392405063291E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.02</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="5"/>
+        <v>0.90300000000000025</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D54">
+        <v>120000</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>1440</v>
+      </c>
+      <c r="G54" s="22">
+        <f t="shared" si="4"/>
+        <v>2.2784810126582278E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.02</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="5"/>
+        <v>0.91500000000000026</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>0.01</v>
+      </c>
+      <c r="D55">
+        <v>110000</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="G55" s="22">
+        <f t="shared" si="4"/>
+        <v>1.740506329113924E-2</v>
+      </c>
+      <c r="H55">
+        <v>0.02</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="5"/>
+        <v>0.92500000000000027</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>0.01</v>
+      </c>
+      <c r="D56">
+        <v>100000</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="G56" s="22">
+        <f t="shared" si="4"/>
+        <v>1.5822784810126583E-2</v>
+      </c>
+      <c r="H56">
+        <v>0.01</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="5"/>
+        <v>0.93500000000000028</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D57">
+        <v>130000</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>910</v>
+      </c>
+      <c r="G57" s="22">
+        <f t="shared" si="4"/>
+        <v>1.439873417721519E-2</v>
+      </c>
+      <c r="H57">
+        <v>0.01</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="5"/>
+        <v>0.94200000000000028</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D58">
+        <v>150000</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="G58" s="22">
+        <f t="shared" si="4"/>
+        <v>1.1867088607594937E-2</v>
+      </c>
+      <c r="H58">
+        <v>0.01</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="5"/>
+        <v>0.94700000000000029</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59">
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>0.01</v>
+      </c>
+      <c r="D59">
+        <v>90000</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="G59" s="22">
+        <f t="shared" si="4"/>
+        <v>1.4240506329113924E-2</v>
+      </c>
+      <c r="H59">
+        <v>0.01</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="5"/>
+        <v>0.95700000000000029</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>0.01</v>
+      </c>
+      <c r="D60">
+        <v>100000</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="G60" s="22">
+        <f t="shared" si="4"/>
+        <v>1.5822784810126583E-2</v>
+      </c>
+      <c r="H60">
+        <v>0.01</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="5"/>
+        <v>0.9670000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D61">
+        <v>150000</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="G61" s="22">
+        <f t="shared" si="4"/>
+        <v>7.1202531645569618E-3</v>
+      </c>
+      <c r="H61">
+        <v>0.01</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="5"/>
+        <v>0.97000000000000031</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>0.01</v>
+      </c>
+      <c r="D62">
+        <v>90000</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="G62" s="22">
+        <f t="shared" si="4"/>
+        <v>1.4240506329113924E-2</v>
+      </c>
+      <c r="H62">
+        <v>0.01</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="5"/>
+        <v>0.98000000000000032</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63">
+        <v>26</v>
+      </c>
+      <c r="C63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D63">
+        <v>105000</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
+      <c r="G63" s="22">
+        <f t="shared" si="4"/>
+        <v>8.3069620253164549E-3</v>
+      </c>
+      <c r="H63">
+        <v>0.01</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="5"/>
+        <v>0.98500000000000032</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64">
+        <v>27</v>
+      </c>
+      <c r="C64">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D64">
+        <v>120000</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="G64" s="22">
+        <f t="shared" si="4"/>
+        <v>9.4936708860759497E-3</v>
+      </c>
+      <c r="H64">
+        <v>0.01</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="5"/>
+        <v>0.99000000000000032</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D65">
+        <v>130000</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="G65" s="22">
+        <f t="shared" si="4"/>
+        <v>1.0284810126582278E-2</v>
+      </c>
+      <c r="H65">
+        <v>0.01</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="5"/>
+        <v>0.99500000000000033</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66">
+        <v>29</v>
+      </c>
+      <c r="C66">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D66">
+        <v>135000</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>675</v>
+      </c>
+      <c r="G66" s="22">
+        <f t="shared" si="4"/>
+        <v>1.0680379746835443E-2</v>
+      </c>
+      <c r="H66">
+        <v>0.01</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="C67">
+        <f>SUM(C37:C66)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E67">
+        <f>SUM(E37:E66)</f>
+        <v>63200</v>
+      </c>
+      <c r="G67" s="22">
+        <f>SUM(G37:G66)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H67">
+        <f>SUM(H37:H66)</f>
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G3:I33">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2463,13 +4732,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -2480,7 +4749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +4763,7 @@
         <v>64203643.133333303</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2508,7 +4777,7 @@
         <v>102177328.058824</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +4791,7 @@
         <v>42088905.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2536,7 +4805,7 @@
         <v>54883486.625</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2550,7 +4819,7 @@
         <v>64090230.142857097</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2564,7 +4833,7 @@
         <v>65195183.625</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2578,7 +4847,7 @@
         <v>46803639.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +4861,7 @@
         <v>47237670.714285702</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2606,7 +4875,7 @@
         <v>50638457.714285702</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2620,7 +4889,7 @@
         <v>55945417.888888903</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2634,7 +4903,7 @@
         <v>81889749.535714298</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2648,7 +4917,7 @@
         <v>51869571.727272697</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +4931,7 @@
         <v>88381438.066666707</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2676,7 +4945,7 @@
         <v>53790349.125</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2692,6 +4961,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2703,16 +4977,16 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="7" width="16.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="5" max="7" width="16.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>48</v>
       </c>
@@ -2730,7 +5004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -2753,7 +5027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3">
         <v>0.03</v>
       </c>
@@ -2783,7 +5057,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4">
         <v>0.16</v>
       </c>
@@ -2815,7 +5089,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="B5">
         <v>0.09</v>
       </c>
@@ -2847,7 +5121,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="B6">
         <v>0.12</v>
       </c>
@@ -2879,7 +5153,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="B7">
         <v>0.11</v>
       </c>
@@ -2911,7 +5185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="B8">
         <v>0.13</v>
       </c>
@@ -2943,7 +5217,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9">
         <v>0.36</v>
       </c>
@@ -2975,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -3006,10 +5280,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="42">
       <c r="A12" s="9" t="s">
         <v>49</v>
       </c>
@@ -3048,7 +5322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="B13">
         <v>0.02</v>
       </c>
@@ -3091,7 +5365,7 @@
         <v>7.2319201995012475E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="B14">
         <v>0.2</v>
       </c>
@@ -3135,7 +5409,7 @@
         <v>0.21695760598503741</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15">
         <v>0.1</v>
       </c>
@@ -3179,7 +5453,7 @@
         <v>9.9750623441396506E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="B16">
         <v>0.1</v>
       </c>
@@ -3223,7 +5497,7 @@
         <v>3.4912718204488775E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="B17">
         <v>0.08</v>
       </c>
@@ -3267,7 +5541,7 @@
         <v>1.2468827930174564E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="B18">
         <v>0.1</v>
       </c>
@@ -3311,7 +5585,7 @@
         <v>5.4862842892768077E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="B19">
         <v>0.4</v>
       </c>
@@ -3355,7 +5629,7 @@
         <v>0.59850374064837908</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>1</v>
@@ -3384,7 +5658,7 @@
         <v>100075000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3392,7 +5666,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -3403,7 +5677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -3420,15 +5694,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -3466,7 +5740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="B27">
         <v>0.02</v>
       </c>
@@ -3509,7 +5783,7 @@
         <v>0.10406698564593302</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="B28">
         <v>0.2</v>
       </c>
@@ -3553,7 +5827,7 @@
         <v>0.10645933014354067</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="B29">
         <v>0.1</v>
       </c>
@@ -3597,7 +5871,7 @@
         <v>1.076555023923445E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="B30">
         <v>0.1</v>
       </c>
@@ -3641,7 +5915,7 @@
         <v>1.7942583732057416E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="B31">
         <v>0.08</v>
       </c>
@@ -3685,7 +5959,7 @@
         <v>4.7846889952153108E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="B32">
         <v>0.1</v>
       </c>
@@ -3729,7 +6003,7 @@
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="B33">
         <v>0.4</v>
       </c>
@@ -3773,7 +6047,7 @@
         <v>0.73325358851674638</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="D34">
         <f>SUM(D27:D33)</f>
         <v>1</v>
@@ -3802,7 +6076,7 @@
         <v>104550000</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -3840,7 +6114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="B38">
         <v>0.02</v>
       </c>
@@ -3883,7 +6157,7 @@
         <v>5.5693069306930694E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="B39">
         <v>0.2</v>
       </c>
@@ -3927,7 +6201,7 @@
         <v>5.5074257425742575E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="B40">
         <v>0.1</v>
       </c>
@@ -3971,7 +6245,7 @@
         <v>6.8069306930693069E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="B41">
         <v>0.1</v>
       </c>
@@ -4015,7 +6289,7 @@
         <v>1.2995049504950494E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="B42">
         <v>0.08</v>
       </c>
@@ -4059,7 +6333,7 @@
         <v>1.2376237623762376E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="B43">
         <v>0.1</v>
       </c>
@@ -4103,7 +6377,7 @@
         <v>1.7326732673267328E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="B44">
         <v>0.4</v>
       </c>
@@ -4147,7 +6421,7 @@
         <v>0.8508663366336634</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="D45">
         <f>SUM(D38:D44)</f>
         <v>1</v>
@@ -4176,12 +6450,12 @@
         <v>100095000</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="B47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -4219,7 +6493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14">
       <c r="B49">
         <v>0.02</v>
       </c>
@@ -4263,7 +6537,7 @@
         <v>2.5815704553603443E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14">
       <c r="B50">
         <v>0.2</v>
       </c>
@@ -4307,7 +6581,7 @@
         <v>0.31946934385084258</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14">
       <c r="B51">
         <v>0.1</v>
       </c>
@@ -4351,7 +6625,7 @@
         <v>2.509860164933668E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14">
       <c r="B52">
         <v>0.1</v>
       </c>
@@ -4395,7 +6669,7 @@
         <v>6.4539261384008607E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14">
       <c r="B53">
         <v>0.08</v>
       </c>
@@ -4439,7 +6713,7 @@
         <v>1.7569021154535677E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14">
       <c r="B54">
         <v>0.1</v>
       </c>
@@ -4483,7 +6757,7 @@
         <v>8.8562208676945142E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14">
       <c r="B55">
         <v>0.4</v>
       </c>
@@ -4527,7 +6801,7 @@
         <v>0.51703119397633557</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14">
       <c r="D56">
         <f>SUM(D49:D55)</f>
         <v>1</v>
@@ -4558,7 +6832,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4570,21 +6849,21 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -4607,7 +6886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>0</v>
       </c>
@@ -4633,7 +6912,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4659,7 +6938,7 @@
         <v>0.12000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4685,7 +6964,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4711,7 +6990,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4737,7 +7016,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4763,7 +7042,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>6</v>
       </c>
@@ -4789,7 +7068,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10">
         <v>7</v>
       </c>
@@ -4815,7 +7094,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11">
         <v>8</v>
       </c>
@@ -4841,7 +7120,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12">
         <v>9</v>
       </c>
@@ -4867,7 +7146,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13">
         <v>10</v>
       </c>
@@ -4893,7 +7172,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14">
         <v>11</v>
       </c>
@@ -4922,7 +7201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="C15">
         <f>SUM(C3:C14)</f>
         <v>1</v>
@@ -4946,7 +7225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -4954,17 +7233,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -4975,7 +7254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -4998,7 +7277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="B23">
         <v>0</v>
       </c>
@@ -5024,7 +7303,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="B24">
         <v>1</v>
       </c>
@@ -5050,7 +7329,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="B25">
         <v>2</v>
       </c>
@@ -5076,7 +7355,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="B26">
         <v>3</v>
       </c>
@@ -5102,7 +7381,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="B27">
         <v>4</v>
       </c>
@@ -5128,7 +7407,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="B28">
         <v>5</v>
       </c>
@@ -5154,7 +7433,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="B29">
         <v>6</v>
       </c>
@@ -5180,7 +7459,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30">
         <v>7</v>
       </c>
@@ -5206,7 +7485,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="B31">
         <v>8</v>
       </c>
@@ -5232,7 +7511,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32">
         <v>9</v>
       </c>
@@ -5258,7 +7537,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10">
       <c r="B33">
         <v>10</v>
       </c>
@@ -5284,7 +7563,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10">
       <c r="B34">
         <v>11</v>
       </c>
@@ -5313,7 +7592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10">
       <c r="C35">
         <f>SUM(C23:C34)</f>
         <v>1</v>
@@ -5339,6 +7618,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5350,20 +7634,20 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="22"/>
+    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -5386,7 +7670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>0</v>
       </c>
@@ -5413,7 +7697,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>1</v>
       </c>
@@ -5440,7 +7724,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>2</v>
       </c>
@@ -5467,7 +7751,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6">
         <v>3</v>
       </c>
@@ -5494,7 +7778,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7">
         <v>4</v>
       </c>
@@ -5521,7 +7805,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>5</v>
       </c>
@@ -5548,7 +7832,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>6</v>
       </c>
@@ -5578,7 +7862,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10">
         <f>SUM(C3:C9)</f>
         <v>1</v>
@@ -5596,7 +7880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -5611,7 +7895,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5629,7 +7913,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -5637,7 +7921,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>59</v>
       </c>
@@ -5660,7 +7944,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>0</v>
       </c>
@@ -5687,7 +7971,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17">
         <v>1</v>
       </c>
@@ -5714,7 +7998,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18">
         <v>2</v>
       </c>
@@ -5741,7 +8025,7 @@
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19">
         <v>3</v>
       </c>
@@ -5768,7 +8052,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20">
         <v>4</v>
       </c>
@@ -5798,7 +8082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21">
         <v>5</v>
       </c>
@@ -5825,7 +8109,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22">
         <v>6</v>
       </c>
@@ -5852,7 +8136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="C23">
         <f>SUM(C16:C22)</f>
         <v>1</v>
@@ -5870,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="G24" s="22" t="s">
         <v>45</v>
       </c>
@@ -5880,6 +8164,11 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5891,20 +8180,20 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -5927,7 +8216,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>0</v>
       </c>
@@ -5953,7 +8242,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>1</v>
       </c>
@@ -5979,7 +8268,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>2</v>
       </c>
@@ -6005,7 +8294,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6">
         <v>3</v>
       </c>
@@ -6031,7 +8320,7 @@
         <v>0.58000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7">
         <v>4</v>
       </c>
@@ -6057,7 +8346,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>5</v>
       </c>
@@ -6083,7 +8372,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>6</v>
       </c>
@@ -6109,7 +8398,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10">
         <v>7</v>
       </c>
@@ -6138,7 +8427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11">
         <f>SUM(C3:C10)</f>
         <v>1</v>
@@ -6156,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -6167,7 +8456,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6180,7 +8469,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6191,7 +8480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>59</v>
       </c>
@@ -6214,7 +8503,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17">
         <v>0</v>
       </c>
@@ -6240,7 +8529,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="B18">
         <v>1</v>
       </c>
@@ -6266,7 +8555,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19">
         <v>2</v>
       </c>
@@ -6292,7 +8581,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20">
         <v>3</v>
       </c>
@@ -6318,7 +8607,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21">
         <v>4</v>
       </c>
@@ -6344,7 +8633,7 @@
         <v>0.93499999999999994</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22">
         <v>5</v>
       </c>
@@ -6370,7 +8659,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10">
       <c r="B23">
         <v>6</v>
       </c>
@@ -6396,7 +8685,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10">
       <c r="B24">
         <v>7</v>
       </c>
@@ -6425,7 +8714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10">
       <c r="C25">
         <f>SUM(C17:C24)</f>
         <v>0.995</v>
@@ -6448,6 +8737,11 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6459,19 +8753,19 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="22"/>
-    <col min="9" max="9" width="9.140625" style="22"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="22"/>
+    <col min="9" max="9" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -6494,7 +8788,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>0</v>
       </c>
@@ -6520,7 +8814,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>1</v>
       </c>
@@ -6546,7 +8840,7 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>2</v>
       </c>
@@ -6572,7 +8866,7 @@
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6">
         <v>3</v>
       </c>
@@ -6598,7 +8892,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7">
         <v>4</v>
       </c>
@@ -6624,7 +8918,7 @@
         <v>0.91699999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>5</v>
       </c>
@@ -6650,7 +8944,7 @@
         <v>0.93699999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>6</v>
       </c>
@@ -6676,7 +8970,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10">
         <v>7</v>
       </c>
@@ -6705,7 +8999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11">
         <f>SUM(C3:C10)</f>
         <v>1</v>
@@ -6723,7 +9017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -6734,7 +9028,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>8</v>
       </c>
@@ -6747,12 +9041,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>59</v>
       </c>
@@ -6775,7 +9069,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>0</v>
       </c>
@@ -6801,7 +9095,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19">
         <v>1</v>
       </c>
@@ -6827,7 +9121,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20">
         <v>2</v>
       </c>
@@ -6853,7 +9147,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21">
         <v>3</v>
       </c>
@@ -6879,7 +9173,7 @@
         <v>0.94000000000000006</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22">
         <v>4</v>
       </c>
@@ -6905,7 +9199,7 @@
         <v>0.97000000000000008</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23">
         <v>5</v>
       </c>
@@ -6931,7 +9225,7 @@
         <v>0.97400000000000009</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24">
         <v>6</v>
       </c>
@@ -6957,7 +9251,7 @@
         <v>0.9900000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25">
         <v>7</v>
       </c>
@@ -6983,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="C26">
         <f>SUM(C18:C25)</f>
         <v>1</v>
@@ -7004,7 +9298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="C27" t="s">
         <v>45</v>
       </c>
@@ -7020,6 +9314,11 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7031,19 +9330,19 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="22"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -7066,7 +9365,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>0</v>
       </c>
@@ -7092,7 +9391,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>1</v>
       </c>
@@ -7118,7 +9417,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>2</v>
       </c>
@@ -7144,7 +9443,7 @@
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6">
         <v>3</v>
       </c>
@@ -7170,7 +9469,7 @@
         <v>0.62999999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7">
         <v>4</v>
       </c>
@@ -7196,7 +9495,7 @@
         <v>0.67999999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>5</v>
       </c>
@@ -7222,7 +9521,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>6</v>
       </c>
@@ -7248,7 +9547,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10">
         <v>7</v>
       </c>
@@ -7274,7 +9573,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11">
         <v>8</v>
       </c>
@@ -7300,7 +9599,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12">
         <v>9</v>
       </c>
@@ -7326,7 +9625,7 @@
         <v>0.95000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13">
         <v>10</v>
       </c>
@@ -7355,7 +9654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14">
         <f>SUM(C3:C13)</f>
         <v>1</v>
@@ -7373,7 +9672,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -7384,7 +9683,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>11</v>
       </c>
@@ -7397,7 +9696,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -7423,7 +9722,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="B19">
         <v>0</v>
       </c>
@@ -7449,7 +9748,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="B20">
         <v>1</v>
       </c>
@@ -7475,7 +9774,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="B21">
         <v>2</v>
       </c>
@@ -7501,7 +9800,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="B22">
         <v>3</v>
       </c>
@@ -7527,7 +9826,7 @@
         <v>0.87999999999999989</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="B23">
         <v>4</v>
       </c>
@@ -7553,7 +9852,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="B24">
         <v>5</v>
       </c>
@@ -7579,7 +9878,7 @@
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="B25">
         <v>6</v>
       </c>
@@ -7605,7 +9904,7 @@
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="B26">
         <v>7</v>
       </c>
@@ -7631,7 +9930,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="B27">
         <v>8</v>
       </c>
@@ -7657,7 +9956,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="B28">
         <v>9</v>
       </c>
@@ -7686,7 +9985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="B29">
         <v>10</v>
       </c>
@@ -7712,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="C30">
         <f>SUM(C19:C29)</f>
         <v>1</v>
@@ -7735,6 +10034,11 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7746,18 +10050,18 @@
       <selection activeCell="C3" sqref="C3:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="22"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -7780,7 +10084,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>0</v>
       </c>
@@ -7806,7 +10110,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>1</v>
       </c>
@@ -7832,7 +10136,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>2</v>
       </c>
@@ -7858,7 +10162,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6">
         <v>3</v>
       </c>
@@ -7884,7 +10188,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7">
         <v>4</v>
       </c>
@@ -7910,7 +10214,7 @@
         <v>0.47000000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>5</v>
       </c>
@@ -7936,7 +10240,7 @@
         <v>0.4900000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>6</v>
       </c>
@@ -7962,7 +10266,7 @@
         <v>0.53000000000000014</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10">
         <v>7</v>
       </c>
@@ -7988,7 +10292,7 @@
         <v>0.68000000000000016</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11">
         <v>8</v>
       </c>
@@ -8014,7 +10318,7 @@
         <v>0.7200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12">
         <v>9</v>
       </c>
@@ -8040,7 +10344,7 @@
         <v>0.79000000000000026</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13">
         <v>10</v>
       </c>
@@ -8066,7 +10370,7 @@
         <v>0.89000000000000024</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14">
         <v>11</v>
       </c>
@@ -8092,7 +10396,7 @@
         <v>0.94000000000000028</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15">
         <v>12</v>
       </c>
@@ -8118,7 +10422,7 @@
         <v>0.98000000000000032</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>13</v>
       </c>
@@ -8147,7 +10451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="C17">
         <f>SUM(C3:C16)</f>
         <v>1.0000000000000002</v>
@@ -8165,7 +10469,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -8173,7 +10477,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>14</v>
       </c>
@@ -8182,12 +10486,12 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -8210,7 +10514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="B23">
         <v>0</v>
       </c>
@@ -8236,7 +10540,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="B24">
         <v>1</v>
       </c>
@@ -8262,7 +10566,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="B25">
         <v>2</v>
       </c>
@@ -8288,7 +10592,7 @@
         <v>0.43000000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="B26">
         <v>3</v>
       </c>
@@ -8314,7 +10618,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="B27">
         <v>4</v>
       </c>
@@ -8340,7 +10644,7 @@
         <v>0.71000000000000008</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="B28">
         <v>5</v>
       </c>
@@ -8366,7 +10670,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="B29">
         <v>6</v>
       </c>
@@ -8392,7 +10696,7 @@
         <v>0.82000000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30">
         <v>7</v>
       </c>
@@ -8418,7 +10722,7 @@
         <v>0.87000000000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="B31">
         <v>8</v>
       </c>
@@ -8444,7 +10748,7 @@
         <v>0.91000000000000014</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32">
         <v>9</v>
       </c>
@@ -8470,7 +10774,7 @@
         <v>0.93000000000000016</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10">
       <c r="B33">
         <v>10</v>
       </c>
@@ -8496,7 +10800,7 @@
         <v>0.96000000000000019</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10">
       <c r="B34">
         <v>11</v>
       </c>
@@ -8522,7 +10826,7 @@
         <v>0.9800000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10">
       <c r="B35">
         <v>12</v>
       </c>
@@ -8548,7 +10852,7 @@
         <v>0.99000000000000021</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10">
       <c r="B36">
         <v>13</v>
       </c>
@@ -8574,7 +10878,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10">
       <c r="C37">
         <f>SUM(C23:C36)</f>
         <v>1.0000000000000002</v>
@@ -8600,5 +10904,10 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/sanitized.xlsx
+++ b/sanitized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27322"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="40" windowWidth="28080" windowHeight="14660" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="1000" yWindow="0" windowWidth="20900" windowHeight="14680" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="impacts" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="91">
   <si>
     <t>astar</t>
   </si>
@@ -316,7 +316,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +376,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -423,7 +429,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -471,6 +477,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -798,7 +805,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1213,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3046,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4637,7 +4644,7 @@
         <v>0.99000000000000032</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:9">
       <c r="B65">
         <v>28</v>
       </c>
@@ -4663,7 +4670,7 @@
         <v>0.99500000000000033</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:9">
       <c r="B66">
         <v>29</v>
       </c>
@@ -4688,11 +4695,8 @@
         <f t="shared" si="5"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="J66" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10">
+    </row>
+    <row r="67" spans="2:9">
       <c r="C67">
         <f>SUM(C37:C66)</f>
         <v>1.0000000000000002</v>
@@ -7628,10 +7632,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7686,8 +7690,8 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="22">
-        <f>E3/$E$10</f>
-        <v>0.3843137254901961</v>
+        <f>E3/$E$11</f>
+        <v>0.39059386209645275</v>
       </c>
       <c r="H3">
         <v>0.39</v>
@@ -7708,13 +7712,13 @@
         <v>250000</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E9" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E10" si="0">C4*D4</f>
         <v>20000</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="22">
-        <f t="shared" ref="G4:G9" si="1">E4/$E$10</f>
-        <v>0.15686274509803921</v>
+        <f>E4/$E$11</f>
+        <v>0.15942606616181745</v>
       </c>
       <c r="H4">
         <v>0.17</v>
@@ -7740,14 +7744,14 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="22">
-        <f t="shared" si="1"/>
-        <v>0.11176470588235295</v>
+        <f>E5/$E$11</f>
+        <v>0.11359107214029494</v>
       </c>
       <c r="H5">
         <v>0.11</v>
       </c>
       <c r="I5" s="22">
-        <f t="shared" ref="I5:I9" si="2">C5+I4</f>
+        <f t="shared" ref="I5:I8" si="1">C5+I4</f>
         <v>0.72</v>
       </c>
     </row>
@@ -7756,26 +7760,26 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="4">
         <v>500000</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="22">
+        <f>E6/$E$11</f>
+        <v>9.9641291351135905E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="22">
         <f t="shared" si="1"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="H6">
-        <v>0.11</v>
-      </c>
-      <c r="I6" s="22">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7783,26 +7787,26 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D7" s="4">
         <v>150000</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>12750.000000000002</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="22">
-        <f t="shared" si="1"/>
-        <v>0.10588235294117647</v>
+        <f>E7/$E$11</f>
+        <v>0.10163411717815864</v>
       </c>
       <c r="H7">
         <v>0.09</v>
       </c>
       <c r="I7" s="22">
-        <f t="shared" si="2"/>
-        <v>0.84</v>
+        <f t="shared" si="1"/>
+        <v>0.83</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7821,15 +7825,15 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="22">
-        <f t="shared" si="1"/>
-        <v>8.6274509803921567E-2</v>
+        <f>E8/$E$11</f>
+        <v>8.7684336388999598E-2</v>
       </c>
       <c r="H8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I8" s="22">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
+        <f t="shared" si="1"/>
+        <v>0.94</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7848,314 +7852,374 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="22">
-        <f t="shared" si="1"/>
-        <v>3.7254901960784313E-2</v>
+        <f>E9/$E$11</f>
+        <v>3.7863690713431646E-2</v>
       </c>
       <c r="H9">
         <v>0.06</v>
       </c>
       <c r="I9" s="22">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>C9+I8</f>
+        <v>0.99</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10">
+      <c r="B10">
+        <v>7</v>
+      </c>
       <c r="C10">
-        <f>SUM(C3:C9)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="4">
+        <v>120000</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="22">
+        <f>E10/$E$11</f>
+        <v>9.5655639697090466E-3</v>
+      </c>
+      <c r="H10">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="22">
+        <f>C10+I9</f>
         <v>1</v>
       </c>
-      <c r="E10" s="8">
-        <f>SUM(E3:E9)</f>
-        <v>127500</v>
-      </c>
-      <c r="G10" s="22">
-        <f>SUM(G3:G9)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="H10">
-        <f>SUM(H3:H9)</f>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11">
+        <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="E11" s="8">
+        <f>SUM(E3:E10)</f>
+        <v>125450</v>
+      </c>
+      <c r="G11" s="22">
+        <f>SUM(G3:G10)</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H3:H10)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>0.3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>0.4</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D12" s="34">
         <v>0.5</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
         <v>7</v>
       </c>
-      <c r="B12">
-        <f>0.3*A12</f>
+      <c r="B13">
+        <f>0.3*A13</f>
         <v>2.1</v>
       </c>
-      <c r="C12">
-        <f>0.4*A12</f>
+      <c r="C13">
+        <f>0.4*A13</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="D12" s="33">
-        <f>0.5*A12</f>
+      <c r="D13" s="33">
+        <f>0.5*A13</f>
         <v>3.5</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="B15" t="s">
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I16" s="22" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0.74</v>
-      </c>
-      <c r="D16" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E16" s="8">
-        <f>C16*D16</f>
-        <v>7400</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="22">
-        <f>E16/$E$23</f>
-        <v>0.39257294429708223</v>
-      </c>
-      <c r="H16">
-        <v>0.39</v>
-      </c>
-      <c r="I16" s="22">
-        <f>C16</f>
-        <v>0.74</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.13</v>
+        <v>0.74</v>
       </c>
       <c r="D17" s="4">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:E22" si="3">C17*D17</f>
-        <v>3250</v>
+        <f>C17*D17</f>
+        <v>7400</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="22">
-        <f t="shared" ref="G17:G22" si="4">E17/$E$23</f>
-        <v>0.17241379310344829</v>
+        <f>E17/$E$25</f>
+        <v>0.39361702127659576</v>
       </c>
       <c r="H17">
-        <v>0.17</v>
-      </c>
-      <c r="I17" s="22">
-        <f>C17+I16</f>
-        <v>0.87</v>
+        <v>0.39</v>
+      </c>
+      <c r="I17" s="37">
+        <f>C17</f>
+        <v>0.74</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="D18" s="4">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="3"/>
-        <v>2100</v>
+        <f t="shared" ref="E18:E24" si="2">C18*D18</f>
+        <v>3250</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="22">
-        <f t="shared" si="4"/>
-        <v>0.11140583554376658</v>
+        <f t="shared" ref="G18:G24" si="3">E18/$E$25</f>
+        <v>0.17287234042553193</v>
       </c>
       <c r="H18">
-        <v>0.11</v>
-      </c>
-      <c r="I18" s="22">
-        <f t="shared" ref="I18:I22" si="5">C18+I17</f>
-        <v>0.92999999999999994</v>
+        <v>0.17</v>
+      </c>
+      <c r="I18" s="37">
+        <f>C18+I17</f>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="D19" s="4">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="3"/>
-        <v>2000</v>
+        <f t="shared" si="2"/>
+        <v>2100</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="22">
-        <f t="shared" si="4"/>
-        <v>0.10610079575596817</v>
+        <f t="shared" si="3"/>
+        <v>0.11170212765957446</v>
       </c>
       <c r="H19">
         <v>0.11</v>
       </c>
-      <c r="I19" s="22">
-        <f t="shared" si="5"/>
-        <v>0.95</v>
+      <c r="I19" s="37">
+        <f t="shared" ref="I19:I24" si="4">C19+I18</f>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="3"/>
-        <v>1800</v>
+        <f t="shared" si="2"/>
+        <v>1799.9999999999998</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="22">
+        <f t="shared" si="3"/>
+        <v>9.5744680851063815E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="37">
         <f t="shared" si="4"/>
-        <v>9.5490716180371346E-2</v>
-      </c>
-      <c r="H20">
-        <v>0.09</v>
-      </c>
-      <c r="I20" s="22">
-        <f t="shared" si="5"/>
-        <v>0.97</v>
-      </c>
-      <c r="K20" t="s">
-        <v>45</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D21" s="4">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="3"/>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>1800</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="22">
+        <f t="shared" si="3"/>
+        <v>9.5744680851063829E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.09</v>
+      </c>
+      <c r="I21" s="37">
         <f t="shared" si="4"/>
-        <v>5.3050397877984087E-2</v>
-      </c>
-      <c r="H21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I21" s="22">
-        <f t="shared" si="5"/>
-        <v>0.98</v>
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D22" s="4">
-        <v>65000</v>
+        <v>100000</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="3"/>
-        <v>1300</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="22">
+        <f t="shared" si="3"/>
+        <v>5.3191489361702128E-2</v>
+      </c>
+      <c r="H22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I22" s="37">
         <f t="shared" si="4"/>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="H22">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="4">
+        <v>65000</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="22">
+        <f t="shared" si="3"/>
+        <v>6.9148936170212769E-2</v>
+      </c>
+      <c r="H23">
         <v>0.06</v>
       </c>
-      <c r="I22" s="22">
-        <f t="shared" si="5"/>
+      <c r="I23" s="37">
+        <f t="shared" si="4"/>
+        <v>0.998</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>2E-3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>75000</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="22">
+        <f t="shared" si="3"/>
+        <v>7.9787234042553185E-3</v>
+      </c>
+      <c r="H24">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="37">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="C23">
-        <f>SUM(C16:C22)</f>
+    <row r="25" spans="2:11">
+      <c r="C25">
+        <f>SUM(C17:C24)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="8">
-        <f>SUM(E16:E22)</f>
-        <v>18850</v>
-      </c>
-      <c r="G23" s="22">
-        <f>SUM(G16:G22)</f>
+      <c r="E25" s="8">
+        <f>SUM(E17:E24)</f>
+        <v>18800</v>
+      </c>
+      <c r="G25" s="22">
+        <f>SUM(G17:G24)</f>
         <v>1</v>
       </c>
-      <c r="H23">
-        <f>SUM(H16:H22)</f>
+      <c r="H25">
+        <f>SUM(H17:H24)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
-      <c r="G24" s="22" t="s">
+    <row r="26" spans="2:11">
+      <c r="G26" s="22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8176,13 +8240,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
@@ -8200,7 +8264,7 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E2" t="s">
@@ -8223,7 +8287,7 @@
       <c r="C3">
         <v>0.17</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="4">
         <v>200000</v>
       </c>
       <c r="E3">
@@ -8249,7 +8313,7 @@
       <c r="C4">
         <v>0.25</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="4">
         <v>100000</v>
       </c>
       <c r="E4">
@@ -8275,7 +8339,7 @@
       <c r="C5">
         <v>0.15</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="4">
         <v>150000</v>
       </c>
       <c r="E5">
@@ -8301,7 +8365,7 @@
       <c r="C6">
         <v>0.01</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="4">
         <v>2000000</v>
       </c>
       <c r="E6">
@@ -8327,7 +8391,7 @@
       <c r="C7">
         <v>0.19</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="4">
         <v>80000</v>
       </c>
       <c r="E7">
@@ -8353,7 +8417,7 @@
       <c r="C8">
         <v>0.03</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="4">
         <v>450000</v>
       </c>
       <c r="E8">
@@ -8379,7 +8443,7 @@
       <c r="C9">
         <v>0.1</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="4">
         <v>100000</v>
       </c>
       <c r="E9">
@@ -8405,7 +8469,7 @@
       <c r="C10">
         <v>0.1</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="4">
         <v>90000</v>
       </c>
       <c r="E10">
@@ -8487,7 +8551,7 @@
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E16" t="s">
@@ -8510,7 +8574,7 @@
       <c r="C17">
         <v>0.41</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="4">
         <v>30000</v>
       </c>
       <c r="E17">
@@ -8519,7 +8583,7 @@
       </c>
       <c r="G17" s="22">
         <f>E17/$E$25</f>
-        <v>0.22777777777777777</v>
+        <v>0.21866666666666668</v>
       </c>
       <c r="H17">
         <v>0.23</v>
@@ -8536,7 +8600,7 @@
       <c r="C18">
         <v>0.2</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="4">
         <v>50000</v>
       </c>
       <c r="E18">
@@ -8545,7 +8609,7 @@
       </c>
       <c r="G18" s="22">
         <f t="shared" ref="G18:G24" si="4">E18/$E$25</f>
-        <v>0.18518518518518517</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="H18">
         <v>0.18</v>
@@ -8562,7 +8626,7 @@
       <c r="C19">
         <v>0.22</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="4">
         <v>35000</v>
       </c>
       <c r="E19">
@@ -8571,7 +8635,7 @@
       </c>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
-        <v>0.1425925925925926</v>
+        <v>0.13688888888888889</v>
       </c>
       <c r="H19">
         <v>0.15</v>
@@ -8588,7 +8652,7 @@
       <c r="C20">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="4">
         <v>500000</v>
       </c>
       <c r="E20">
@@ -8597,7 +8661,7 @@
       </c>
       <c r="G20" s="22">
         <f t="shared" si="4"/>
-        <v>0.1388888888888889</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="H20">
         <v>0.13</v>
@@ -8614,7 +8678,7 @@
       <c r="C21">
         <v>0.09</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="4">
         <v>80000</v>
       </c>
       <c r="E21">
@@ -8623,7 +8687,7 @@
       </c>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
-        <v>0.13333333333333333</v>
+        <v>0.128</v>
       </c>
       <c r="H21">
         <v>0.12</v>
@@ -8638,25 +8702,25 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>0.01</v>
-      </c>
-      <c r="D22" s="35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D22" s="4">
         <v>450000</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>4500</v>
+        <v>6750</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.12</v>
       </c>
       <c r="H22">
         <v>0.09</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="5"/>
-        <v>0.94499999999999995</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -8666,7 +8730,7 @@
       <c r="C23">
         <v>0.03</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="4">
         <v>100000</v>
       </c>
       <c r="E23">
@@ -8675,14 +8739,14 @@
       </c>
       <c r="G23" s="22">
         <f t="shared" si="4"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="H23">
         <v>0.06</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="5"/>
-        <v>0.97499999999999998</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -8692,7 +8756,7 @@
       <c r="C24">
         <v>0.02</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="4">
         <v>90000</v>
       </c>
       <c r="E24">
@@ -8701,14 +8765,14 @@
       </c>
       <c r="G24" s="22">
         <f t="shared" si="4"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H24">
         <v>0.04</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="5"/>
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
@@ -8717,11 +8781,11 @@
     <row r="25" spans="2:10">
       <c r="C25">
         <f>SUM(C17:C24)</f>
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f>SUM(E17:E24)</f>
-        <v>54000</v>
+        <v>56250</v>
       </c>
       <c r="G25" s="22">
         <f>SUM(G17:G24)</f>
@@ -8736,7 +8800,12 @@
   <sortState ref="G3:H11">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8749,7 +8818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/sanitized.xlsx
+++ b/sanitized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27322"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="20900" windowHeight="14680" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="80" windowWidth="30560" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="impacts" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -473,11 +473,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -804,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1082,27 +1081,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" s="29" customFormat="1">
+      <c r="A13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="30">
         <v>4.5494188161758129E-5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="30">
         <v>9.5287447413399829E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="30">
         <v>5.6699441259360936E-7</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="30">
         <v>0.99042519407608565</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="32">
         <v>30</v>
       </c>
     </row>
@@ -1114,17 +1113,17 @@
         <v>5.4633169675272097E-2</v>
       </c>
       <c r="C14" s="30">
-        <v>2.2687373545158353E-2</v>
+        <v>2.2687373545158401E-2</v>
       </c>
       <c r="D14" s="30">
-        <v>0.33065849273216069</v>
+        <v>0.33065849273216102</v>
       </c>
       <c r="E14" s="30">
-        <v>0.59202096404740878</v>
+        <v>0.592020964047409</v>
       </c>
       <c r="F14" s="31">
         <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="G14" s="32">
         <v>11</v>
@@ -1220,11 +1219,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D20" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -1238,7 +1240,7 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E2" t="s">
@@ -1261,7 +1263,7 @@
       <c r="C3">
         <v>0.06</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>500000</v>
       </c>
       <c r="E3">
@@ -1287,7 +1289,7 @@
       <c r="C4">
         <v>0.05</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>550000</v>
       </c>
       <c r="E4">
@@ -1313,7 +1315,7 @@
       <c r="C5">
         <v>0.09</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>300000</v>
       </c>
       <c r="E5">
@@ -1339,7 +1341,7 @@
       <c r="C6">
         <v>0.13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>190000</v>
       </c>
       <c r="E6">
@@ -1365,7 +1367,7 @@
       <c r="C7">
         <v>0.09</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>250000</v>
       </c>
       <c r="E7">
@@ -1391,7 +1393,7 @@
       <c r="C8">
         <v>0.03</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>750000</v>
       </c>
       <c r="E8">
@@ -1417,7 +1419,7 @@
       <c r="C9">
         <v>0.08</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>250000</v>
       </c>
       <c r="E9">
@@ -1443,7 +1445,7 @@
       <c r="C10">
         <v>0.15</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>90000</v>
       </c>
       <c r="E10">
@@ -1469,7 +1471,7 @@
       <c r="C11">
         <v>0.04</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>200000</v>
       </c>
       <c r="E11">
@@ -1495,7 +1497,7 @@
       <c r="C12">
         <v>0.04</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>250000</v>
       </c>
       <c r="E12">
@@ -1521,7 +1523,7 @@
       <c r="C13">
         <v>0.1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>100000</v>
       </c>
       <c r="E13">
@@ -1547,7 +1549,7 @@
       <c r="C14">
         <v>0.06</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>95000</v>
       </c>
       <c r="E14">
@@ -1573,7 +1575,7 @@
       <c r="C15">
         <v>0.04</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>120000</v>
       </c>
       <c r="E15">
@@ -1599,7 +1601,7 @@
       <c r="C16">
         <v>0.03</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>130000</v>
       </c>
       <c r="E16">
@@ -1628,7 +1630,7 @@
       <c r="C17">
         <v>0.01</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>180000</v>
       </c>
       <c r="E17">
@@ -1699,7 +1701,7 @@
       <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E24" t="s">
@@ -1722,7 +1724,7 @@
       <c r="C25">
         <v>0.16</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>50000</v>
       </c>
       <c r="E25">
@@ -1748,7 +1750,7 @@
       <c r="C26">
         <v>0.1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>75000</v>
       </c>
       <c r="E26">
@@ -1774,7 +1776,7 @@
       <c r="C27">
         <v>0.25</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>30000</v>
       </c>
       <c r="E27">
@@ -1800,7 +1802,7 @@
       <c r="C28">
         <v>0.13</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>49000</v>
       </c>
       <c r="E28">
@@ -1826,7 +1828,7 @@
       <c r="C29">
         <v>0.156</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>35000</v>
       </c>
       <c r="E29">
@@ -1852,7 +1854,7 @@
       <c r="C30">
         <v>0.05</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>105000</v>
       </c>
       <c r="E30">
@@ -1878,7 +1880,7 @@
       <c r="C31">
         <v>0.04</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>150000</v>
       </c>
       <c r="E31">
@@ -1904,7 +1906,7 @@
       <c r="C32">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>400000</v>
       </c>
       <c r="E32">
@@ -1930,7 +1932,7 @@
       <c r="C33">
         <v>0.02</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>100000</v>
       </c>
       <c r="E33">
@@ -1956,7 +1958,7 @@
       <c r="C34">
         <v>0.02</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>150000</v>
       </c>
       <c r="E34">
@@ -1982,7 +1984,7 @@
       <c r="C35">
         <v>0.01</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>100000</v>
       </c>
       <c r="E35">
@@ -2008,7 +2010,7 @@
       <c r="C36">
         <v>0.03</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>105000</v>
       </c>
       <c r="E36">
@@ -2034,7 +2036,7 @@
       <c r="C37">
         <v>0.01</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>120000</v>
       </c>
       <c r="E37">
@@ -2060,7 +2062,7 @@
       <c r="C38">
         <v>0.01</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>130000</v>
       </c>
       <c r="E38">
@@ -2086,7 +2088,7 @@
       <c r="C39">
         <v>0.01</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>110000</v>
       </c>
       <c r="E39">
@@ -2140,11 +2142,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -2158,7 +2163,7 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E2" t="s">
@@ -2181,7 +2186,7 @@
       <c r="C3">
         <v>0.11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>200000</v>
       </c>
       <c r="E3">
@@ -2207,7 +2212,7 @@
       <c r="C4">
         <v>0.03</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>650000</v>
       </c>
       <c r="E4">
@@ -2233,7 +2238,7 @@
       <c r="C5">
         <v>0.06</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>360000</v>
       </c>
       <c r="E5">
@@ -2259,7 +2264,7 @@
       <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>190000</v>
       </c>
       <c r="E6">
@@ -2285,7 +2290,7 @@
       <c r="C7">
         <v>0.08</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>250000</v>
       </c>
       <c r="E7">
@@ -2311,7 +2316,7 @@
       <c r="C8">
         <v>0.05</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>350000</v>
       </c>
       <c r="E8">
@@ -2337,7 +2342,7 @@
       <c r="C9">
         <v>0.1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>150000</v>
       </c>
       <c r="E9">
@@ -2363,7 +2368,7 @@
       <c r="C10">
         <v>0.15</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>90000</v>
       </c>
       <c r="E10">
@@ -2389,7 +2394,7 @@
       <c r="C11">
         <v>0.04</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>200000</v>
       </c>
       <c r="E11">
@@ -2415,7 +2420,7 @@
       <c r="C12">
         <v>0.04</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>250000</v>
       </c>
       <c r="E12">
@@ -2441,7 +2446,7 @@
       <c r="C13">
         <v>0.1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>90000</v>
       </c>
       <c r="E13">
@@ -2467,7 +2472,7 @@
       <c r="C14">
         <v>0.06</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>105000</v>
       </c>
       <c r="E14">
@@ -2493,7 +2498,7 @@
       <c r="C15">
         <v>0.04</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>120000</v>
       </c>
       <c r="E15">
@@ -2519,7 +2524,7 @@
       <c r="C16">
         <v>0.03</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>530000</v>
       </c>
       <c r="E16">
@@ -2545,7 +2550,7 @@
       <c r="C17">
         <v>0.01</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>180000</v>
       </c>
       <c r="E17">
@@ -2606,7 +2611,7 @@
       <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E23" t="s">
@@ -2629,7 +2634,7 @@
       <c r="C24">
         <v>0.19</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>20000</v>
       </c>
       <c r="E24">
@@ -2655,7 +2660,7 @@
       <c r="C25">
         <v>0.25</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>15000</v>
       </c>
       <c r="E25">
@@ -2681,7 +2686,7 @@
       <c r="C26">
         <v>0.1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>36000</v>
       </c>
       <c r="E26">
@@ -2707,7 +2712,7 @@
       <c r="C27">
         <v>0.155</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>19000</v>
       </c>
       <c r="E27">
@@ -2733,7 +2738,7 @@
       <c r="C28">
         <v>0.12</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>25000</v>
       </c>
       <c r="E28">
@@ -2759,7 +2764,7 @@
       <c r="C29">
         <v>0.08</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>35000</v>
       </c>
       <c r="E29">
@@ -2785,7 +2790,7 @@
       <c r="C30">
         <v>0.02</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>150000</v>
       </c>
       <c r="E30">
@@ -2811,7 +2816,7 @@
       <c r="C31">
         <v>0.03</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>90000</v>
       </c>
       <c r="E31">
@@ -2837,7 +2842,7 @@
       <c r="C32">
         <v>0.01</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>200000</v>
       </c>
       <c r="E32">
@@ -2863,7 +2868,7 @@
       <c r="C33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>450000</v>
       </c>
       <c r="E33">
@@ -2889,7 +2894,7 @@
       <c r="C34">
         <v>0.02</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>90000</v>
       </c>
       <c r="E34">
@@ -2915,7 +2920,7 @@
       <c r="C35">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>105000</v>
       </c>
       <c r="E35">
@@ -2941,7 +2946,7 @@
       <c r="C36">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>120000</v>
       </c>
       <c r="E36">
@@ -2967,7 +2972,7 @@
       <c r="C37">
         <v>1E-3</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>530000</v>
       </c>
       <c r="E37">
@@ -2993,7 +2998,7 @@
       <c r="C38">
         <v>1E-3</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>180000</v>
       </c>
       <c r="E38">
@@ -3053,12 +3058,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="4" max="4" width="10.83203125" style="4"/>
     <col min="7" max="7" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
@@ -3074,7 +3080,7 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E2" t="s">
@@ -3097,7 +3103,7 @@
       <c r="C3">
         <v>0.19</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>200000</v>
       </c>
       <c r="E3">
@@ -3123,7 +3129,7 @@
       <c r="C4">
         <v>0.03</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>650000</v>
       </c>
       <c r="E4">
@@ -3149,7 +3155,7 @@
       <c r="C5">
         <v>0.04</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>360000</v>
       </c>
       <c r="E5">
@@ -3175,7 +3181,7 @@
       <c r="C6">
         <v>0.05</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>190000</v>
       </c>
       <c r="E6">
@@ -3201,7 +3207,7 @@
       <c r="C7">
         <v>0.04</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>250000</v>
       </c>
       <c r="E7">
@@ -3227,7 +3233,7 @@
       <c r="C8">
         <v>0.03</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>350000</v>
       </c>
       <c r="E8">
@@ -3253,7 +3259,7 @@
       <c r="C9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>150000</v>
       </c>
       <c r="E9">
@@ -3279,7 +3285,7 @@
       <c r="C10">
         <v>0.08</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>90000</v>
       </c>
       <c r="E10">
@@ -3305,7 +3311,7 @@
       <c r="C11">
         <v>0.04</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>200000</v>
       </c>
       <c r="E11">
@@ -3331,7 +3337,7 @@
       <c r="C12">
         <v>0.03</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>250000</v>
       </c>
       <c r="E12">
@@ -3357,7 +3363,7 @@
       <c r="C13">
         <v>0.06</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>90000</v>
       </c>
       <c r="E13">
@@ -3383,7 +3389,7 @@
       <c r="C14">
         <v>0.05</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>105000</v>
       </c>
       <c r="E14">
@@ -3409,7 +3415,7 @@
       <c r="C15">
         <v>0.05</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>120000</v>
       </c>
       <c r="E15">
@@ -3435,7 +3441,7 @@
       <c r="C16">
         <v>0.01</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>530000</v>
       </c>
       <c r="E16">
@@ -3461,7 +3467,7 @@
       <c r="C17">
         <v>0.02</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>180000</v>
       </c>
       <c r="E17">
@@ -3487,7 +3493,7 @@
       <c r="C18">
         <v>0.02</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>200000</v>
       </c>
       <c r="E18">
@@ -3513,7 +3519,7 @@
       <c r="C19">
         <v>0.01</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>650000</v>
       </c>
       <c r="E19">
@@ -3539,7 +3545,7 @@
       <c r="C20">
         <v>0.02</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>360000</v>
       </c>
       <c r="E20">
@@ -3565,7 +3571,7 @@
       <c r="C21">
         <v>0.02</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>190000</v>
       </c>
       <c r="E21">
@@ -3591,7 +3597,7 @@
       <c r="C22">
         <v>0.01</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>250000</v>
       </c>
       <c r="E22">
@@ -3617,7 +3623,7 @@
       <c r="C23">
         <v>0.01</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>350000</v>
       </c>
       <c r="E23">
@@ -3643,7 +3649,7 @@
       <c r="C24">
         <v>0.01</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>150000</v>
       </c>
       <c r="E24">
@@ -3669,7 +3675,7 @@
       <c r="C25">
         <v>0.02</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>90000</v>
       </c>
       <c r="E25">
@@ -3695,7 +3701,7 @@
       <c r="C26">
         <v>0.01</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>200000</v>
       </c>
       <c r="E26">
@@ -3721,7 +3727,7 @@
       <c r="C27">
         <v>0.01</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>250000</v>
       </c>
       <c r="E27">
@@ -3747,7 +3753,7 @@
       <c r="C28">
         <v>0.03</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>90000</v>
       </c>
       <c r="E28">
@@ -3773,7 +3779,7 @@
       <c r="C29">
         <v>0.01</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>105000</v>
       </c>
       <c r="E29">
@@ -3799,7 +3805,7 @@
       <c r="C30">
         <v>0.01</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>120000</v>
       </c>
       <c r="E30">
@@ -3825,7 +3831,7 @@
       <c r="C31">
         <v>0.01</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>530000</v>
       </c>
       <c r="E31">
@@ -3851,7 +3857,7 @@
       <c r="C32">
         <v>0.01</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>180000</v>
       </c>
       <c r="E32">
@@ -3903,7 +3909,7 @@
       <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E36" t="s">
@@ -3923,7 +3929,7 @@
       <c r="C37">
         <v>0.19400000000000001</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>50000</v>
       </c>
       <c r="E37">
@@ -3949,7 +3955,7 @@
       <c r="C38">
         <v>0.11</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>65000</v>
       </c>
       <c r="E38">
@@ -3975,7 +3981,7 @@
       <c r="C39">
         <v>0.04</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>106000</v>
       </c>
       <c r="E39">
@@ -4001,7 +4007,7 @@
       <c r="C40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>39000</v>
       </c>
       <c r="E40">
@@ -4027,7 +4033,7 @@
       <c r="C41">
         <v>0.13</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>25000</v>
       </c>
       <c r="E41">
@@ -4053,7 +4059,7 @@
       <c r="C42">
         <v>0.1</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>35000</v>
       </c>
       <c r="E42">
@@ -4079,7 +4085,7 @@
       <c r="C43">
         <v>0.05</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <v>75000</v>
       </c>
       <c r="E43">
@@ -4105,7 +4111,7 @@
       <c r="C44">
         <v>0.05</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>50000</v>
       </c>
       <c r="E44">
@@ -4131,7 +4137,7 @@
       <c r="C45">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <v>200000</v>
       </c>
       <c r="E45">
@@ -4157,7 +4163,7 @@
       <c r="C46">
         <v>0.04</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>25000</v>
       </c>
       <c r="E46">
@@ -4183,7 +4189,7 @@
       <c r="C47">
         <v>0.02</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>90000</v>
       </c>
       <c r="E47">
@@ -4209,7 +4215,7 @@
       <c r="C48">
         <v>0.02</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="4">
         <v>105000</v>
       </c>
       <c r="E48">
@@ -4235,7 +4241,7 @@
       <c r="C49">
         <v>0.03</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
         <v>78000</v>
       </c>
       <c r="E49">
@@ -4261,7 +4267,7 @@
       <c r="C50">
         <v>0.01</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
         <v>153000</v>
       </c>
       <c r="E50">
@@ -4287,7 +4293,7 @@
       <c r="C51">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>180000</v>
       </c>
       <c r="E51">
@@ -4313,7 +4319,7 @@
       <c r="C52">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>200000</v>
       </c>
       <c r="E52">
@@ -4339,7 +4345,7 @@
       <c r="C53">
         <v>0.01</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <v>105000</v>
       </c>
       <c r="E53">
@@ -4365,7 +4371,7 @@
       <c r="C54">
         <v>1.2E-2</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
         <v>120000</v>
       </c>
       <c r="E54">
@@ -4391,7 +4397,7 @@
       <c r="C55">
         <v>0.01</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="4">
         <v>110000</v>
       </c>
       <c r="E55">
@@ -4417,7 +4423,7 @@
       <c r="C56">
         <v>0.01</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
         <v>100000</v>
       </c>
       <c r="E56">
@@ -4443,7 +4449,7 @@
       <c r="C57">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="4">
         <v>130000</v>
       </c>
       <c r="E57">
@@ -4469,7 +4475,7 @@
       <c r="C58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <v>150000</v>
       </c>
       <c r="E58">
@@ -4495,7 +4501,7 @@
       <c r="C59">
         <v>0.01</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="4">
         <v>90000</v>
       </c>
       <c r="E59">
@@ -4521,7 +4527,7 @@
       <c r="C60">
         <v>0.01</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="4">
         <v>100000</v>
       </c>
       <c r="E60">
@@ -4547,7 +4553,7 @@
       <c r="C61">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
         <v>150000</v>
       </c>
       <c r="E61">
@@ -4573,7 +4579,7 @@
       <c r="C62">
         <v>0.01</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="4">
         <v>90000</v>
       </c>
       <c r="E62">
@@ -4599,7 +4605,7 @@
       <c r="C63">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="4">
         <v>105000</v>
       </c>
       <c r="E63">
@@ -4625,7 +4631,7 @@
       <c r="C64">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="4">
         <v>120000</v>
       </c>
       <c r="E64">
@@ -4651,7 +4657,7 @@
       <c r="C65">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="4">
         <v>130000</v>
       </c>
       <c r="E65">
@@ -4677,7 +4683,7 @@
       <c r="C66">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="4">
         <v>135000</v>
       </c>
       <c r="E66">
@@ -6849,7 +6855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -7634,7 +7640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -7690,7 +7696,7 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="22">
-        <f>E3/$E$11</f>
+        <f t="shared" ref="G3:G10" si="0">E3/$E$11</f>
         <v>0.39059386209645275</v>
       </c>
       <c r="H3">
@@ -7712,12 +7718,12 @@
         <v>250000</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E10" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E10" si="1">C4*D4</f>
         <v>20000</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="22">
-        <f>E4/$E$11</f>
+        <f t="shared" si="0"/>
         <v>0.15942606616181745</v>
       </c>
       <c r="H4">
@@ -7739,19 +7745,19 @@
         <v>95000</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14250</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="22">
-        <f>E5/$E$11</f>
+        <f t="shared" si="0"/>
         <v>0.11359107214029494</v>
       </c>
       <c r="H5">
         <v>0.11</v>
       </c>
       <c r="I5" s="22">
-        <f t="shared" ref="I5:I8" si="1">C5+I4</f>
+        <f t="shared" ref="I5:I8" si="2">C5+I4</f>
         <v>0.72</v>
       </c>
     </row>
@@ -7766,19 +7772,19 @@
         <v>500000</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12500</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="22">
-        <f>E6/$E$11</f>
+        <f t="shared" si="0"/>
         <v>9.9641291351135905E-2</v>
       </c>
       <c r="H6">
         <v>0.1</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.745</v>
       </c>
     </row>
@@ -7793,19 +7799,19 @@
         <v>150000</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12750.000000000002</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="22">
-        <f>E7/$E$11</f>
+        <f t="shared" si="0"/>
         <v>0.10163411717815864</v>
       </c>
       <c r="H7">
         <v>0.09</v>
       </c>
       <c r="I7" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83</v>
       </c>
     </row>
@@ -7820,19 +7826,19 @@
         <v>100000</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="22">
-        <f>E8/$E$11</f>
+        <f t="shared" si="0"/>
         <v>8.7684336388999598E-2</v>
       </c>
       <c r="H8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I8" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
     </row>
@@ -7847,12 +7853,12 @@
         <v>95000</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4750</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="22">
-        <f>E9/$E$11</f>
+        <f t="shared" si="0"/>
         <v>3.7863690713431646E-2</v>
       </c>
       <c r="H9">
@@ -7877,12 +7883,12 @@
         <v>120000</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="22">
-        <f>E10/$E$11</f>
+        <f t="shared" si="0"/>
         <v>9.5655639697090466E-3</v>
       </c>
       <c r="H10">
@@ -8000,7 +8006,7 @@
       <c r="H17">
         <v>0.39</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="35">
         <f>C17</f>
         <v>0.74</v>
       </c>
@@ -8016,18 +8022,18 @@
         <v>25000</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ref="E18:E24" si="2">C18*D18</f>
+        <f t="shared" ref="E18:E24" si="3">C18*D18</f>
         <v>3250</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="22">
-        <f t="shared" ref="G18:G24" si="3">E18/$E$25</f>
+        <f t="shared" ref="G18:G24" si="4">E18/$E$25</f>
         <v>0.17287234042553193</v>
       </c>
       <c r="H18">
         <v>0.17</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="35">
         <f>C18+I17</f>
         <v>0.87</v>
       </c>
@@ -8043,19 +8049,19 @@
         <v>35000</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2100</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11170212765957446</v>
       </c>
       <c r="H19">
         <v>0.11</v>
       </c>
-      <c r="I19" s="37">
-        <f t="shared" ref="I19:I24" si="4">C19+I18</f>
+      <c r="I19" s="35">
+        <f t="shared" ref="I19:I24" si="5">C19+I18</f>
         <v>0.92999999999999994</v>
       </c>
     </row>
@@ -8070,19 +8076,19 @@
         <v>100000</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1799.9999999999998</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5744680851063815E-2</v>
       </c>
       <c r="H20">
         <v>0.1</v>
       </c>
-      <c r="I20" s="37">
-        <f t="shared" si="4"/>
+      <c r="I20" s="35">
+        <f t="shared" si="5"/>
         <v>0.94799999999999995</v>
       </c>
     </row>
@@ -8097,19 +8103,19 @@
         <v>90000</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5744680851063829E-2</v>
       </c>
       <c r="H21">
         <v>0.09</v>
       </c>
-      <c r="I21" s="37">
-        <f t="shared" si="4"/>
+      <c r="I21" s="35">
+        <f t="shared" si="5"/>
         <v>0.96799999999999997</v>
       </c>
       <c r="K21" t="s">
@@ -8127,19 +8133,19 @@
         <v>100000</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3191489361702128E-2</v>
       </c>
       <c r="H22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I22" s="37">
-        <f t="shared" si="4"/>
+      <c r="I22" s="35">
+        <f t="shared" si="5"/>
         <v>0.97799999999999998</v>
       </c>
     </row>
@@ -8154,19 +8160,19 @@
         <v>65000</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1300</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9148936170212769E-2</v>
       </c>
       <c r="H23">
         <v>0.06</v>
       </c>
-      <c r="I23" s="37">
-        <f t="shared" si="4"/>
+      <c r="I23" s="35">
+        <f t="shared" si="5"/>
         <v>0.998</v>
       </c>
       <c r="J23" s="22" t="s">
@@ -8184,19 +8190,19 @@
         <v>75000</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9787234042553185E-3</v>
       </c>
       <c r="H24">
         <v>0.01</v>
       </c>
-      <c r="I24" s="37">
-        <f t="shared" si="4"/>
+      <c r="I24" s="35">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8240,7 +8246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -8818,13 +8824,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" style="22"/>
     <col min="9" max="9" width="8.83203125" style="22"/>
   </cols>
@@ -8841,7 +8847,7 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E2" t="s">
@@ -8864,7 +8870,7 @@
       <c r="C3">
         <v>0.41</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="4">
         <v>200000</v>
       </c>
       <c r="E3">
@@ -8890,7 +8896,7 @@
       <c r="C4">
         <v>0.25</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="4">
         <v>100000</v>
       </c>
       <c r="E4">
@@ -8916,7 +8922,7 @@
       <c r="C5">
         <v>0.15</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="4">
         <v>150000</v>
       </c>
       <c r="E5">
@@ -8942,7 +8948,7 @@
       <c r="C6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="4">
         <v>2000000</v>
       </c>
       <c r="E6">
@@ -8968,7 +8974,7 @@
       <c r="C7">
         <v>0.1</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="4">
         <v>80000</v>
       </c>
       <c r="E7">
@@ -8994,7 +9000,7 @@
       <c r="C8">
         <v>0.02</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="4">
         <v>450000</v>
       </c>
       <c r="E8">
@@ -9020,7 +9026,7 @@
       <c r="C9">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="4">
         <v>100000</v>
       </c>
       <c r="E9">
@@ -9046,7 +9052,7 @@
       <c r="C10">
         <v>0.03</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="4">
         <v>90000</v>
       </c>
       <c r="E10">
@@ -9122,7 +9128,7 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E17" t="s">
@@ -9145,7 +9151,7 @@
       <c r="C18">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="4">
         <v>30000</v>
       </c>
       <c r="E18">
@@ -9159,7 +9165,7 @@
       <c r="H18">
         <v>0.5</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="35">
         <f>C18</f>
         <v>0.68300000000000005</v>
       </c>
@@ -9171,7 +9177,7 @@
       <c r="C19">
         <v>0.11</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="4">
         <v>50000</v>
       </c>
       <c r="E19">
@@ -9185,7 +9191,7 @@
       <c r="H19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="35">
         <f>C19+I18</f>
         <v>0.79300000000000004</v>
       </c>
@@ -9197,7 +9203,7 @@
       <c r="C20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="4">
         <v>35000</v>
       </c>
       <c r="E20">
@@ -9211,7 +9217,7 @@
       <c r="H20">
         <v>0.12</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="35">
         <f t="shared" ref="I20:I25" si="5">C20+I19</f>
         <v>0.93300000000000005</v>
       </c>
@@ -9223,7 +9229,7 @@
       <c r="C21">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="4">
         <v>500000</v>
       </c>
       <c r="E21">
@@ -9237,7 +9243,7 @@
       <c r="H21">
         <v>0.09</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="35">
         <f t="shared" si="5"/>
         <v>0.94000000000000006</v>
       </c>
@@ -9249,7 +9255,7 @@
       <c r="C22">
         <v>0.03</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="4">
         <v>80000</v>
       </c>
       <c r="E22">
@@ -9263,7 +9269,7 @@
       <c r="H22">
         <v>0.05</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="35">
         <f t="shared" si="5"/>
         <v>0.97000000000000008</v>
       </c>
@@ -9275,7 +9281,7 @@
       <c r="C23">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="4">
         <v>450000</v>
       </c>
       <c r="E23">
@@ -9289,7 +9295,7 @@
       <c r="H23">
         <v>0.04</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="35">
         <f t="shared" si="5"/>
         <v>0.97400000000000009</v>
       </c>
@@ -9301,7 +9307,7 @@
       <c r="C24">
         <v>1.6E-2</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="4">
         <v>100000</v>
       </c>
       <c r="E24">
@@ -9315,7 +9321,7 @@
       <c r="H24">
         <v>0.03</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="35">
         <f t="shared" si="5"/>
         <v>0.9900000000000001</v>
       </c>
@@ -9327,7 +9333,7 @@
       <c r="C25">
         <v>0.01</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="4">
         <v>90000</v>
       </c>
       <c r="E25">
@@ -9341,7 +9347,7 @@
       <c r="H25">
         <v>0.03</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="35">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -9351,7 +9357,7 @@
         <f>SUM(C18:C25)</f>
         <v>1</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E26">
@@ -9371,7 +9377,7 @@
       <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H27" t="s">
@@ -9395,14 +9401,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
@@ -9418,7 +9424,7 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E2" t="s">
@@ -9441,7 +9447,7 @@
       <c r="C3">
         <v>0.08</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>500000</v>
       </c>
       <c r="E3">
@@ -9467,7 +9473,7 @@
       <c r="C4">
         <v>0.15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>250000</v>
       </c>
       <c r="E4">
@@ -9493,7 +9499,7 @@
       <c r="C5">
         <v>0.05</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>700000</v>
       </c>
       <c r="E5">
@@ -9519,7 +9525,7 @@
       <c r="C6">
         <v>0.35</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>80000</v>
       </c>
       <c r="E6">
@@ -9545,7 +9551,7 @@
       <c r="C7">
         <v>0.05</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>450000</v>
       </c>
       <c r="E7">
@@ -9571,7 +9577,7 @@
       <c r="C8">
         <v>0.03</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>650000</v>
       </c>
       <c r="E8">
@@ -9597,7 +9603,7 @@
       <c r="C9">
         <v>0.06</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>250000</v>
       </c>
       <c r="E9">
@@ -9623,7 +9629,7 @@
       <c r="C10">
         <v>0.1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>90000</v>
       </c>
       <c r="E10">
@@ -9649,7 +9655,7 @@
       <c r="C11">
         <v>0.03</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>300000</v>
       </c>
       <c r="E11">
@@ -9675,7 +9681,7 @@
       <c r="C12">
         <v>0.05</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>150000</v>
       </c>
       <c r="E12">
@@ -9701,7 +9707,7 @@
       <c r="C13">
         <v>0.05</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>100000</v>
       </c>
       <c r="E13">
@@ -9775,7 +9781,7 @@
       <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E18" t="s">
@@ -9798,7 +9804,7 @@
       <c r="C19">
         <v>0.21</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>50000</v>
       </c>
       <c r="E19">
@@ -9824,7 +9830,7 @@
       <c r="C20">
         <v>0.27</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>35000</v>
       </c>
       <c r="E20">
@@ -9850,7 +9856,7 @@
       <c r="C21">
         <v>0.11</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>75000</v>
       </c>
       <c r="E21">
@@ -9876,7 +9882,7 @@
       <c r="C22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>30000</v>
       </c>
       <c r="E22">
@@ -9902,7 +9908,7 @@
       <c r="C23">
         <v>0.02</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>450000</v>
       </c>
       <c r="E23">
@@ -9928,7 +9934,7 @@
       <c r="C24">
         <v>0.02</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>250000</v>
       </c>
       <c r="E24">
@@ -9954,7 +9960,7 @@
       <c r="C25">
         <v>0.01</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>250000</v>
       </c>
       <c r="E25">
@@ -9980,7 +9986,7 @@
       <c r="C26">
         <v>0.04</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>90000</v>
       </c>
       <c r="E26">
@@ -10006,7 +10012,7 @@
       <c r="C27">
         <v>0.01</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>300000</v>
       </c>
       <c r="E27">
@@ -10032,7 +10038,7 @@
       <c r="C28">
         <v>0.01</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>150000</v>
       </c>
       <c r="E28">
@@ -10061,7 +10067,7 @@
       <c r="C29">
         <v>0.01</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>100000</v>
       </c>
       <c r="E29">
@@ -10115,13 +10121,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
@@ -10137,7 +10143,7 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E2" t="s">
@@ -10160,7 +10166,7 @@
       <c r="C3">
         <v>0.05</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>500000</v>
       </c>
       <c r="E3">
@@ -10186,7 +10192,7 @@
       <c r="C4">
         <v>0.1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>250000</v>
       </c>
       <c r="E4">
@@ -10212,7 +10218,7 @@
       <c r="C5">
         <v>0.03</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>700000</v>
       </c>
       <c r="E5">
@@ -10238,7 +10244,7 @@
       <c r="C6">
         <v>0.26</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>80000</v>
       </c>
       <c r="E6">
@@ -10264,7 +10270,7 @@
       <c r="C7">
         <v>0.03</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>450000</v>
       </c>
       <c r="E7">
@@ -10290,7 +10296,7 @@
       <c r="C8">
         <v>0.02</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>650000</v>
       </c>
       <c r="E8">
@@ -10316,7 +10322,7 @@
       <c r="C9">
         <v>0.04</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>250000</v>
       </c>
       <c r="E9">
@@ -10342,7 +10348,7 @@
       <c r="C10">
         <v>0.15</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>90000</v>
       </c>
       <c r="E10">
@@ -10368,7 +10374,7 @@
       <c r="C11">
         <v>0.04</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>300000</v>
       </c>
       <c r="E11">
@@ -10394,7 +10400,7 @@
       <c r="C12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>150000</v>
       </c>
       <c r="E12">
@@ -10420,7 +10426,7 @@
       <c r="C13">
         <v>0.1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>100000</v>
       </c>
       <c r="E13">
@@ -10446,7 +10452,7 @@
       <c r="C14">
         <v>0.05</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>95000</v>
       </c>
       <c r="E14">
@@ -10472,7 +10478,7 @@
       <c r="C15">
         <v>0.04</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>120000</v>
       </c>
       <c r="E15">
@@ -10498,7 +10504,7 @@
       <c r="C16">
         <v>0.02</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>160000</v>
       </c>
       <c r="E16">
@@ -10567,7 +10573,7 @@
       <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E22" t="s">
@@ -10590,7 +10596,7 @@
       <c r="C23">
         <v>0.15</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>50000</v>
       </c>
       <c r="E23">
@@ -10616,7 +10622,7 @@
       <c r="C24">
         <v>0.13</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>45000</v>
       </c>
       <c r="E24">
@@ -10642,7 +10648,7 @@
       <c r="C25">
         <v>0.15</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>40000</v>
       </c>
       <c r="E25">
@@ -10668,7 +10674,7 @@
       <c r="C26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>45000</v>
       </c>
       <c r="E26">
@@ -10694,7 +10700,7 @@
       <c r="C27">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>25000</v>
       </c>
       <c r="E27">
@@ -10720,7 +10726,7 @@
       <c r="C28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>65000</v>
       </c>
       <c r="E28">
@@ -10746,7 +10752,7 @@
       <c r="C29">
         <v>0.04</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>105000</v>
       </c>
       <c r="E29">
@@ -10772,7 +10778,7 @@
       <c r="C30">
         <v>0.05</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>90000</v>
       </c>
       <c r="E30">
@@ -10798,7 +10804,7 @@
       <c r="C31">
         <v>0.04</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>100000</v>
       </c>
       <c r="E31">
@@ -10824,7 +10830,7 @@
       <c r="C32">
         <v>0.02</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>150000</v>
       </c>
       <c r="E32">
@@ -10850,7 +10856,7 @@
       <c r="C33">
         <v>0.03</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>100000</v>
       </c>
       <c r="E33">
@@ -10876,7 +10882,7 @@
       <c r="C34">
         <v>0.02</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>95000</v>
       </c>
       <c r="E34">
@@ -10902,7 +10908,7 @@
       <c r="C35">
         <v>0.01</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>120000</v>
       </c>
       <c r="E35">
@@ -10928,7 +10934,7 @@
       <c r="C36">
         <v>0.01</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>110000</v>
       </c>
       <c r="E36">

--- a/sanitized.xlsx
+++ b/sanitized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27322"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="80" windowWidth="30560" windowHeight="16100"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="impacts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="omnetpp" sheetId="11" r:id="rId11"/>
     <sheet name="milc" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -803,17 +803,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="23"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>38</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -841,7 +841,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="29" customFormat="1">
+    <row r="3" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>19</v>
       </c>
@@ -865,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -889,7 +889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -913,7 +913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="29" customFormat="1">
+    <row r="6" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>22</v>
       </c>
@@ -937,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="25" customFormat="1">
+    <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>23</v>
       </c>
@@ -961,7 +961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -985,7 +985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="29" customFormat="1">
+    <row r="9" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="29" customFormat="1">
+    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>27</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1">
+    <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>29</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="29" customFormat="1">
+    <row r="14" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="29" customFormat="1">
+    <row r="15" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>31</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1">
+    <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>32</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="29" customFormat="1">
+    <row r="17" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -1219,21 +1219,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0.45000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0.76000000000000012</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0.8600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>0.92000000000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0.96000000000000019</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>SUM(C3:C17)</f>
         <v>1.0000000000000002</v>
@@ -1667,10 +1667,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1689,12 +1689,12 @@
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>59</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>4</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>5</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0.84600000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>6</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>0.88600000000000012</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>7</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>0.89000000000000012</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>8</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0.91000000000000014</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>9</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>0.93000000000000016</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0.94000000000000017</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>11</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0.9700000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>12</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>0.9800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>13</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>0.99000000000000021</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>14</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>SUM(C25:C39)</f>
         <v>1.0000000000000002</v>
@@ -2142,21 +2142,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0.38000000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0.43000000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>0.76000000000000012</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>0.8600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0.92000000000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>0.96000000000000019</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>0.99000000000000021</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>SUM(C3:C17)</f>
         <v>1.0000000000000002</v>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>59</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>3</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>0.69500000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>4</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0.81500000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>5</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>6</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>7</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>8</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0.95500000000000007</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>9</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0.96000000000000008</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>10</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>0.98000000000000009</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>11</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0.9930000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>12</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0.99800000000000011</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>13</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>0.99900000000000011</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>14</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C39">
         <f>SUM(C24:C38)</f>
         <v>1</v>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G40" s="22" t="s">
         <v>45</v>
       </c>
@@ -3058,22 +3058,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="4"/>
-    <col min="7" max="7" width="10.83203125" style="22"/>
+    <col min="4" max="4" width="10.85546875" style="4"/>
+    <col min="7" max="7" width="10.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0.66000000000000014</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0.71000000000000019</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0.76000000000000023</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>0.77000000000000024</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0.79000000000000026</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0.81000000000000028</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>0.82000000000000028</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0.8400000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0.86000000000000032</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0.87000000000000033</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0.88000000000000034</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>0.89000000000000035</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0.91000000000000036</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0.92000000000000037</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0.93000000000000038</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0.96000000000000041</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0.97000000000000042</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0.98000000000000043</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>0.99000000000000044</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>SUM(C3:C32)</f>
         <v>1.0000000000000004</v>
@@ -3897,12 +3897,12 @@
         <v>1.0000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>3</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>4</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>5</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>6</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0.69400000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>7</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0.74400000000000011</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>8</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0.75900000000000012</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>9</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>0.79900000000000015</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>10</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0.81900000000000017</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>11</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0.83900000000000019</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>12</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0.86900000000000022</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>13</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0.87900000000000023</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>14</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>0.88600000000000023</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>15</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>0.89300000000000024</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>16</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0.90300000000000025</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>17</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0.91500000000000026</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>18</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0.92500000000000027</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>19</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0.93500000000000028</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>20</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0.94200000000000028</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>21</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0.94700000000000029</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>22</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0.95700000000000029</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>23</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0.9670000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>24</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>0.97000000000000031</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>25</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>0.98000000000000032</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>26</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0.98500000000000032</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>27</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>0.99000000000000032</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>28</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>0.99500000000000033</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>29</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>SUM(C37:C66)</f>
         <v>1.0000000000000002</v>
@@ -4742,13 +4742,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>64203643.133333303</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>102177328.058824</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>42088905.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>54883486.625</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>64090230.142857097</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>65195183.625</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>46803639.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>47237670.714285702</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>50638457.714285702</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>55945417.888888903</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>81889749.535714298</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>51869571.727272697</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>88381438.066666707</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>53790349.125</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4987,16 +4987,16 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="7" width="16.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1">
+    <row r="1" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>48</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.03</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.16</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.09</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.12</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.11</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.13</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.36</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -5290,10 +5290,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="42">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>49</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.02</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>7.2319201995012475E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.2</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>0.21695760598503741</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.1</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>9.9750623441396506E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.1</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>3.4912718204488775E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.08</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>1.2468827930174564E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.1</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>5.4862842892768077E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.4</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>0.59850374064837908</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v>100075000</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -5704,15 +5704,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.02</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0.10406698564593302</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.2</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0.10645933014354067</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.1</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>1.076555023923445E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.1</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>1.7942583732057416E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.08</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>4.7846889952153108E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.1</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.4</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0.73325358851674638</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D34">
         <f>SUM(D27:D33)</f>
         <v>1</v>
@@ -6086,7 +6086,7 @@
         <v>104550000</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.02</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>5.5693069306930694E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.2</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>5.5074257425742575E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.1</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>6.8069306930693069E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.1</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>1.2995049504950494E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.08</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>1.2376237623762376E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.1</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>1.7326732673267328E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.4</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>0.8508663366336634</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D45">
         <f>SUM(D38:D44)</f>
         <v>1</v>
@@ -6460,12 +6460,12 @@
         <v>100095000</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.02</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>2.5815704553603443E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.2</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>0.31946934385084258</v>
       </c>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.1</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>2.509860164933668E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.1</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>6.4539261384008607E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.08</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>1.7569021154535677E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.1</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>8.8562208676945142E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.4</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>0.51703119397633557</v>
       </c>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D56">
         <f>SUM(D49:D55)</f>
         <v>1</v>
@@ -6855,25 +6855,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>0.12000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>SUM(C3:C14)</f>
         <v>1</v>
@@ -7235,7 +7235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -7243,17 +7243,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>3</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>4</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>5</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>6</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>7</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>8</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>9</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>10</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>11</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C35">
         <f>SUM(C23:C34)</f>
         <v>1</v>
@@ -7640,24 +7640,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="22"/>
+    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>SUM(C3:C10)</f>
         <v>1</v>
@@ -7920,7 +7920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>59</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>4</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>6</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>7</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>SUM(C17:C24)</f>
         <v>1</v>
@@ -8224,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G26" s="22" t="s">
         <v>45</v>
       </c>
@@ -8246,24 +8246,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>0.58000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>SUM(C3:C10)</f>
         <v>1</v>
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>59</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>4</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>0.93499999999999994</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>6</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>7</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>SUM(C17:C24)</f>
         <v>1</v>
@@ -8824,23 +8824,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="22"/>
-    <col min="9" max="9" width="8.83203125" style="22"/>
+    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="22"/>
+    <col min="9" max="9" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>0.91699999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>0.93699999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>SUM(C3:C10)</f>
         <v>1</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -9116,12 +9116,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>59</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>0.94000000000000006</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>0.97000000000000008</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>0.97400000000000009</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>6</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>0.9900000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>7</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>SUM(C18:C25)</f>
         <v>1</v>
@@ -9373,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>45</v>
       </c>
@@ -9401,23 +9401,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="22"/>
+    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>0.62999999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>0.67999999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>0.95000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>SUM(C3:C13)</f>
         <v>1</v>
@@ -9747,7 +9747,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>0.87999999999999989</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>5</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>6</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>7</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>8</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>9</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>10</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>SUM(C19:C29)</f>
         <v>1</v>
@@ -10121,22 +10121,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="22"/>
+    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>0.47000000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>0.4900000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>0.53000000000000014</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>0.68000000000000016</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>0.7200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>0.79000000000000026</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>0.89000000000000024</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>0.94000000000000028</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>0.98000000000000032</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>SUM(C3:C16)</f>
         <v>1.0000000000000002</v>
@@ -10544,7 +10544,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -10561,12 +10561,12 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>0.43000000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>3</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>4</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>0.71000000000000008</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>5</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>6</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>0.82000000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>7</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>0.87000000000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>8</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>0.91000000000000014</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>9</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>0.93000000000000016</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>10</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>0.96000000000000019</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>11</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>0.9800000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>12</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>0.99000000000000021</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>13</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>SUM(C23:C36)</f>
         <v>1.0000000000000002</v>

--- a/sanitized.xlsx
+++ b/sanitized.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ual-laptop/Downloads/StateMachine/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12240" activeTab="3"/>
+    <workbookView xWindow="-160" yWindow="620" windowWidth="22440" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="impacts" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <sheet name="omnetpp" sheetId="11" r:id="rId11"/>
     <sheet name="milc" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="96">
   <si>
     <t>astar</t>
   </si>
@@ -304,6 +309,21 @@
   <si>
     <t>Cumm P(x)</t>
   </si>
+  <si>
+    <t>Trial5_1_old</t>
+  </si>
+  <si>
+    <t>Trial1_old</t>
+  </si>
+  <si>
+    <t>Criterion is length of cycle should be min 100000</t>
+  </si>
+  <si>
+    <t>_old</t>
+  </si>
+  <si>
+    <t>Trial2_1_old</t>
+  </si>
 </sst>
 </file>
 
@@ -557,12 +577,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -592,12 +612,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -803,17 +823,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="23"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="36" t="s">
         <v>38</v>
       </c>
@@ -821,7 +841,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -841,7 +861,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>19</v>
       </c>
@@ -865,7 +885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -889,7 +909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -913,7 +933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>22</v>
       </c>
@@ -937,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>23</v>
       </c>
@@ -961,7 +981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -985,7 +1005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1033,7 +1053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>27</v>
       </c>
@@ -1057,7 +1077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1081,7 +1101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>29</v>
       </c>
@@ -1105,7 +1125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -1129,7 +1149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>31</v>
       </c>
@@ -1153,7 +1173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>32</v>
       </c>
@@ -1177,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -1207,11 +1227,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1219,21 +1234,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -1256,7 +1271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1282,7 +1297,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1308,7 +1323,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1334,7 +1349,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1360,7 +1375,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1412,7 +1427,7 @@
         <v>0.45000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1438,7 +1453,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1464,7 +1479,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1490,7 +1505,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1516,7 +1531,7 @@
         <v>0.76000000000000012</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1542,7 +1557,7 @@
         <v>0.8600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1568,7 +1583,7 @@
         <v>0.92000000000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1594,7 +1609,7 @@
         <v>0.96000000000000019</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1649,7 +1664,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18">
         <f>SUM(C3:C17)</f>
         <v>1.0000000000000002</v>
@@ -1667,10 +1682,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1679,7 +1694,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1689,12 +1704,12 @@
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>59</v>
       </c>
@@ -1717,7 +1732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1769,7 +1784,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>2</v>
       </c>
@@ -1795,7 +1810,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>3</v>
       </c>
@@ -1821,7 +1836,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>4</v>
       </c>
@@ -1847,7 +1862,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>5</v>
       </c>
@@ -1873,7 +1888,7 @@
         <v>0.84600000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>6</v>
       </c>
@@ -1899,7 +1914,7 @@
         <v>0.88600000000000012</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>7</v>
       </c>
@@ -1925,7 +1940,7 @@
         <v>0.89000000000000012</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>8</v>
       </c>
@@ -1951,7 +1966,7 @@
         <v>0.91000000000000014</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>9</v>
       </c>
@@ -1977,7 +1992,7 @@
         <v>0.93000000000000016</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>10</v>
       </c>
@@ -2003,7 +2018,7 @@
         <v>0.94000000000000017</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>11</v>
       </c>
@@ -2029,7 +2044,7 @@
         <v>0.9700000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>12</v>
       </c>
@@ -2055,7 +2070,7 @@
         <v>0.9800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>13</v>
       </c>
@@ -2081,7 +2096,7 @@
         <v>0.99000000000000021</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>14</v>
       </c>
@@ -2107,7 +2122,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C40">
         <f>SUM(C25:C39)</f>
         <v>1.0000000000000002</v>
@@ -2130,11 +2145,6 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2142,21 +2152,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -2179,7 +2189,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -2205,7 +2215,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2231,7 +2241,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2257,7 +2267,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2283,7 +2293,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2309,7 +2319,7 @@
         <v>0.38000000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2335,7 +2345,7 @@
         <v>0.43000000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2361,7 +2371,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2387,7 +2397,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2413,7 +2423,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2439,7 +2449,7 @@
         <v>0.76000000000000012</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2465,7 +2475,7 @@
         <v>0.8600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2491,7 +2501,7 @@
         <v>0.92000000000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2517,7 +2527,7 @@
         <v>0.96000000000000019</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2543,7 +2553,7 @@
         <v>0.99000000000000021</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2569,7 +2579,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18">
         <f>SUM(C3:C17)</f>
         <v>1.0000000000000002</v>
@@ -2587,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -2595,7 +2605,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15</v>
       </c>
@@ -2604,7 +2614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>59</v>
       </c>
@@ -2627,7 +2637,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2653,7 +2663,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>1</v>
       </c>
@@ -2679,7 +2689,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>2</v>
       </c>
@@ -2705,7 +2715,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>3</v>
       </c>
@@ -2731,7 +2741,7 @@
         <v>0.69500000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>4</v>
       </c>
@@ -2757,7 +2767,7 @@
         <v>0.81500000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>5</v>
       </c>
@@ -2783,7 +2793,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>6</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>7</v>
       </c>
@@ -2835,7 +2845,7 @@
         <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>8</v>
       </c>
@@ -2861,7 +2871,7 @@
         <v>0.95500000000000007</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>9</v>
       </c>
@@ -2887,7 +2897,7 @@
         <v>0.96000000000000008</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>10</v>
       </c>
@@ -2913,7 +2923,7 @@
         <v>0.98000000000000009</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>11</v>
       </c>
@@ -2939,7 +2949,7 @@
         <v>0.9930000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>12</v>
       </c>
@@ -2965,7 +2975,7 @@
         <v>0.99800000000000011</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>13</v>
       </c>
@@ -2991,7 +3001,7 @@
         <v>0.99900000000000011</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>14</v>
       </c>
@@ -3017,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C39">
         <f>SUM(C24:C38)</f>
         <v>1</v>
@@ -3035,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G40" s="22" t="s">
         <v>45</v>
       </c>
@@ -3046,11 +3056,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3058,22 +3063,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" style="4"/>
-    <col min="7" max="7" width="10.85546875" style="22"/>
+    <col min="4" max="4" width="11.5" style="4"/>
+    <col min="7" max="7" width="11.5" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -3096,7 +3101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -3122,7 +3127,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3148,7 +3153,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3200,7 +3205,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3226,7 +3231,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -3252,7 +3257,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -3278,7 +3283,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -3304,7 +3309,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -3330,7 +3335,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -3356,7 +3361,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -3382,7 +3387,7 @@
         <v>0.66000000000000014</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -3408,7 +3413,7 @@
         <v>0.71000000000000019</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -3434,7 +3439,7 @@
         <v>0.76000000000000023</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -3460,7 +3465,7 @@
         <v>0.77000000000000024</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
@@ -3486,7 +3491,7 @@
         <v>0.79000000000000026</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>15</v>
       </c>
@@ -3512,7 +3517,7 @@
         <v>0.81000000000000028</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
@@ -3538,7 +3543,7 @@
         <v>0.82000000000000028</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>17</v>
       </c>
@@ -3564,7 +3569,7 @@
         <v>0.8400000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>18</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>0.86000000000000032</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>19</v>
       </c>
@@ -3616,7 +3621,7 @@
         <v>0.87000000000000033</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>20</v>
       </c>
@@ -3642,7 +3647,7 @@
         <v>0.88000000000000034</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>21</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>0.89000000000000035</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>22</v>
       </c>
@@ -3694,7 +3699,7 @@
         <v>0.91000000000000036</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>23</v>
       </c>
@@ -3720,7 +3725,7 @@
         <v>0.92000000000000037</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>24</v>
       </c>
@@ -3746,7 +3751,7 @@
         <v>0.93000000000000038</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>25</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>0.96000000000000041</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>26</v>
       </c>
@@ -3798,7 +3803,7 @@
         <v>0.97000000000000042</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27</v>
       </c>
@@ -3824,7 +3829,7 @@
         <v>0.98000000000000043</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>28</v>
       </c>
@@ -3850,7 +3855,7 @@
         <v>0.99000000000000044</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>29</v>
       </c>
@@ -3879,7 +3884,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C33">
         <f>SUM(C3:C32)</f>
         <v>1.0000000000000004</v>
@@ -3897,12 +3902,12 @@
         <v>1.0000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -3922,7 +3927,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>0</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1</v>
       </c>
@@ -3974,7 +3979,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>2</v>
       </c>
@@ -4000,7 +4005,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>3</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>4</v>
       </c>
@@ -4052,7 +4057,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>5</v>
       </c>
@@ -4078,7 +4083,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>6</v>
       </c>
@@ -4104,7 +4109,7 @@
         <v>0.69400000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>7</v>
       </c>
@@ -4130,7 +4135,7 @@
         <v>0.74400000000000011</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>8</v>
       </c>
@@ -4156,7 +4161,7 @@
         <v>0.75900000000000012</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>9</v>
       </c>
@@ -4182,7 +4187,7 @@
         <v>0.79900000000000015</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>10</v>
       </c>
@@ -4208,7 +4213,7 @@
         <v>0.81900000000000017</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>11</v>
       </c>
@@ -4234,7 +4239,7 @@
         <v>0.83900000000000019</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>12</v>
       </c>
@@ -4260,7 +4265,7 @@
         <v>0.86900000000000022</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>13</v>
       </c>
@@ -4286,7 +4291,7 @@
         <v>0.87900000000000023</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>14</v>
       </c>
@@ -4312,7 +4317,7 @@
         <v>0.88600000000000023</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>15</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>0.89300000000000024</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>16</v>
       </c>
@@ -4364,7 +4369,7 @@
         <v>0.90300000000000025</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>17</v>
       </c>
@@ -4390,7 +4395,7 @@
         <v>0.91500000000000026</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>18</v>
       </c>
@@ -4416,7 +4421,7 @@
         <v>0.92500000000000027</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>19</v>
       </c>
@@ -4442,7 +4447,7 @@
         <v>0.93500000000000028</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>20</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>0.94200000000000028</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>21</v>
       </c>
@@ -4494,7 +4499,7 @@
         <v>0.94700000000000029</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>22</v>
       </c>
@@ -4520,7 +4525,7 @@
         <v>0.95700000000000029</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>23</v>
       </c>
@@ -4546,7 +4551,7 @@
         <v>0.9670000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>24</v>
       </c>
@@ -4572,7 +4577,7 @@
         <v>0.97000000000000031</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>25</v>
       </c>
@@ -4598,7 +4603,7 @@
         <v>0.98000000000000032</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>26</v>
       </c>
@@ -4624,7 +4629,7 @@
         <v>0.98500000000000032</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>27</v>
       </c>
@@ -4650,7 +4655,7 @@
         <v>0.99000000000000032</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>28</v>
       </c>
@@ -4676,7 +4681,7 @@
         <v>0.99500000000000033</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>29</v>
       </c>
@@ -4702,7 +4707,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C67">
         <f>SUM(C37:C66)</f>
         <v>1.0000000000000002</v>
@@ -4726,11 +4731,6 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4742,13 +4742,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>64203643.133333303</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>102177328.058824</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>42088905.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>54883486.625</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>64090230.142857097</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>65195183.625</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>46803639.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>47237670.714285702</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>50638457.714285702</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>55945417.888888903</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>81889749.535714298</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>51869571.727272697</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>88381438.066666707</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>53790349.125</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4971,34 +4971,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="7" width="16.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="5" max="7" width="16.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>55</v>
@@ -5014,7 +5010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -5037,7 +5033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0.03</v>
       </c>
@@ -5067,7 +5063,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0.16</v>
       </c>
@@ -5099,7 +5095,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0.09</v>
       </c>
@@ -5131,7 +5127,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0.12</v>
       </c>
@@ -5163,7 +5159,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0.11</v>
       </c>
@@ -5195,7 +5191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0.13</v>
       </c>
@@ -5227,7 +5223,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0.36</v>
       </c>
@@ -5259,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -5290,10 +5286,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>49</v>
       </c>
@@ -5332,7 +5328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0.02</v>
       </c>
@@ -5375,7 +5371,7 @@
         <v>7.2319201995012475E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0.2</v>
       </c>
@@ -5419,7 +5415,7 @@
         <v>0.21695760598503741</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0.1</v>
       </c>
@@ -5463,7 +5459,7 @@
         <v>9.9750623441396506E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0.1</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>3.4912718204488775E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0.08</v>
       </c>
@@ -5551,7 +5547,7 @@
         <v>1.2468827930174564E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0.1</v>
       </c>
@@ -5595,7 +5591,7 @@
         <v>5.4862842892768077E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0.4</v>
       </c>
@@ -5639,7 +5635,7 @@
         <v>0.59850374064837908</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>1</v>
@@ -5668,7 +5664,7 @@
         <v>100075000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -5676,7 +5672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -5687,7 +5683,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -5704,15 +5700,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -5750,7 +5746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>0.02</v>
       </c>
@@ -5793,7 +5789,7 @@
         <v>0.10406698564593302</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0.2</v>
       </c>
@@ -5837,7 +5833,7 @@
         <v>0.10645933014354067</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0.1</v>
       </c>
@@ -5881,7 +5877,7 @@
         <v>1.076555023923445E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0.1</v>
       </c>
@@ -5925,7 +5921,7 @@
         <v>1.7942583732057416E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>0.08</v>
       </c>
@@ -5969,7 +5965,7 @@
         <v>4.7846889952153108E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>0.1</v>
       </c>
@@ -6013,7 +6009,7 @@
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0.4</v>
       </c>
@@ -6057,7 +6053,7 @@
         <v>0.73325358851674638</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D34">
         <f>SUM(D27:D33)</f>
         <v>1</v>
@@ -6086,7 +6082,7 @@
         <v>104550000</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -6124,7 +6120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>0.02</v>
       </c>
@@ -6167,7 +6163,7 @@
         <v>5.5693069306930694E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>0.2</v>
       </c>
@@ -6211,7 +6207,7 @@
         <v>5.5074257425742575E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>0.1</v>
       </c>
@@ -6255,7 +6251,7 @@
         <v>6.8069306930693069E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>0.1</v>
       </c>
@@ -6299,7 +6295,7 @@
         <v>1.2995049504950494E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>0.08</v>
       </c>
@@ -6343,7 +6339,7 @@
         <v>1.2376237623762376E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>0.1</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>1.7326732673267328E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>0.4</v>
       </c>
@@ -6431,7 +6427,7 @@
         <v>0.8508663366336634</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D45">
         <f>SUM(D38:D44)</f>
         <v>1</v>
@@ -6460,14 +6456,14 @@
         <v>100095000</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
@@ -6503,7 +6499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>0.02</v>
       </c>
@@ -6547,7 +6543,7 @@
         <v>2.5815704553603443E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>0.2</v>
       </c>
@@ -6591,7 +6587,7 @@
         <v>0.31946934385084258</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>0.1</v>
       </c>
@@ -6635,7 +6631,7 @@
         <v>2.509860164933668E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>0.1</v>
       </c>
@@ -6679,7 +6675,7 @@
         <v>6.4539261384008607E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>0.08</v>
       </c>
@@ -6723,7 +6719,7 @@
         <v>1.7569021154535677E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>0.1</v>
       </c>
@@ -6767,7 +6763,7 @@
         <v>8.8562208676945142E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>0.4</v>
       </c>
@@ -6811,7 +6807,7 @@
         <v>0.51703119397633557</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D56">
         <f>SUM(D49:D55)</f>
         <v>1</v>
@@ -6840,40 +6836,773 @@
         <v>99958000</v>
       </c>
     </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K59" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" t="s">
+        <v>51</v>
+      </c>
+      <c r="M59" t="s">
+        <v>52</v>
+      </c>
+      <c r="N59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>0.02</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0.04</v>
+      </c>
+      <c r="E60" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="4">
+        <f>D60*E60</f>
+        <v>160</v>
+      </c>
+      <c r="H60" s="5">
+        <f>F60/SUM(F60:F66)</f>
+        <v>3.4820457018498369E-2</v>
+      </c>
+      <c r="I60">
+        <v>0.03</v>
+      </c>
+      <c r="J60" s="7">
+        <f>D60</f>
+        <v>0.04</v>
+      </c>
+      <c r="K60">
+        <v>72</v>
+      </c>
+      <c r="L60" s="8">
+        <f>K60*E60</f>
+        <v>288000</v>
+      </c>
+      <c r="M60">
+        <f>L60/L67</f>
+        <v>2.2417685062660543E-2</v>
+      </c>
+      <c r="N60">
+        <f>K60/K67</f>
+        <v>2.5815704553603443E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>0.2</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.15</v>
+      </c>
+      <c r="E61" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" ref="F61:F66" si="23">D61*E61</f>
+        <v>750</v>
+      </c>
+      <c r="H61" s="5">
+        <f>F61/SUM(F60:F66)</f>
+        <v>0.1632208922742111</v>
+      </c>
+      <c r="I61">
+        <v>0.16</v>
+      </c>
+      <c r="J61" s="7">
+        <f>SUM(J60+D61)</f>
+        <v>0.19</v>
+      </c>
+      <c r="K61">
+        <v>891</v>
+      </c>
+      <c r="L61" s="8">
+        <f t="shared" ref="L61:L66" si="24">K61*E61</f>
+        <v>4455000</v>
+      </c>
+      <c r="M61">
+        <f>L61/L67</f>
+        <v>0.34677356581303026</v>
+      </c>
+      <c r="N61">
+        <f>K61/K67</f>
+        <v>0.31946934385084258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>0.1</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>0.03</v>
+      </c>
+      <c r="E62" s="4">
+        <v>13000</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="23"/>
+        <v>390</v>
+      </c>
+      <c r="H62" s="5">
+        <f>F62/SUM(F60:F66)</f>
+        <v>8.4874863982589768E-2</v>
+      </c>
+      <c r="I62">
+        <v>0.09</v>
+      </c>
+      <c r="J62" s="7">
+        <f t="shared" ref="J62:J66" si="25">SUM(J61+D62)</f>
+        <v>0.22</v>
+      </c>
+      <c r="K62">
+        <v>70</v>
+      </c>
+      <c r="L62" s="8">
+        <f t="shared" si="24"/>
+        <v>910000</v>
+      </c>
+      <c r="M62">
+        <f>L62/L67</f>
+        <v>7.0833657663267685E-2</v>
+      </c>
+      <c r="N62">
+        <f>K62/K67</f>
+        <v>2.509860164933668E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>0.1</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>0.01</v>
+      </c>
+      <c r="E63" s="4">
+        <v>60000</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+      <c r="H63" s="5">
+        <f>F63/SUM(F60:F66)</f>
+        <v>0.13057671381936889</v>
+      </c>
+      <c r="I63">
+        <v>0.12</v>
+      </c>
+      <c r="J63" s="7">
+        <f t="shared" si="25"/>
+        <v>0.23</v>
+      </c>
+      <c r="K63">
+        <v>18</v>
+      </c>
+      <c r="L63" s="8">
+        <f t="shared" si="24"/>
+        <v>1080000</v>
+      </c>
+      <c r="M63">
+        <f>L63/L67</f>
+        <v>8.4066318984977031E-2</v>
+      </c>
+      <c r="N63">
+        <f>K63/K67</f>
+        <v>6.4539261384008607E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>0.08</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>0.02</v>
+      </c>
+      <c r="E64" s="4">
+        <v>26000</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="23"/>
+        <v>520</v>
+      </c>
+      <c r="H64" s="5">
+        <f>F64/SUM(F60:F66)</f>
+        <v>0.11316648531011969</v>
+      </c>
+      <c r="I64">
+        <v>0.11</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="K64">
+        <v>49</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" si="24"/>
+        <v>1274000</v>
+      </c>
+      <c r="M64">
+        <f>L64/L67</f>
+        <v>9.9167120728574767E-2</v>
+      </c>
+      <c r="N64">
+        <f>K64/K67</f>
+        <v>1.7569021154535677E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>0.1</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>0.12</v>
+      </c>
+      <c r="E65" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+      <c r="H65" s="5">
+        <f>F65/SUM(F60:F66)</f>
+        <v>0.13057671381936889</v>
+      </c>
+      <c r="I65">
+        <v>0.13</v>
+      </c>
+      <c r="J65" s="7">
+        <f t="shared" si="25"/>
+        <v>0.37</v>
+      </c>
+      <c r="K65">
+        <v>247</v>
+      </c>
+      <c r="L65" s="8">
+        <f t="shared" si="24"/>
+        <v>1235000</v>
+      </c>
+      <c r="M65">
+        <f>L65/L67</f>
+        <v>9.613139254300615E-2</v>
+      </c>
+      <c r="N65">
+        <f>K65/K67</f>
+        <v>8.8562208676945142E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0.4</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>0.63</v>
+      </c>
+      <c r="E66" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="23"/>
+        <v>1575</v>
+      </c>
+      <c r="H66" s="5">
+        <f>F66/SUM(F60:F66)</f>
+        <v>0.34276387377584333</v>
+      </c>
+      <c r="I66">
+        <v>0.36</v>
+      </c>
+      <c r="J66" s="7">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1442</v>
+      </c>
+      <c r="L66" s="8">
+        <f t="shared" si="24"/>
+        <v>3605000</v>
+      </c>
+      <c r="M66">
+        <f>L66/L67</f>
+        <v>0.28061025920448351</v>
+      </c>
+      <c r="N66">
+        <f>K66/K67</f>
+        <v>0.51703119397633557</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <f>SUM(D60:D66)</f>
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" ref="E67:F67" si="26">SUM(E60:E66)</f>
+        <v>115500</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="26"/>
+        <v>4595</v>
+      </c>
+      <c r="H67" s="5">
+        <f>SUM(H60:H66)</f>
+        <v>1</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67">
+        <f>SUM(K60:K66)</f>
+        <v>2789</v>
+      </c>
+      <c r="L67" s="8">
+        <f>SUM(L60:L66)</f>
+        <v>12847000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0.03</v>
+      </c>
+      <c r="D71">
+        <v>0.03</v>
+      </c>
+      <c r="E71" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F71" s="4">
+        <f>E71*D71</f>
+        <v>4500</v>
+      </c>
+      <c r="G71" s="4">
+        <f>B71*5000000</f>
+        <v>150000</v>
+      </c>
+      <c r="H71" s="5">
+        <f>F71/$F$78</f>
+        <v>3.8371349392453638E-2</v>
+      </c>
+      <c r="I71" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="J71" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="L71" s="4">
+        <v>7500000</v>
+      </c>
+      <c r="M71" s="8">
+        <f>L71/50</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>0.16</v>
+      </c>
+      <c r="D72">
+        <v>0.13</v>
+      </c>
+      <c r="E72" s="4">
+        <v>140000</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" ref="F72:F77" si="27">E72*D72</f>
+        <v>18200</v>
+      </c>
+      <c r="G72" s="4">
+        <f t="shared" ref="G72:G77" si="28">B72*5000000</f>
+        <v>800000</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" ref="H72:H77" si="29">F72/$F$78</f>
+        <v>0.15519079087614582</v>
+      </c>
+      <c r="I72" s="20">
+        <f>SUM(H72+I71)</f>
+        <v>0.18519079087614582</v>
+      </c>
+      <c r="J72" s="6">
+        <f>J71+D72</f>
+        <v>0.15</v>
+      </c>
+      <c r="L72" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="M72" s="8">
+        <f t="shared" ref="M72:M77" si="30">L72/50</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0.09</v>
+      </c>
+      <c r="D73">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>110000</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" si="27"/>
+        <v>11000</v>
+      </c>
+      <c r="G73" s="4">
+        <f t="shared" si="28"/>
+        <v>450000</v>
+      </c>
+      <c r="H73" s="5">
+        <f t="shared" si="29"/>
+        <v>9.379663184822E-2</v>
+      </c>
+      <c r="I73" s="20">
+        <f t="shared" ref="I73:I77" si="31">SUM(H73+I72)</f>
+        <v>0.27898742272436583</v>
+      </c>
+      <c r="J73" s="6">
+        <f t="shared" ref="J73:J77" si="32">J72+D73</f>
+        <v>0.25</v>
+      </c>
+      <c r="L73" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="M73" s="8">
+        <f t="shared" si="30"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0.12</v>
+      </c>
+      <c r="D74">
+        <v>0.13</v>
+      </c>
+      <c r="E74" s="4">
+        <v>120000</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="27"/>
+        <v>15600</v>
+      </c>
+      <c r="G74" s="4">
+        <f t="shared" si="28"/>
+        <v>600000</v>
+      </c>
+      <c r="H74" s="5">
+        <f t="shared" si="29"/>
+        <v>0.13302067789383926</v>
+      </c>
+      <c r="I74" s="20">
+        <f t="shared" si="31"/>
+        <v>0.41200810061820509</v>
+      </c>
+      <c r="J74" s="6">
+        <f t="shared" si="32"/>
+        <v>0.38</v>
+      </c>
+      <c r="L74" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="M74" s="8">
+        <f t="shared" si="30"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0.11</v>
+      </c>
+      <c r="D75">
+        <v>0.09</v>
+      </c>
+      <c r="E75" s="4">
+        <v>137500</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="27"/>
+        <v>12375</v>
+      </c>
+      <c r="G75" s="4">
+        <f t="shared" si="28"/>
+        <v>550000</v>
+      </c>
+      <c r="H75" s="5">
+        <f t="shared" si="29"/>
+        <v>0.10552121082924749</v>
+      </c>
+      <c r="I75" s="20">
+        <f t="shared" si="31"/>
+        <v>0.51752931144745262</v>
+      </c>
+      <c r="J75" s="6">
+        <f t="shared" si="32"/>
+        <v>0.47</v>
+      </c>
+      <c r="L75" s="4">
+        <v>6875000</v>
+      </c>
+      <c r="M75" s="8">
+        <f t="shared" si="30"/>
+        <v>137500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0.13</v>
+      </c>
+      <c r="D76">
+        <v>0.12</v>
+      </c>
+      <c r="E76" s="4">
+        <v>130000</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" si="27"/>
+        <v>15600</v>
+      </c>
+      <c r="G76" s="4">
+        <f t="shared" si="28"/>
+        <v>650000</v>
+      </c>
+      <c r="H76" s="5">
+        <f t="shared" si="29"/>
+        <v>0.13302067789383926</v>
+      </c>
+      <c r="I76" s="20">
+        <f t="shared" si="31"/>
+        <v>0.65054998934129182</v>
+      </c>
+      <c r="J76" s="6">
+        <f t="shared" si="32"/>
+        <v>0.59</v>
+      </c>
+      <c r="L76" s="4">
+        <v>6500000</v>
+      </c>
+      <c r="M76" s="8">
+        <f t="shared" si="30"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0.36</v>
+      </c>
+      <c r="D77">
+        <v>0.4</v>
+      </c>
+      <c r="E77" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="27"/>
+        <v>40000</v>
+      </c>
+      <c r="G77" s="4">
+        <f t="shared" si="28"/>
+        <v>1800000</v>
+      </c>
+      <c r="H77" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34107866126625452</v>
+      </c>
+      <c r="I77" s="20">
+        <f t="shared" si="31"/>
+        <v>0.99162865060754635</v>
+      </c>
+      <c r="J77" s="6">
+        <f t="shared" si="32"/>
+        <v>0.99</v>
+      </c>
+      <c r="L77" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="M77" s="8">
+        <f t="shared" si="30"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78">
+        <f>SUM(B71:B77)</f>
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <f>SUM(D71:D77)</f>
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" ref="E78:F78" si="33">SUM(E71:E77)</f>
+        <v>887500</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" si="33"/>
+        <v>117275</v>
+      </c>
+      <c r="G78" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="H78" s="5">
+        <f>SUM(H71:H77)</f>
+        <v>1</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L78">
+        <f>SUM(L71:L77)</f>
+        <v>39875000</v>
+      </c>
+      <c r="M78" s="8">
+        <f>SUM(M71:M77)</f>
+        <v>797500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H79" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -6896,7 +7625,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -6912,7 +7641,7 @@
       </c>
       <c r="G3" s="22">
         <f>E3/SUM(E3:E14)</f>
-        <v>6.0120240480961921E-2</v>
+        <v>6.9284064665127015E-2</v>
       </c>
       <c r="H3" s="22">
         <v>7.0000000000000007E-2</v>
@@ -6922,7 +7651,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -6938,7 +7667,7 @@
       </c>
       <c r="G4" s="22">
         <f>E4/SUM(E3:E14)</f>
-        <v>6.6800267201068811E-2</v>
+        <v>7.6982294072363358E-2</v>
       </c>
       <c r="H4" s="22">
         <v>0.08</v>
@@ -6948,7 +7677,7 @@
         <v>0.12000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -6964,7 +7693,7 @@
       </c>
       <c r="G5" s="22">
         <f>E5/SUM(E3:E14)</f>
-        <v>9.3520374081496341E-2</v>
+        <v>0.10777521170130872</v>
       </c>
       <c r="H5" s="22">
         <v>0.08</v>
@@ -6974,7 +7703,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -6990,7 +7719,7 @@
       </c>
       <c r="G6" s="22">
         <f>E6/SUM(E3:E14)</f>
-        <v>0.13360053440213762</v>
+        <v>0.15396458814472672</v>
       </c>
       <c r="H6" s="22">
         <v>0.14000000000000001</v>
@@ -7000,7 +7729,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -7016,7 +7745,7 @@
       </c>
       <c r="G7" s="22">
         <f>E7/SUM(E3:E14)</f>
-        <v>5.3440213760855046E-2</v>
+        <v>6.1585835257890686E-2</v>
       </c>
       <c r="H7" s="22">
         <v>0.04</v>
@@ -7026,7 +7755,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -7042,7 +7771,7 @@
       </c>
       <c r="G8" s="22">
         <f>E8/SUM(E3:E14)</f>
-        <v>0.13360053440213762</v>
+        <v>0.15396458814472672</v>
       </c>
       <c r="H8" s="22">
         <v>0.13</v>
@@ -7052,7 +7781,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -7068,7 +7797,7 @@
       </c>
       <c r="G9" s="22">
         <f>E9/SUM(E3:E14)</f>
-        <v>3.0060120240480961E-2</v>
+        <v>3.4642032332563508E-2</v>
       </c>
       <c r="H9" s="22">
         <v>0.03</v>
@@ -7078,7 +7807,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -7094,7 +7823,7 @@
       </c>
       <c r="G10" s="22">
         <f>E10/SUM(E3:E14)</f>
-        <v>0.13360053440213762</v>
+        <v>0.15396458814472672</v>
       </c>
       <c r="H10" s="22">
         <v>0.14000000000000001</v>
@@ -7104,7 +7833,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -7120,7 +7849,7 @@
       </c>
       <c r="G11" s="22">
         <f>E11/SUM(E3:E14)</f>
-        <v>9.2184368737474945E-2</v>
+        <v>0.10623556581986143</v>
       </c>
       <c r="H11" s="22">
         <v>0.1</v>
@@ -7130,7 +7859,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -7146,7 +7875,7 @@
       </c>
       <c r="G12" s="22">
         <f>E12/SUM(E3:E14)</f>
-        <v>4.0080160320641281E-2</v>
+        <v>4.6189376443418015E-2</v>
       </c>
       <c r="H12" s="22">
         <v>0.03</v>
@@ -7156,7 +7885,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -7164,15 +7893,15 @@
         <v>0.11</v>
       </c>
       <c r="D13" s="4">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>22000</v>
+        <v>2200</v>
       </c>
       <c r="G13" s="22">
         <f>E13/SUM(E3:E14)</f>
-        <v>0.14696058784235136</v>
+        <v>1.6936104695919937E-2</v>
       </c>
       <c r="H13" s="22">
         <v>0.14000000000000001</v>
@@ -7182,7 +7911,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -7198,7 +7927,7 @@
       </c>
       <c r="G14" s="22">
         <f>E14/SUM(E3:E14)</f>
-        <v>1.6032064128256512E-2</v>
+        <v>1.8475750577367205E-2</v>
       </c>
       <c r="H14" s="22">
         <v>0.02</v>
@@ -7211,18 +7940,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15">
         <f>SUM(C3:C14)</f>
         <v>1</v>
       </c>
       <c r="E15">
         <f>SUM(E3:E14)</f>
-        <v>149700</v>
+        <v>129900</v>
       </c>
       <c r="G15" s="22">
         <f>SUM(G3:G14)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H15" s="22">
         <f>SUM(H3:H14)</f>
@@ -7235,7 +7964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -7243,19 +7972,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -7264,7 +7993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -7287,7 +8016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -7313,7 +8042,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1</v>
       </c>
@@ -7339,7 +8068,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>2</v>
       </c>
@@ -7365,7 +8094,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>3</v>
       </c>
@@ -7391,7 +8120,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>4</v>
       </c>
@@ -7417,7 +8146,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>5</v>
       </c>
@@ -7443,7 +8172,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>6</v>
       </c>
@@ -7469,7 +8198,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>7</v>
       </c>
@@ -7495,7 +8224,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>8</v>
       </c>
@@ -7521,7 +8250,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>9</v>
       </c>
@@ -7547,7 +8276,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>10</v>
       </c>
@@ -7573,7 +8302,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>11</v>
       </c>
@@ -7602,7 +8331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>SUM(C23:C34)</f>
         <v>1</v>
@@ -7626,13 +8355,769 @@
         <v>45</v>
       </c>
     </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E39">
+        <f>C39*D39</f>
+        <v>10000</v>
+      </c>
+      <c r="G39" s="22">
+        <f>E39/$E$51</f>
+        <v>7.1113639596074529E-2</v>
+      </c>
+      <c r="H39" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I39" s="22">
+        <f>C39</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0.04</v>
+      </c>
+      <c r="D40" s="4">
+        <v>250000</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:E50" si="4">C40*D40</f>
+        <v>10000</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" ref="G40:G50" si="5">E40/$E$51</f>
+        <v>7.1113639596074529E-2</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="I40" s="22">
+        <f>C40+I39</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0.05</v>
+      </c>
+      <c r="D41" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" si="5"/>
+        <v>7.1113639596074529E-2</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="I41" s="22">
+        <f t="shared" ref="I41:I50" si="6">C41+I40</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>0.18</v>
+      </c>
+      <c r="D42" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="G42" s="22">
+        <f t="shared" si="5"/>
+        <v>0.12800455127293414</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I42" s="22">
+        <f t="shared" si="6"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0.02</v>
+      </c>
+      <c r="D43" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="5"/>
+        <v>2.844545583842981E-2</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="I43" s="22">
+        <f t="shared" si="6"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0.09</v>
+      </c>
+      <c r="D44" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="G44" s="22">
+        <f t="shared" si="5"/>
+        <v>0.12800455127293414</v>
+      </c>
+      <c r="H44" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="I44" s="22">
+        <f t="shared" si="6"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>0.04</v>
+      </c>
+      <c r="D45" s="4">
+        <v>150000</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="G45" s="22">
+        <f t="shared" si="5"/>
+        <v>4.2668183757644716E-2</v>
+      </c>
+      <c r="H45" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I45" s="22">
+        <f t="shared" si="6"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>0.09</v>
+      </c>
+      <c r="D46" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="G46" s="22">
+        <f t="shared" si="5"/>
+        <v>0.12800455127293414</v>
+      </c>
+      <c r="H46" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I46" s="22">
+        <f t="shared" si="6"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>0.12</v>
+      </c>
+      <c r="D47" s="4">
+        <v>110000</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>13200</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" si="5"/>
+        <v>9.387000426681838E-2</v>
+      </c>
+      <c r="H47" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="I47" s="22">
+        <f t="shared" si="6"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>0.04</v>
+      </c>
+      <c r="D48" s="4">
+        <v>105500</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>4220</v>
+      </c>
+      <c r="G48" s="22">
+        <f t="shared" si="5"/>
+        <v>3.0009955909543449E-2</v>
+      </c>
+      <c r="H48" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I48" s="22">
+        <f t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>0.15</v>
+      </c>
+      <c r="D49" s="4">
+        <v>120000</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="G49" s="22">
+        <f t="shared" si="5"/>
+        <v>0.12800455127293414</v>
+      </c>
+      <c r="H49" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I49" s="22">
+        <f t="shared" si="6"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>0.08</v>
+      </c>
+      <c r="D50" s="4">
+        <v>140000</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>11200</v>
+      </c>
+      <c r="G50" s="22">
+        <f t="shared" si="5"/>
+        <v>7.9647276347603477E-2</v>
+      </c>
+      <c r="H50" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="I50" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <f>SUM(C39:C50)</f>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f>SUM(E39:E50)</f>
+        <v>140620</v>
+      </c>
+      <c r="G51" s="22">
+        <f>SUM(G39:G50)</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="22">
+        <f>SUM(H39:H50)</f>
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.01</v>
+      </c>
+      <c r="D59" s="4">
+        <v>50000</v>
+      </c>
+      <c r="E59">
+        <f>C59*D59</f>
+        <v>500</v>
+      </c>
+      <c r="G59" s="22">
+        <f>E59/SUM(E59:E70)</f>
+        <v>5.9382422802850353E-2</v>
+      </c>
+      <c r="H59" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I59" s="35">
+        <f>C59</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0.01</v>
+      </c>
+      <c r="D60" s="4">
+        <v>70000</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:E70" si="7">C60*D60</f>
+        <v>700</v>
+      </c>
+      <c r="G60" s="22">
+        <f>E60/SUM(E59:E70)</f>
+        <v>8.3135391923990498E-2</v>
+      </c>
+      <c r="H60" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="I60" s="35">
+        <f>C60+I59</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>0.03</v>
+      </c>
+      <c r="D61" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="G61" s="22">
+        <f>E61/SUM(E59:E70)</f>
+        <v>7.1258907363420429E-2</v>
+      </c>
+      <c r="H61" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="I61" s="35">
+        <f t="shared" ref="I61:I70" si="8">C61+I60</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>0.25</v>
+      </c>
+      <c r="D62" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="7"/>
+        <v>1250</v>
+      </c>
+      <c r="G62" s="22">
+        <f>E62/SUM(E59:E70)</f>
+        <v>0.14845605700712589</v>
+      </c>
+      <c r="H62" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I62" s="35">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D63" s="4">
+        <v>70000</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="G63" s="22">
+        <f>E63/SUM(E59:E70)</f>
+        <v>4.1567695961995249E-2</v>
+      </c>
+      <c r="H63" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="I63" s="35">
+        <f t="shared" si="8"/>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>0.21</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="7"/>
+        <v>1050</v>
+      </c>
+      <c r="G64" s="22">
+        <f>E64/SUM(E59:E70)</f>
+        <v>0.12470308788598575</v>
+      </c>
+      <c r="H64" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="I64" s="35">
+        <f t="shared" si="8"/>
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D65" s="4">
+        <v>80000</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="G65" s="22">
+        <f>E65/SUM(E59:E70)</f>
+        <v>4.7505938242280284E-2</v>
+      </c>
+      <c r="H65" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I65" s="35">
+        <f t="shared" si="8"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>0.3</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="7"/>
+        <v>1200</v>
+      </c>
+      <c r="G66" s="22">
+        <f>E66/SUM(E59:E70)</f>
+        <v>0.14251781472684086</v>
+      </c>
+      <c r="H66" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I66" s="35">
+        <f t="shared" si="8"/>
+        <v>0.82000000000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D67" s="4">
+        <v>60000</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="7"/>
+        <v>840</v>
+      </c>
+      <c r="G67" s="22">
+        <f>E67/SUM(E59:E70)</f>
+        <v>9.9762470308788598E-2</v>
+      </c>
+      <c r="H67" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="I67" s="35">
+        <f t="shared" si="8"/>
+        <v>0.83400000000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D68" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="G68" s="22">
+        <f>E68/SUM(E59:E70)</f>
+        <v>2.4940617577197149E-2</v>
+      </c>
+      <c r="H68" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I68" s="35">
+        <f t="shared" si="8"/>
+        <v>0.85500000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D69" s="4">
+        <v>8000</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>1120</v>
+      </c>
+      <c r="G69" s="22">
+        <f>E69/SUM(E59:E70)</f>
+        <v>0.1330166270783848</v>
+      </c>
+      <c r="H69" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I69" s="35">
+        <f t="shared" si="8"/>
+        <v>0.99500000000000011</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D70" s="4">
+        <v>40000</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="G70" s="22">
+        <f>E70/SUM(E59:E70)</f>
+        <v>2.3752969121140142E-2</v>
+      </c>
+      <c r="H70" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="I70" s="35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <f>SUM(C59:C70)</f>
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <f>SUM(E59:E70)</f>
+        <v>8420</v>
+      </c>
+      <c r="G71" s="22">
+        <f>SUM(G59:G70)</f>
+        <v>1</v>
+      </c>
+      <c r="H71" s="22">
+        <f>SUM(H59:H70)</f>
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>45</v>
+      </c>
+      <c r="J71" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7640,24 +9125,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="22"/>
+    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -7680,7 +9165,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -7707,7 +9192,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -7734,7 +9219,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -7761,7 +9246,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -7788,7 +9273,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -7815,7 +9300,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -7842,7 +9327,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -7872,7 +9357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -7899,7 +9384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11">
         <f>SUM(C3:C10)</f>
         <v>1</v>
@@ -7920,7 +9405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -7935,7 +9420,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -7953,7 +9438,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -7961,7 +9446,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>59</v>
       </c>
@@ -7984,7 +9469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -8011,7 +9496,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
@@ -8038,7 +9523,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8065,7 +9550,7 @@
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
@@ -8092,7 +9577,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>4</v>
       </c>
@@ -8122,7 +9607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>5</v>
       </c>
@@ -8149,7 +9634,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>6</v>
       </c>
@@ -8179,7 +9664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>7</v>
       </c>
@@ -8206,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C25">
         <f>SUM(C17:C24)</f>
         <v>1</v>
@@ -8224,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G26" s="22" t="s">
         <v>45</v>
       </c>
@@ -8234,11 +9719,6 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8246,24 +9726,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -8286,7 +9766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -8312,7 +9792,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -8338,7 +9818,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -8364,7 +9844,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8390,7 +9870,7 @@
         <v>0.58000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -8416,7 +9896,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -8442,7 +9922,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -8468,7 +9948,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -8497,7 +9977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11">
         <f>SUM(C3:C10)</f>
         <v>1</v>
@@ -8515,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -8526,7 +10006,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -8539,7 +10019,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -8550,7 +10030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>59</v>
       </c>
@@ -8573,7 +10053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -8599,7 +10079,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
@@ -8625,7 +10105,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8651,7 +10131,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
@@ -8677,7 +10157,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>4</v>
       </c>
@@ -8703,7 +10183,7 @@
         <v>0.93499999999999994</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>5</v>
       </c>
@@ -8729,7 +10209,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>6</v>
       </c>
@@ -8755,7 +10235,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>7</v>
       </c>
@@ -8784,7 +10264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C25">
         <f>SUM(C17:C24)</f>
         <v>1</v>
@@ -8812,11 +10292,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8824,23 +10299,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="22"/>
-    <col min="9" max="9" width="8.85546875" style="22"/>
+    <col min="4" max="4" width="13.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="22"/>
+    <col min="9" max="9" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -8863,7 +10338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -8889,7 +10364,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -8915,7 +10390,7 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -8941,7 +10416,7 @@
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8967,7 +10442,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -8993,7 +10468,7 @@
         <v>0.91699999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -9019,7 +10494,7 @@
         <v>0.93699999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -9045,7 +10520,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -9074,7 +10549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11">
         <f>SUM(C3:C10)</f>
         <v>1</v>
@@ -9092,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -9103,7 +10578,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -9116,12 +10591,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>59</v>
       </c>
@@ -9144,7 +10619,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -9170,7 +10645,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>1</v>
       </c>
@@ -9196,7 +10671,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2</v>
       </c>
@@ -9222,7 +10697,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>3</v>
       </c>
@@ -9248,7 +10723,7 @@
         <v>0.94000000000000006</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>4</v>
       </c>
@@ -9274,7 +10749,7 @@
         <v>0.97000000000000008</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>5</v>
       </c>
@@ -9300,7 +10775,7 @@
         <v>0.97400000000000009</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>6</v>
       </c>
@@ -9326,7 +10801,7 @@
         <v>0.9900000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>7</v>
       </c>
@@ -9352,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26">
         <f>SUM(C18:C25)</f>
         <v>1</v>
@@ -9373,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>45</v>
       </c>
@@ -9389,11 +10864,6 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9401,23 +10871,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="22"/>
+    <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -9440,7 +10910,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -9466,7 +10936,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -9492,7 +10962,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -9518,7 +10988,7 @@
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -9544,7 +11014,7 @@
         <v>0.62999999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -9570,7 +11040,7 @@
         <v>0.67999999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -9596,7 +11066,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -9622,7 +11092,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -9648,7 +11118,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -9674,7 +11144,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -9700,7 +11170,7 @@
         <v>0.95000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -9729,7 +11199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14">
         <f>SUM(C3:C13)</f>
         <v>1</v>
@@ -9747,7 +11217,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -9758,7 +11228,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11</v>
       </c>
@@ -9771,7 +11241,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -9797,7 +11267,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -9823,7 +11293,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1</v>
       </c>
@@ -9849,7 +11319,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>2</v>
       </c>
@@ -9875,7 +11345,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>3</v>
       </c>
@@ -9901,7 +11371,7 @@
         <v>0.87999999999999989</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>4</v>
       </c>
@@ -9927,7 +11397,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>5</v>
       </c>
@@ -9953,7 +11423,7 @@
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>6</v>
       </c>
@@ -9979,7 +11449,7 @@
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>7</v>
       </c>
@@ -10005,7 +11475,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>8</v>
       </c>
@@ -10031,7 +11501,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>9</v>
       </c>
@@ -10060,7 +11530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>10</v>
       </c>
@@ -10086,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C30">
         <f>SUM(C19:C29)</f>
         <v>1</v>
@@ -10109,11 +11579,6 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10121,22 +11586,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="22"/>
+    <col min="4" max="4" width="11.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -10159,7 +11624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -10185,7 +11650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -10211,7 +11676,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -10237,7 +11702,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -10263,7 +11728,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -10289,7 +11754,7 @@
         <v>0.47000000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -10315,7 +11780,7 @@
         <v>0.4900000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -10341,7 +11806,7 @@
         <v>0.53000000000000014</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -10367,7 +11832,7 @@
         <v>0.68000000000000016</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -10393,7 +11858,7 @@
         <v>0.7200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -10419,7 +11884,7 @@
         <v>0.79000000000000026</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -10445,7 +11910,7 @@
         <v>0.89000000000000024</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -10471,7 +11936,7 @@
         <v>0.94000000000000028</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -10497,7 +11962,7 @@
         <v>0.98000000000000032</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -10526,7 +11991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C17">
         <f>SUM(C3:C16)</f>
         <v>1.0000000000000002</v>
@@ -10544,7 +12009,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -10552,7 +12017,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>14</v>
       </c>
@@ -10561,12 +12026,12 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -10589,7 +12054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -10615,7 +12080,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1</v>
       </c>
@@ -10641,7 +12106,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>2</v>
       </c>
@@ -10667,7 +12132,7 @@
         <v>0.43000000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>3</v>
       </c>
@@ -10693,7 +12158,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>4</v>
       </c>
@@ -10719,7 +12184,7 @@
         <v>0.71000000000000008</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>5</v>
       </c>
@@ -10745,7 +12210,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>6</v>
       </c>
@@ -10771,7 +12236,7 @@
         <v>0.82000000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>7</v>
       </c>
@@ -10797,7 +12262,7 @@
         <v>0.87000000000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>8</v>
       </c>
@@ -10823,7 +12288,7 @@
         <v>0.91000000000000014</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>9</v>
       </c>
@@ -10849,7 +12314,7 @@
         <v>0.93000000000000016</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>10</v>
       </c>
@@ -10875,7 +12340,7 @@
         <v>0.96000000000000019</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>11</v>
       </c>
@@ -10901,7 +12366,7 @@
         <v>0.9800000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>12</v>
       </c>
@@ -10927,7 +12392,7 @@
         <v>0.99000000000000021</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>13</v>
       </c>
@@ -10953,7 +12418,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C37">
         <f>SUM(C23:C36)</f>
         <v>1.0000000000000002</v>
@@ -10979,10 +12444,5 @@
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/sanitized.xlsx
+++ b/sanitized.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="620" windowWidth="22440" windowHeight="12240" activeTab="3"/>
+    <workbookView xWindow="1140" yWindow="560" windowWidth="22560" windowHeight="13360" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="impacts" sheetId="1" r:id="rId1"/>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G3" s="22">
         <f>E3/$E$18</f>
-        <v>0.12936610608020699</v>
+        <v>0.12406947890818859</v>
       </c>
       <c r="H3">
         <v>0.13</v>
@@ -1302,25 +1302,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="D4" s="4">
         <v>550000</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E17" si="0">D4*C4</f>
-        <v>27500</v>
+        <v>33000</v>
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G17" si="1">E4/$E$18</f>
-        <v>0.11858559724018973</v>
+        <v>0.13647642679900746</v>
       </c>
       <c r="H4">
         <v>0.13</v>
       </c>
       <c r="I4">
         <f>C4+I3</f>
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1328,25 +1328,25 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="4">
         <v>300000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" si="1"/>
-        <v>0.11642949547218628</v>
+        <v>0.12406947890818859</v>
       </c>
       <c r="H5">
         <v>0.12</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I17" si="2">C5+I4</f>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1365,14 +1365,14 @@
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>0.10651142733937041</v>
+        <v>0.10215053763440861</v>
       </c>
       <c r="H6">
         <v>0.1</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1391,14 +1391,14 @@
       </c>
       <c r="G7" s="22">
         <f t="shared" si="1"/>
-        <v>9.7024579560155241E-2</v>
+        <v>9.3052109181141443E-2</v>
       </c>
       <c r="H7">
         <v>0.1</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>0.42000000000000004</v>
+        <v>0.43999999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1417,14 +1417,14 @@
       </c>
       <c r="G8" s="22">
         <f t="shared" si="1"/>
-        <v>9.7024579560155241E-2</v>
+        <v>9.3052109181141443E-2</v>
       </c>
       <c r="H8">
         <v>0.09</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>0.45000000000000007</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1443,14 +1443,14 @@
       </c>
       <c r="G9" s="22">
         <f t="shared" si="1"/>
-        <v>8.6244070720137997E-2</v>
+        <v>8.2712985938792394E-2</v>
       </c>
       <c r="H9">
         <v>0.09</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>0.53</v>
+        <v>0.54999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1458,25 +1458,25 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D10" s="4">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>14300</v>
       </c>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
-        <v>5.8214747736093142E-2</v>
+        <v>5.9139784946236562E-2</v>
       </c>
       <c r="H10">
         <v>0.05</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0.68</v>
+        <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1495,14 +1495,14 @@
       </c>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
-        <v>3.4497628288055193E-2</v>
+        <v>3.3085194375516956E-2</v>
       </c>
       <c r="H11">
         <v>0.04</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>0.72000000000000008</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1521,14 +1521,14 @@
       </c>
       <c r="G12" s="22">
         <f t="shared" si="1"/>
-        <v>4.3122035360068998E-2</v>
+        <v>4.1356492969396197E-2</v>
       </c>
       <c r="H12">
         <v>0.04</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>0.76000000000000012</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" si="1"/>
-        <v>4.3122035360068998E-2</v>
+        <v>4.1356492969396197E-2</v>
       </c>
       <c r="H13">
         <v>0.03</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>0.8600000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1565,22 +1565,22 @@
         <v>0.06</v>
       </c>
       <c r="D14" s="4">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>5700</v>
+        <v>6300</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="1"/>
-        <v>2.4579560155239329E-2</v>
+        <v>2.6054590570719603E-2</v>
       </c>
       <c r="H14">
         <v>0.03</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0.92000000000000015</v>
+        <v>0.91999999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1599,14 +1599,14 @@
       </c>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
-        <v>2.0698576972833119E-2</v>
+        <v>1.9851116625310174E-2</v>
       </c>
       <c r="H15">
         <v>0.02</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>0.96000000000000019</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1625,14 +1625,14 @@
       </c>
       <c r="G16" s="22">
         <f t="shared" si="1"/>
-        <v>1.6817593790426907E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="H16">
         <v>0.02</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>0.99000000000000021</v>
+        <v>0.99</v>
       </c>
       <c r="J16" t="s">
         <v>45</v>
@@ -1654,28 +1654,28 @@
       </c>
       <c r="G17" s="22">
         <f t="shared" si="1"/>
-        <v>7.7619663648124193E-3</v>
+        <v>7.4441687344913151E-3</v>
       </c>
       <c r="H17">
         <v>0.01</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18">
         <f>SUM(C3:C17)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <f>SUM(E3:E17)</f>
-        <v>231900</v>
+        <v>241800</v>
       </c>
       <c r="G18" s="22">
         <f>SUM(G3:G17)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H18">
         <f>SUM(H3:H17)</f>
@@ -1737,25 +1737,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="D25" s="4">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="E25">
         <f>D25*C25</f>
-        <v>8000</v>
+        <v>1250</v>
       </c>
       <c r="G25" s="22">
         <f>E25/$E$40</f>
-        <v>0.13238457719675659</v>
+        <v>0.13196093956188967</v>
       </c>
       <c r="H25">
         <v>0.13</v>
       </c>
       <c r="I25">
         <f>C25</f>
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1763,25 +1763,25 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D26" s="4">
-        <v>75000</v>
+        <v>7500</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26:E39" si="3">D26*C26</f>
-        <v>7500</v>
+        <v>1125</v>
       </c>
       <c r="G26" s="22">
         <f t="shared" ref="G26:G39" si="4">E26/$E$40</f>
-        <v>0.12411054112195929</v>
+        <v>0.11876484560570071</v>
       </c>
       <c r="H26">
         <v>0.13</v>
       </c>
       <c r="I26">
         <f>C26+I25</f>
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1789,25 +1789,25 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="D27" s="4">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>7500</v>
+        <v>1150</v>
       </c>
       <c r="G27" s="22">
         <f t="shared" si="4"/>
-        <v>0.12411054112195929</v>
+        <v>0.1214040643969385</v>
       </c>
       <c r="H27">
         <v>0.12</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27:I39" si="5">C27+I26</f>
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1815,25 +1815,25 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D28" s="4">
-        <v>49000</v>
+        <v>6900</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>6370</v>
+        <v>966.00000000000011</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" si="4"/>
-        <v>0.10541121959291742</v>
+        <v>0.10197941409342835</v>
       </c>
       <c r="H28">
         <v>0.1</v>
       </c>
       <c r="I28">
         <f t="shared" si="5"/>
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1844,22 +1844,22 @@
         <v>0.156</v>
       </c>
       <c r="D29" s="4">
-        <v>35000</v>
+        <v>5500</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>5460</v>
+        <v>858</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="4"/>
-        <v>9.0352473936786359E-2</v>
+        <v>9.0577988915281071E-2</v>
       </c>
       <c r="H29">
         <v>0.1</v>
       </c>
       <c r="I29">
         <f t="shared" si="5"/>
-        <v>0.79600000000000004</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1867,25 +1867,25 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>0.05</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D30" s="4">
-        <v>105000</v>
+        <v>60500</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>5250</v>
+        <v>907.5</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" si="4"/>
-        <v>8.6877378785371509E-2</v>
+        <v>9.5803642121931903E-2</v>
       </c>
       <c r="H30">
         <v>0.09</v>
       </c>
       <c r="I30">
         <f t="shared" si="5"/>
-        <v>0.84600000000000009</v>
+        <v>0.94100000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1893,25 +1893,25 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>0.04</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>150000</v>
+        <v>45000</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>765</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" si="4"/>
-        <v>9.9288432897567433E-2</v>
+        <v>8.076009501187649E-2</v>
       </c>
       <c r="H31">
         <v>0.09</v>
       </c>
       <c r="I31">
         <f t="shared" si="5"/>
-        <v>0.88600000000000012</v>
+        <v>0.95800000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1919,25 +1919,25 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>4.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D32" s="4">
-        <v>400000</v>
+        <v>40000</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="G32" s="22">
         <f t="shared" si="4"/>
-        <v>2.6476915439351316E-2</v>
+        <v>4.2227500659804698E-2</v>
       </c>
       <c r="H32">
         <v>0.05</v>
       </c>
       <c r="I32">
         <f t="shared" si="5"/>
-        <v>0.89000000000000012</v>
+        <v>0.96800000000000008</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
@@ -1945,25 +1945,25 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D33" s="4">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G33" s="22">
         <f t="shared" si="4"/>
-        <v>3.3096144299189147E-2</v>
+        <v>4.2227500659804698E-2</v>
       </c>
       <c r="H33">
         <v>0.04</v>
       </c>
       <c r="I33">
         <f t="shared" si="5"/>
-        <v>0.91000000000000014</v>
+        <v>0.97300000000000009</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -1971,25 +1971,25 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0.02</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D34" s="4">
-        <v>150000</v>
+        <v>65000</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>390</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" si="4"/>
-        <v>4.9644216448783716E-2</v>
+        <v>4.1171813143309581E-2</v>
       </c>
       <c r="H34">
         <v>0.04</v>
       </c>
       <c r="I34">
         <f t="shared" si="5"/>
-        <v>0.93000000000000016</v>
+        <v>0.97900000000000009</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
@@ -1997,25 +1997,25 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D35" s="4">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="G35" s="22">
         <f t="shared" si="4"/>
-        <v>1.6548072149594573E-2</v>
+        <v>3.800475059382423E-2</v>
       </c>
       <c r="H35">
         <v>0.03</v>
       </c>
       <c r="I35">
         <f t="shared" si="5"/>
-        <v>0.94000000000000017</v>
+        <v>0.9830000000000001</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
@@ -2023,25 +2023,25 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>0.03</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D36" s="4">
-        <v>105000</v>
+        <v>60500</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>3150</v>
+        <v>242</v>
       </c>
       <c r="G36" s="22">
         <f t="shared" si="4"/>
-        <v>5.2126427271222901E-2</v>
+        <v>2.5547637899181842E-2</v>
       </c>
       <c r="H36">
         <v>0.03</v>
       </c>
       <c r="I36">
         <f t="shared" si="5"/>
-        <v>0.9700000000000002</v>
+        <v>0.9870000000000001</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
@@ -2049,25 +2049,25 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>0.01</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D37" s="4">
-        <v>120000</v>
+        <v>42000</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>252</v>
       </c>
       <c r="G37" s="22">
         <f t="shared" si="4"/>
-        <v>1.9857686579513485E-2</v>
+        <v>2.6603325415676959E-2</v>
       </c>
       <c r="H37">
         <v>0.02</v>
       </c>
       <c r="I37">
         <f t="shared" si="5"/>
-        <v>0.9800000000000002</v>
+        <v>0.9930000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
@@ -2075,25 +2075,25 @@
         <v>13</v>
       </c>
       <c r="C38">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D38" s="4">
-        <v>130000</v>
+        <v>53000</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>1300</v>
+        <v>265</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="4"/>
-        <v>2.1512493794472943E-2</v>
+        <v>2.7975719187120614E-2</v>
       </c>
       <c r="H38">
         <v>0.02</v>
       </c>
       <c r="I38">
         <f t="shared" si="5"/>
-        <v>0.99000000000000021</v>
+        <v>0.99800000000000011</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -2101,39 +2101,39 @@
         <v>14</v>
       </c>
       <c r="C39">
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="D39" s="4">
-        <v>110000</v>
+        <v>71000</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>142</v>
       </c>
       <c r="G39" s="22">
         <f t="shared" si="4"/>
-        <v>1.8202879364554031E-2</v>
+        <v>1.4990762734230667E-2</v>
       </c>
       <c r="H39">
         <v>0.01</v>
       </c>
       <c r="I39">
         <f t="shared" si="5"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C40">
         <f>SUM(C25:C39)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <f>SUM(E25:E39)</f>
-        <v>60430</v>
+        <v>9472.5</v>
       </c>
       <c r="G40" s="22">
         <f>SUM(G25:G39)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <f>SUM(H25:H39)</f>
@@ -2152,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G3" s="22">
         <f>E3/$E$18</f>
-        <v>0.10789602746444335</v>
+        <v>0.10582010582010581</v>
       </c>
       <c r="H3">
         <v>0.12</v>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G18" si="1">E4/$E$18</f>
-        <v>9.5635115252574787E-2</v>
+        <v>9.3795093795093792E-2</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="G5" s="22">
         <f t="shared" si="1"/>
-        <v>0.10593428151054439</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="H5">
         <v>0.1</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>9.3182932810201083E-2</v>
+        <v>9.1390091390091396E-2</v>
       </c>
       <c r="H6">
         <v>0.09</v>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="G7" s="22">
         <f t="shared" si="1"/>
-        <v>9.8087297694948505E-2</v>
+        <v>9.6200096200096202E-2</v>
       </c>
       <c r="H7">
         <v>0.09</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="G8" s="22">
         <f t="shared" si="1"/>
-        <v>8.5826385483079942E-2</v>
+        <v>8.4175084175084181E-2</v>
       </c>
       <c r="H8">
         <v>0.08</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="G9" s="22">
         <f t="shared" si="1"/>
-        <v>7.3565473271211379E-2</v>
+        <v>7.2150072150072145E-2</v>
       </c>
       <c r="H9">
         <v>0.08</v>
@@ -2379,15 +2379,15 @@
         <v>0.15</v>
       </c>
       <c r="D10" s="4">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
-        <v>6.6208925944090238E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="H10">
         <v>0.08</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
-        <v>3.9234919077979401E-2</v>
+        <v>3.8480038480038482E-2</v>
       </c>
       <c r="H11">
         <v>0.06</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G12" s="22">
         <f t="shared" si="1"/>
-        <v>4.9043648847474253E-2</v>
+        <v>4.8100048100048101E-2</v>
       </c>
       <c r="H12">
         <v>0.06</v>
@@ -2457,15 +2457,15 @@
         <v>0.1</v>
       </c>
       <c r="D13" s="4">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="22">
         <f t="shared" si="1"/>
-        <v>4.413928396272683E-2</v>
+        <v>4.8100048100048101E-2</v>
       </c>
       <c r="H13">
         <v>0.05</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="G14" s="22">
         <f t="shared" si="1"/>
-        <v>3.089749877390878E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="H14">
         <v>0.05</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
-        <v>2.3540951446787643E-2</v>
+        <v>2.3088023088023088E-2</v>
       </c>
       <c r="H15">
         <v>0.02</v>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G16" s="22">
         <f t="shared" si="1"/>
-        <v>7.7979401667484058E-2</v>
+        <v>7.647907647907648E-2</v>
       </c>
       <c r="H16">
         <v>0.01</v>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="G17" s="22">
         <f t="shared" si="1"/>
-        <v>8.8278567925453647E-3</v>
+        <v>8.658008658008658E-3</v>
       </c>
       <c r="H17">
         <v>0.01</v>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="E18">
         <f>SUM(E3:E17)</f>
-        <v>203900</v>
+        <v>207900</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" si="1"/>
@@ -2642,25 +2642,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.19</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="D24" s="4">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="E24">
         <f>D24*C24</f>
-        <v>3800</v>
+        <v>1036</v>
       </c>
       <c r="G24" s="22">
         <f>E24/$E$39</f>
-        <v>0.11072261072261072</v>
+        <v>0.1234435507893953</v>
       </c>
       <c r="H24">
         <v>0.12</v>
       </c>
       <c r="I24">
         <f>C24</f>
-        <v>0.19</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2668,25 +2668,25 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D25" s="4">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:E38" si="3">D25*C25</f>
-        <v>3750</v>
+        <v>900</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" ref="G25:G38" si="4">E25/$E$39</f>
-        <v>0.10926573426573427</v>
+        <v>0.10723860589812333</v>
       </c>
       <c r="H25">
         <v>0.1</v>
       </c>
       <c r="I25">
         <f>C25+I24</f>
-        <v>0.44</v>
+        <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2694,25 +2694,25 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D26" s="4">
-        <v>36000</v>
+        <v>4600</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>3600</v>
+        <v>920</v>
       </c>
       <c r="G26" s="22">
         <f t="shared" si="4"/>
-        <v>0.1048951048951049</v>
+        <v>0.10962168602919273</v>
       </c>
       <c r="H26">
         <v>0.1</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:I38" si="5">C26+I25</f>
-        <v>0.54</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2720,25 +2720,25 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.155</v>
+        <v>0.12</v>
       </c>
       <c r="D27" s="4">
-        <v>19000</v>
+        <v>6900</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>2945</v>
+        <v>828</v>
       </c>
       <c r="G27" s="22">
         <f t="shared" si="4"/>
-        <v>8.5810023310023312E-2</v>
+        <v>9.8659517426273463E-2</v>
       </c>
       <c r="H27">
         <v>0.09</v>
       </c>
       <c r="I27">
         <f t="shared" si="5"/>
-        <v>0.69500000000000006</v>
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2749,22 +2749,22 @@
         <v>0.12</v>
       </c>
       <c r="D28" s="4">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>660</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" si="4"/>
-        <v>8.7412587412587409E-2</v>
+        <v>7.8641644325290444E-2</v>
       </c>
       <c r="H28">
         <v>0.09</v>
       </c>
       <c r="I28">
         <f t="shared" si="5"/>
-        <v>0.81500000000000006</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2772,25 +2772,25 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="4">
-        <v>35000</v>
+        <v>5500</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>2800</v>
+        <v>770.00000000000011</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="4"/>
-        <v>8.1585081585081584E-2</v>
+        <v>9.1748585046172185E-2</v>
       </c>
       <c r="H29">
         <v>0.08</v>
       </c>
       <c r="I29">
         <f t="shared" si="5"/>
-        <v>0.89500000000000002</v>
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2798,25 +2798,25 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D30" s="4">
-        <v>150000</v>
+        <v>45000</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>675</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" si="4"/>
-        <v>8.7412587412587409E-2</v>
+        <v>8.0428954423592491E-2</v>
       </c>
       <c r="H30">
         <v>0.08</v>
       </c>
       <c r="I30">
         <f t="shared" si="5"/>
-        <v>0.91500000000000004</v>
+        <v>0.94300000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2824,25 +2824,25 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>0.03</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>90000</v>
+        <v>39000</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>2700</v>
+        <v>663</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" si="4"/>
-        <v>7.8671328671328672E-2</v>
+        <v>7.8999106344950845E-2</v>
       </c>
       <c r="H31">
         <v>0.08</v>
       </c>
       <c r="I31">
         <f t="shared" si="5"/>
-        <v>0.94500000000000006</v>
+        <v>0.96000000000000008</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2850,25 +2850,25 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>0.01</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D32" s="4">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>360</v>
       </c>
       <c r="G32" s="22">
         <f t="shared" si="4"/>
-        <v>5.8275058275058272E-2</v>
+        <v>4.2895442359249331E-2</v>
       </c>
       <c r="H32">
         <v>0.06</v>
       </c>
       <c r="I32">
         <f t="shared" si="5"/>
-        <v>0.95500000000000007</v>
+        <v>0.96600000000000008</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
@@ -2876,25 +2876,25 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D33" s="4">
-        <v>450000</v>
+        <v>45000</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>2250</v>
+        <v>450</v>
       </c>
       <c r="G33" s="22">
         <f t="shared" si="4"/>
-        <v>6.555944055944056E-2</v>
+        <v>5.3619302949061663E-2</v>
       </c>
       <c r="H33">
         <v>0.06</v>
       </c>
       <c r="I33">
         <f t="shared" si="5"/>
-        <v>0.96000000000000008</v>
+        <v>0.97600000000000009</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -2902,25 +2902,25 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>0.02</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D34" s="4">
-        <v>90000</v>
+        <v>69000</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>414</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" si="4"/>
-        <v>5.2447552447552448E-2</v>
+        <v>4.9329758713136732E-2</v>
       </c>
       <c r="H34">
         <v>0.05</v>
       </c>
       <c r="I34">
         <f t="shared" si="5"/>
-        <v>0.98000000000000009</v>
+        <v>0.9820000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
@@ -2928,18 +2928,18 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>1.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D35" s="4">
-        <v>105000</v>
+        <v>30500</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>1365</v>
+        <v>335.5</v>
       </c>
       <c r="G35" s="22">
         <f t="shared" si="4"/>
-        <v>3.9772727272727272E-2</v>
+        <v>3.9976169198689307E-2</v>
       </c>
       <c r="H35">
         <v>0.05</v>
@@ -2957,15 +2957,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D36" s="4">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>260</v>
       </c>
       <c r="G36" s="22">
         <f t="shared" si="4"/>
-        <v>1.7482517482517484E-2</v>
+        <v>3.0980041703902294E-2</v>
       </c>
       <c r="H36">
         <v>0.02</v>
@@ -2983,15 +2983,15 @@
         <v>1E-3</v>
       </c>
       <c r="D37" s="4">
-        <v>530000</v>
+        <v>53000</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>530</v>
+        <v>53</v>
       </c>
       <c r="G37" s="22">
         <f t="shared" si="4"/>
-        <v>1.5442890442890442E-2</v>
+        <v>6.315162347333929E-3</v>
       </c>
       <c r="H37">
         <v>0.01</v>
@@ -3009,15 +3009,15 @@
         <v>1E-3</v>
       </c>
       <c r="D38" s="4">
-        <v>180000</v>
+        <v>68000</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="4"/>
-        <v>5.244755244755245E-3</v>
+        <v>8.1024724456359842E-3</v>
       </c>
       <c r="H38">
         <v>0.01</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="E39">
         <f>SUM(E24:E38)</f>
-        <v>34320</v>
+        <v>8392.5</v>
       </c>
       <c r="G39" s="22">
         <f>SUM(G24:G38)</f>
@@ -4978,7 +4978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
@@ -7584,7 +7584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -9126,7 +9126,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9182,7 +9182,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="22">
         <f t="shared" ref="G3:G10" si="0">E3/$E$11</f>
-        <v>0.39059386209645275</v>
+        <v>0.38236441669918064</v>
       </c>
       <c r="H3">
         <v>0.39</v>
@@ -9209,7 +9209,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="22">
         <f t="shared" si="0"/>
-        <v>0.15942606616181745</v>
+        <v>0.15606710885680844</v>
       </c>
       <c r="H4">
         <v>0.17</v>
@@ -9224,26 +9224,26 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D5" s="4">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="1"/>
-        <v>14250</v>
+        <v>13650</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="22">
         <f t="shared" si="0"/>
-        <v>0.11359107214029494</v>
+        <v>0.10651580179477176</v>
       </c>
       <c r="H5">
         <v>0.11</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" ref="I5:I8" si="2">C5+I4</f>
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -9263,14 +9263,14 @@
       <c r="F6" s="8"/>
       <c r="G6" s="22">
         <f t="shared" si="0"/>
-        <v>9.9641291351135905E-2</v>
+        <v>9.7541943035505271E-2</v>
       </c>
       <c r="H6">
         <v>0.1</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="2"/>
-        <v>0.745</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -9290,14 +9290,14 @@
       <c r="F7" s="8"/>
       <c r="G7" s="22">
         <f t="shared" si="0"/>
-        <v>0.10163411717815864</v>
+        <v>9.9492781896215382E-2</v>
       </c>
       <c r="H7">
         <v>0.09</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="2"/>
-        <v>0.83</v>
+        <v>0.80999999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -9317,14 +9317,14 @@
       <c r="F8" s="8"/>
       <c r="G8" s="22">
         <f t="shared" si="0"/>
-        <v>8.7684336388999598E-2</v>
+        <v>8.5836909871244635E-2</v>
       </c>
       <c r="H8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="2"/>
-        <v>0.94</v>
+        <v>0.91999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -9332,19 +9332,19 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>95000</v>
+        <v>115000</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>4750</v>
+        <v>8050.0000000000009</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="22">
         <f t="shared" si="0"/>
-        <v>3.7863690713431646E-2</v>
+        <v>6.2817011314865404E-2</v>
       </c>
       <c r="H9">
         <v>0.06</v>
@@ -9374,7 +9374,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="22">
         <f t="shared" si="0"/>
-        <v>9.5655639697090466E-3</v>
+        <v>9.364026531408505E-3</v>
       </c>
       <c r="H10">
         <v>0.01</v>
@@ -9391,11 +9391,11 @@
       </c>
       <c r="E11" s="8">
         <f>SUM(E3:E10)</f>
-        <v>125450</v>
+        <v>128150</v>
       </c>
       <c r="G11" s="22">
         <f>SUM(G3:G10)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H11">
         <f>SUM(H3:H10)</f>
@@ -9474,26 +9474,26 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="D17" s="4">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="E17" s="8">
         <f>C17*D17</f>
-        <v>7400</v>
+        <v>2345</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="22">
         <f>E17/$E$25</f>
-        <v>0.39361702127659576</v>
+        <v>0.38502585994581728</v>
       </c>
       <c r="H17">
         <v>0.39</v>
       </c>
       <c r="I17" s="35">
         <f>C17</f>
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -9501,26 +9501,26 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.13</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D18" s="4">
-        <v>25000</v>
+        <v>6500</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" ref="E18:E24" si="3">C18*D18</f>
-        <v>3250</v>
+        <v>1066</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18:G24" si="4">E18/$E$25</f>
-        <v>0.17287234042553193</v>
+        <v>0.17502668089647813</v>
       </c>
       <c r="H18">
         <v>0.17</v>
       </c>
       <c r="I18" s="35">
         <f>C18+I17</f>
-        <v>0.87</v>
+        <v>0.83400000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -9528,26 +9528,26 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="D19" s="4">
-        <v>35000</v>
+        <v>5500</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="3"/>
-        <v>2100</v>
+        <v>715</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
-        <v>0.11170212765957446</v>
+        <v>0.11739594450373532</v>
       </c>
       <c r="H19">
         <v>0.11</v>
       </c>
       <c r="I19" s="35">
         <f t="shared" ref="I19:I24" si="5">C19+I18</f>
-        <v>0.92999999999999994</v>
+        <v>0.96400000000000008</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -9555,26 +9555,26 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="3"/>
-        <v>1799.9999999999998</v>
+        <v>600</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="22">
         <f t="shared" si="4"/>
-        <v>9.5744680851063815E-2</v>
+        <v>9.8514079303833837E-2</v>
       </c>
       <c r="H20">
         <v>0.1</v>
       </c>
       <c r="I20" s="35">
         <f t="shared" si="5"/>
-        <v>0.94799999999999995</v>
+        <v>0.97600000000000009</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -9582,26 +9582,26 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>0.02</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D21" s="4">
-        <v>90000</v>
+        <v>69000</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>552</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
-        <v>9.5744680851063829E-2</v>
+        <v>9.0632952959527127E-2</v>
       </c>
       <c r="H21">
         <v>0.09</v>
       </c>
       <c r="I21" s="35">
         <f t="shared" si="5"/>
-        <v>0.96799999999999997</v>
+        <v>0.9840000000000001</v>
       </c>
       <c r="K21" t="s">
         <v>45</v>
@@ -9612,26 +9612,26 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="22">
         <f t="shared" si="4"/>
-        <v>5.3191489361702128E-2</v>
+        <v>6.5676052869222554E-2</v>
       </c>
       <c r="H22">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I22" s="35">
         <f t="shared" si="5"/>
-        <v>0.97799999999999998</v>
+        <v>0.9890000000000001</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -9639,26 +9639,26 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D23" s="4">
-        <v>65000</v>
+        <v>36500</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="3"/>
-        <v>1300</v>
+        <v>365</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="22">
         <f t="shared" si="4"/>
-        <v>6.9148936170212769E-2</v>
+        <v>5.9929398243165587E-2</v>
       </c>
       <c r="H23">
         <v>0.06</v>
       </c>
       <c r="I23" s="35">
         <f t="shared" si="5"/>
-        <v>0.998</v>
+        <v>0.99900000000000011</v>
       </c>
       <c r="J23" s="22" t="s">
         <v>45</v>
@@ -9669,19 +9669,19 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>75000</v>
+        <v>47500</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>47.5</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="22">
         <f t="shared" si="4"/>
-        <v>7.9787234042553185E-3</v>
+        <v>7.7990312782201792E-3</v>
       </c>
       <c r="H24">
         <v>0.01</v>
@@ -9698,11 +9698,11 @@
       </c>
       <c r="E25" s="8">
         <f>SUM(E17:E24)</f>
-        <v>18800</v>
+        <v>6090.5</v>
       </c>
       <c r="G25" s="22">
         <f>SUM(G17:G24)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H25">
         <f>SUM(H17:H24)</f>
@@ -9727,7 +9727,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9782,7 +9782,7 @@
       </c>
       <c r="G3" s="22">
         <f>E3/$E$11</f>
-        <v>0.22788203753351208</v>
+        <v>0.22576361221779548</v>
       </c>
       <c r="H3">
         <v>0.23</v>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G10" si="1">E4/$E$11</f>
-        <v>0.16756032171581769</v>
+        <v>0.16600265604249667</v>
       </c>
       <c r="H4">
         <v>0.18</v>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="G5" s="22">
         <f t="shared" si="1"/>
-        <v>0.15080428954423591</v>
+        <v>0.14940239043824702</v>
       </c>
       <c r="H5">
         <v>0.15</v>
@@ -9849,25 +9849,25 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="D6" s="4">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>0.13404825737265416</v>
+        <v>0.14608233731739709</v>
       </c>
       <c r="H6">
         <v>0.13</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="2"/>
-        <v>0.58000000000000007</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -9875,25 +9875,25 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="D7" s="4">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>15200</v>
+        <v>18000</v>
       </c>
       <c r="G7" s="22">
         <f t="shared" si="1"/>
-        <v>0.10187667560321716</v>
+        <v>0.11952191235059761</v>
       </c>
       <c r="H7">
         <v>0.12</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="2"/>
-        <v>0.77</v>
+        <v>0.83000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -9912,14 +9912,14 @@
       </c>
       <c r="G8" s="22">
         <f t="shared" si="1"/>
-        <v>9.048257372654156E-2</v>
+        <v>8.9641434262948211E-2</v>
       </c>
       <c r="H8">
         <v>0.09</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -9938,14 +9938,14 @@
       </c>
       <c r="G9" s="22">
         <f t="shared" si="1"/>
-        <v>6.7024128686327081E-2</v>
+        <v>6.6401062416998669E-2</v>
       </c>
       <c r="H9">
         <v>0.06</v>
       </c>
       <c r="I9" s="22">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.96000000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -9953,18 +9953,18 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D10" s="4">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>5600</v>
       </c>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
-        <v>6.0321715817694369E-2</v>
+        <v>3.7184594953519258E-2</v>
       </c>
       <c r="H10">
         <v>0.04</v>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="E11">
         <f>SUM(E3:E10)</f>
-        <v>149200</v>
+        <v>150600</v>
       </c>
       <c r="G11" s="22">
         <f>SUM(G3:G10)</f>
@@ -10061,15 +10061,15 @@
         <v>0.41</v>
       </c>
       <c r="D17" s="4">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E17">
         <f>C17*D17</f>
-        <v>12300</v>
+        <v>1230</v>
       </c>
       <c r="G17" s="22">
         <f>E17/$E$25</f>
-        <v>0.21866666666666668</v>
+        <v>9.7968936678614102E-2</v>
       </c>
       <c r="H17">
         <v>0.23</v>
@@ -10087,15 +10087,15 @@
         <v>0.2</v>
       </c>
       <c r="D18" s="4">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:E24" si="3">C18*D18</f>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" ref="G18:G24" si="4">E18/$E$25</f>
-        <v>0.17777777777777778</v>
+        <v>7.9649542015133412E-2</v>
       </c>
       <c r="H18">
         <v>0.18</v>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
-        <v>0.13688888888888889</v>
+        <v>0.61330147351652731</v>
       </c>
       <c r="H19">
         <v>0.15</v>
@@ -10139,15 +10139,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>7500</v>
+        <v>750</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" si="4"/>
-        <v>0.13333333333333333</v>
+        <v>5.9737156511350059E-2</v>
       </c>
       <c r="H20">
         <v>0.13</v>
@@ -10165,15 +10165,15 @@
         <v>0.09</v>
       </c>
       <c r="D21" s="4">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>7200</v>
+        <v>720</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
-        <v>0.128</v>
+        <v>5.7347670250896057E-2</v>
       </c>
       <c r="H21">
         <v>0.12</v>
@@ -10191,15 +10191,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D22" s="4">
-        <v>450000</v>
+        <v>45000</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>6750</v>
+        <v>675</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="4"/>
-        <v>0.12</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="H22">
         <v>0.09</v>
@@ -10217,15 +10217,15 @@
         <v>0.03</v>
       </c>
       <c r="D23" s="4">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="4"/>
-        <v>5.3333333333333337E-2</v>
+        <v>2.3894862604540025E-2</v>
       </c>
       <c r="H23">
         <v>0.06</v>
@@ -10243,15 +10243,15 @@
         <v>0.02</v>
       </c>
       <c r="D24" s="4">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>180</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="4"/>
-        <v>3.2000000000000001E-2</v>
+        <v>1.4336917562724014E-2</v>
       </c>
       <c r="H24">
         <v>0.04</v>
@@ -10271,11 +10271,11 @@
       </c>
       <c r="E25">
         <f>SUM(E17:E24)</f>
-        <v>56250</v>
+        <v>12555</v>
       </c>
       <c r="G25" s="22">
         <f>SUM(G17:G24)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H25">
         <f>SUM(H17:H24)</f>
@@ -10300,7 +10300,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="G3" s="22">
         <f>E3/$E$11</f>
-        <v>0.4924924924924925</v>
+        <v>0.50508161379735139</v>
       </c>
       <c r="H3">
         <v>0.5</v>
@@ -10369,25 +10369,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="D4" s="4">
         <v>100000</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E10" si="0">C4*D4</f>
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G10" si="1">E4/$E$11</f>
-        <v>0.15015015015015015</v>
+        <v>0.1416692331382815</v>
       </c>
       <c r="H4">
         <v>0.14000000000000001</v>
       </c>
       <c r="I4" s="22">
         <f>C4+I3</f>
-        <v>0.65999999999999992</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -10395,25 +10395,25 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D5" s="4">
         <v>150000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>19500</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" si="1"/>
-        <v>0.13513513513513514</v>
+        <v>0.12011087157376039</v>
       </c>
       <c r="H5">
         <v>0.12</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" ref="I5:I10" si="2">C5+I4</f>
-        <v>0.80999999999999994</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -10421,25 +10421,25 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>7.0000000000000001E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>14000.000000000002</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>8.408408408408409E-2</v>
+        <v>8.6233446258084392E-2</v>
       </c>
       <c r="H6">
         <v>0.09</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="2"/>
-        <v>0.81699999999999995</v>
+        <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -10447,25 +10447,25 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D7" s="4">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>9600</v>
       </c>
       <c r="G7" s="22">
         <f t="shared" si="1"/>
-        <v>4.8048048048048048E-2</v>
+        <v>5.913150600554358E-2</v>
       </c>
       <c r="H7">
         <v>0.05</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="2"/>
-        <v>0.91699999999999993</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -10473,25 +10473,25 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.02</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D8" s="4">
         <v>450000</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>7650.0000000000009</v>
       </c>
       <c r="G8" s="22">
         <f t="shared" si="1"/>
-        <v>5.4054054054054057E-2</v>
+        <v>4.7120418848167547E-2</v>
       </c>
       <c r="H8">
         <v>0.04</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="2"/>
-        <v>0.93699999999999994</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -10510,14 +10510,14 @@
       </c>
       <c r="G9" s="22">
         <f t="shared" si="1"/>
-        <v>1.9819819819819819E-2</v>
+        <v>2.0326455189405606E-2</v>
       </c>
       <c r="H9">
         <v>0.03</v>
       </c>
       <c r="I9" s="22">
         <f t="shared" si="2"/>
-        <v>0.97</v>
+        <v>0.97000000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -10528,15 +10528,15 @@
         <v>0.03</v>
       </c>
       <c r="D10" s="4">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
-        <v>1.6216216216216217E-2</v>
+        <v>2.0326455189405606E-2</v>
       </c>
       <c r="H10">
         <v>0.03</v>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="E11">
         <f>SUM(E3:E10)</f>
-        <v>166500</v>
+        <v>162350</v>
       </c>
       <c r="G11" s="22">
         <f>SUM(G3:G10)</f>
@@ -10624,25 +10624,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.68300000000000005</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D18" s="4">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="E18">
         <f>C18*D18</f>
-        <v>20490</v>
+        <v>3888</v>
       </c>
       <c r="G18" s="22">
         <f>E18/$E$26</f>
-        <v>0.49866147481138962</v>
+        <v>0.47775866306217746</v>
       </c>
       <c r="H18">
         <v>0.5</v>
       </c>
       <c r="I18" s="35">
         <f>C18</f>
-        <v>0.68300000000000005</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
@@ -10650,25 +10650,25 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="D19" s="4">
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E25" si="3">C19*D19</f>
-        <v>5500</v>
+        <v>1100</v>
       </c>
       <c r="G19" s="22">
         <f t="shared" ref="G19:G25" si="4">E19/$E$26</f>
-        <v>0.13385251886103675</v>
+        <v>0.13516834603096584</v>
       </c>
       <c r="H19">
         <v>0.14000000000000001</v>
       </c>
       <c r="I19" s="35">
         <f>C19+I18</f>
-        <v>0.79300000000000004</v>
+        <v>0.68599999999999994</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -10676,25 +10676,25 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>0.14000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="D20" s="4">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>4900.0000000000009</v>
+        <v>945.00000000000011</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" si="4"/>
-        <v>0.11925042589437822</v>
+        <v>0.11612189727205703</v>
       </c>
       <c r="H20">
         <v>0.12</v>
       </c>
       <c r="I20" s="35">
         <f t="shared" ref="I20:I25" si="5">C20+I19</f>
-        <v>0.93300000000000005</v>
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -10702,25 +10702,25 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>7.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D21" s="4">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
-        <v>8.5178875638841564E-2</v>
+        <v>0.12288031457360531</v>
       </c>
       <c r="H21">
         <v>0.09</v>
       </c>
       <c r="I21" s="35">
         <f t="shared" si="5"/>
-        <v>0.94000000000000006</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -10728,25 +10728,25 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D22" s="4">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="4"/>
-        <v>5.8408371866634216E-2</v>
+        <v>4.9152125829442124E-2</v>
       </c>
       <c r="H22">
         <v>0.05</v>
       </c>
       <c r="I22" s="35">
         <f t="shared" si="5"/>
-        <v>0.97000000000000008</v>
+        <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
@@ -10757,22 +10757,22 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>450000</v>
+        <v>45000</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>180</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="4"/>
-        <v>4.3806278899975661E-2</v>
+        <v>2.2118456623248954E-2</v>
       </c>
       <c r="H23">
         <v>0.04</v>
       </c>
       <c r="I23" s="35">
         <f t="shared" si="5"/>
-        <v>0.97400000000000009</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -10780,25 +10780,25 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>1.6E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>350</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="4"/>
-        <v>3.8938914577756147E-2</v>
+        <v>4.3008110100761859E-2</v>
       </c>
       <c r="H24">
         <v>0.03</v>
       </c>
       <c r="I24" s="35">
         <f t="shared" si="5"/>
-        <v>0.9900000000000001</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -10806,18 +10806,18 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>90000</v>
+        <v>55000</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>275</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="4"/>
-        <v>2.190313944998783E-2</v>
+        <v>3.3792086507741459E-2</v>
       </c>
       <c r="H25">
         <v>0.03</v>
@@ -10837,11 +10837,11 @@
       </c>
       <c r="E26">
         <f>SUM(E18:E25)</f>
-        <v>41090</v>
+        <v>8138</v>
       </c>
       <c r="G26" s="22">
         <f>SUM(G18:G25)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <f>SUM(H18:H25)</f>
@@ -10871,8 +10871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10915,25 +10915,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="D3" s="4">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="E3">
         <f>D3*C3</f>
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="G3" s="22">
         <f>E3/$E$14</f>
-        <v>0.17543859649122806</v>
+        <v>0.16302016302016303</v>
       </c>
       <c r="H3">
         <v>0.17</v>
       </c>
       <c r="I3">
         <f>C3</f>
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -10952,14 +10952,14 @@
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G13" si="1">E4/$E$14</f>
-        <v>0.16447368421052633</v>
+        <v>0.16087516087516088</v>
       </c>
       <c r="H4">
         <v>0.16</v>
       </c>
       <c r="I4">
         <f>C4+I3</f>
-        <v>0.22999999999999998</v>
+        <v>0.33999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -10967,25 +10967,25 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="D5" s="4">
-        <v>700000</v>
+        <v>300000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" si="1"/>
-        <v>0.15350877192982457</v>
+        <v>0.14157014157014158</v>
       </c>
       <c r="H5">
         <v>0.14000000000000001</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I13" si="2">C5+I4</f>
-        <v>0.27999999999999997</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -10993,25 +10993,25 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="D6" s="4">
-        <v>80000</v>
+        <v>180000</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>30600.000000000004</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>0.12280701754385964</v>
+        <v>0.13127413127413129</v>
       </c>
       <c r="H6">
         <v>0.14000000000000001</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.62999999999999989</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -11019,18 +11019,18 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="D7" s="4">
         <v>450000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>27000</v>
       </c>
       <c r="G7" s="22">
         <f t="shared" si="1"/>
-        <v>9.8684210526315791E-2</v>
+        <v>0.11583011583011583</v>
       </c>
       <c r="H7">
         <v>0.11</v>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="G8" s="22">
         <f t="shared" si="1"/>
-        <v>8.5526315789473686E-2</v>
+        <v>8.3655083655083659E-2</v>
       </c>
       <c r="H8">
         <v>0.09</v>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="G9" s="22">
         <f t="shared" si="1"/>
-        <v>6.5789473684210523E-2</v>
+        <v>6.4350064350064351E-2</v>
       </c>
       <c r="H9">
         <v>0.06</v>
@@ -11100,15 +11100,15 @@
         <v>0.1</v>
       </c>
       <c r="D10" s="4">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
-        <v>3.9473684210526314E-2</v>
+        <v>4.7190047190047192E-2</v>
       </c>
       <c r="H10">
         <v>0.05</v>
@@ -11134,7 +11134,7 @@
       </c>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
-        <v>3.9473684210526314E-2</v>
+        <v>3.8610038610038609E-2</v>
       </c>
       <c r="H11">
         <v>0.04</v>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="G12" s="22">
         <f t="shared" si="1"/>
-        <v>3.2894736842105261E-2</v>
+        <v>3.2175032175032175E-2</v>
       </c>
       <c r="H12">
         <v>0.02</v>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" si="1"/>
-        <v>2.1929824561403508E-2</v>
+        <v>2.145002145002145E-2</v>
       </c>
       <c r="H13">
         <v>0.02</v>
@@ -11206,7 +11206,7 @@
       </c>
       <c r="E14">
         <f>SUM(E3:E13)</f>
-        <v>228000</v>
+        <v>233100</v>
       </c>
       <c r="G14" s="22">
         <f>SUM(G3:G13)</f>
@@ -11272,25 +11272,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="D19" s="4">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="E19">
         <f>D19*C19</f>
-        <v>10500</v>
+        <v>1150</v>
       </c>
       <c r="G19" s="22">
         <f>E19/$E$30</f>
-        <v>0.16800000000000001</v>
+        <v>0.16895614486152943</v>
       </c>
       <c r="H19">
         <v>0.17</v>
       </c>
       <c r="I19">
         <f>C19</f>
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -11298,25 +11298,25 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D20" s="4">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="E20">
         <f t="shared" ref="E20:E29" si="3">D20*C20</f>
-        <v>9450</v>
+        <v>1014.9999999999999</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" ref="G20:G29" si="4">E20/$E$30</f>
-        <v>0.1512</v>
+        <v>0.14912216263865422</v>
       </c>
       <c r="H20">
         <v>0.16</v>
       </c>
       <c r="I20">
         <f>C20+I19</f>
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -11324,25 +11324,25 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="D21" s="4">
-        <v>75000</v>
+        <v>7500</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>8250</v>
+        <v>832.5</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
-        <v>0.13200000000000001</v>
+        <v>0.12230955704106369</v>
       </c>
       <c r="H21">
         <v>0.14000000000000001</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I29" si="5">C21+I20</f>
-        <v>0.59</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -11353,22 +11353,22 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D22" s="4">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>8700</v>
+        <v>869.99999999999989</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="4"/>
-        <v>0.13919999999999999</v>
+        <v>0.12781899654741788</v>
       </c>
       <c r="H22">
         <v>0.14000000000000001</v>
       </c>
       <c r="I22">
         <f t="shared" si="5"/>
-        <v>0.87999999999999989</v>
+        <v>0.92100000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -11376,25 +11376,25 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D23" s="4">
-        <v>450000</v>
+        <v>45000</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>809.99999999999989</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="4"/>
-        <v>0.14399999999999999</v>
+        <v>0.11900389333725114</v>
       </c>
       <c r="H23">
         <v>0.11</v>
       </c>
       <c r="I23">
         <f t="shared" si="5"/>
-        <v>0.89999999999999991</v>
+        <v>0.93900000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -11405,22 +11405,22 @@
         <v>0.02</v>
       </c>
       <c r="D24" s="4">
-        <v>250000</v>
+        <v>35000</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="4"/>
-        <v>0.08</v>
+        <v>0.10284287078527878</v>
       </c>
       <c r="H24">
         <v>0.09</v>
       </c>
       <c r="I24">
         <f t="shared" si="5"/>
-        <v>0.91999999999999993</v>
+        <v>0.95900000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -11428,25 +11428,25 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>0.01</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D25" s="4">
-        <v>250000</v>
+        <v>25000</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>425.00000000000006</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="4"/>
-        <v>0.04</v>
+        <v>6.2440314405347835E-2</v>
       </c>
       <c r="H25">
         <v>0.06</v>
       </c>
       <c r="I25">
         <f t="shared" si="5"/>
-        <v>0.92999999999999994</v>
+        <v>0.97600000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -11454,25 +11454,25 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D26" s="4">
-        <v>90000</v>
+        <v>55000</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>3600</v>
+        <v>440</v>
       </c>
       <c r="G26" s="22">
         <f t="shared" si="4"/>
-        <v>5.7599999999999998E-2</v>
+        <v>6.4644090207889512E-2</v>
       </c>
       <c r="H26">
         <v>0.05</v>
       </c>
       <c r="I26">
         <f t="shared" si="5"/>
-        <v>0.97</v>
+        <v>0.9840000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -11483,22 +11483,22 @@
         <v>0.01</v>
       </c>
       <c r="D27" s="4">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G27" s="22">
         <f t="shared" si="4"/>
-        <v>4.8000000000000001E-2</v>
+        <v>4.4075516050833763E-2</v>
       </c>
       <c r="H27">
         <v>0.04</v>
       </c>
       <c r="I27">
         <f t="shared" si="5"/>
-        <v>0.98</v>
+        <v>0.99400000000000011</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -11506,25 +11506,25 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D28" s="4">
-        <v>150000</v>
+        <v>45000</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>135</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" si="4"/>
-        <v>2.4E-2</v>
+        <v>1.9833982222875194E-2</v>
       </c>
       <c r="H28">
         <v>0.02</v>
       </c>
       <c r="I28">
         <f t="shared" si="5"/>
-        <v>0.99</v>
+        <v>0.99700000000000011</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
@@ -11535,18 +11535,18 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D29" s="4">
-        <v>100000</v>
+        <v>43000</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>129</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="4"/>
-        <v>1.6E-2</v>
+        <v>1.8952471901858517E-2</v>
       </c>
       <c r="H29">
         <v>0.02</v>
@@ -11563,7 +11563,7 @@
       </c>
       <c r="E30">
         <f>SUM(E19:E29)</f>
-        <v>62500</v>
+        <v>6806.5</v>
       </c>
       <c r="G30" s="22">
         <f>SUM(G19:G29)</f>
@@ -11586,8 +11586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11640,7 +11640,7 @@
       </c>
       <c r="G3" s="22">
         <f>E3/$E$17</f>
-        <v>0.13365410318096765</v>
+        <v>0.12509382036527394</v>
       </c>
       <c r="H3">
         <v>0.13</v>
@@ -11655,25 +11655,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D4" s="4">
         <v>250000</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E16" si="0">D4*C4</f>
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G16" si="1">E4/$E$17</f>
-        <v>0.13365410318096765</v>
+        <v>0.11258443832874657</v>
       </c>
       <c r="H4">
         <v>0.11</v>
       </c>
       <c r="I4">
         <f>C4+I3</f>
-        <v>0.15000000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -11681,25 +11681,25 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="4">
-        <v>700000</v>
+        <v>300000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" si="1"/>
-        <v>0.11226944667201283</v>
+        <v>0.120090067550663</v>
       </c>
       <c r="H5">
         <v>0.1</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I16" si="2">C5+I4</f>
-        <v>0.18000000000000002</v>
+        <v>0.22000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -11707,25 +11707,25 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="D6" s="4">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>21600</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>0.11120021384656509</v>
+        <v>0.10808106079559669</v>
       </c>
       <c r="H6">
         <v>0.1</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.44000000000000006</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -11733,25 +11733,25 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D7" s="4">
         <v>450000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="G7" s="22">
         <f t="shared" si="1"/>
-        <v>7.2173215717722533E-2</v>
+        <v>9.0067550662997251E-2</v>
       </c>
       <c r="H7">
         <v>0.08</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>0.47000000000000008</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -11759,25 +11759,25 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D8" s="4">
-        <v>650000</v>
+        <v>350000</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="G8" s="22">
         <f t="shared" si="1"/>
-        <v>6.950013365410318E-2</v>
+        <v>7.0052539404553416E-2</v>
       </c>
       <c r="H8">
         <v>0.08</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>0.4900000000000001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -11785,25 +11785,25 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D9" s="4">
         <v>250000</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G9" s="22">
         <f t="shared" si="1"/>
-        <v>5.3461641272387062E-2</v>
+        <v>6.2546910182636972E-2</v>
       </c>
       <c r="H9">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>0.53000000000000014</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -11811,25 +11811,25 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D10" s="4">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>13200</v>
       </c>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
-        <v>7.2173215717722533E-2</v>
+        <v>6.6049537152864643E-2</v>
       </c>
       <c r="H10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0.68000000000000016</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -11848,14 +11848,14 @@
       </c>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
-        <v>6.4153969526864474E-2</v>
+        <v>6.0045033775331498E-2</v>
       </c>
       <c r="H11">
         <v>0.06</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>0.7200000000000002</v>
+        <v>0.69000000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -11874,14 +11874,14 @@
       </c>
       <c r="G12" s="22">
         <f t="shared" si="1"/>
-        <v>5.6134723336006428E-2</v>
+        <v>5.2539404553415069E-2</v>
       </c>
       <c r="H12">
         <v>0.06</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>0.79000000000000026</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -11900,14 +11900,14 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" si="1"/>
-        <v>5.3461641272387062E-2</v>
+        <v>5.0037528146109581E-2</v>
       </c>
       <c r="H13">
         <v>0.05</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>0.89000000000000024</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -11915,25 +11915,25 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>95000</v>
+        <v>105000</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4750</v>
+        <v>7350.0000000000009</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="1"/>
-        <v>2.5394279604383854E-2</v>
+        <v>3.677758318739055E-2</v>
       </c>
       <c r="H14">
         <v>0.04</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0.94000000000000028</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -11941,25 +11941,25 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D15" s="4">
         <v>120000</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
-        <v>2.566158781074579E-2</v>
+        <v>3.0022516887665749E-2</v>
       </c>
       <c r="H15">
         <v>0.03</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>0.98000000000000032</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -11978,14 +11978,14 @@
       </c>
       <c r="G16" s="22">
         <f t="shared" si="1"/>
-        <v>1.710772520716386E-2</v>
+        <v>1.6012009006755066E-2</v>
       </c>
       <c r="H16">
         <v>0.02</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>45</v>
@@ -11994,15 +11994,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C17">
         <f>SUM(C3:C16)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f>SUM(E3:E16)</f>
-        <v>187050</v>
+        <v>199850</v>
       </c>
       <c r="G17" s="22">
         <f>SUM(G3:G16)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H17">
         <f>SUM(H3:H16)</f>
@@ -12059,25 +12059,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="D23" s="4">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="E23">
         <f>D23*C23</f>
-        <v>7500</v>
+        <v>900</v>
       </c>
       <c r="G23" s="22">
         <f>E23/$E$37</f>
-        <v>0.13250883392226148</v>
+        <v>0.13078543922110006</v>
       </c>
       <c r="H23">
         <v>0.13</v>
       </c>
       <c r="I23">
         <f>C23</f>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -12085,25 +12085,25 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="D24" s="4">
-        <v>45000</v>
+        <v>4500</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24:E36" si="3">D24*C24</f>
-        <v>5850</v>
+        <v>810</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" ref="G24:G36" si="4">E24/$E$37</f>
-        <v>0.10335689045936396</v>
+        <v>0.11770689529899005</v>
       </c>
       <c r="H24">
         <v>0.11</v>
       </c>
       <c r="I24">
         <f>C24+I23</f>
-        <v>0.28000000000000003</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -12111,25 +12111,25 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="D25" s="4">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>720</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="4"/>
-        <v>0.10600706713780919</v>
+        <v>0.10462835137688004</v>
       </c>
       <c r="H25">
         <v>0.1</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:I36" si="5">C25+I24</f>
-        <v>0.43000000000000005</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -12137,25 +12137,25 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D26" s="4">
-        <v>45000</v>
+        <v>4500</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>6300.0000000000009</v>
+        <v>675</v>
       </c>
       <c r="G26" s="22">
         <f t="shared" si="4"/>
-        <v>0.11130742049469966</v>
+        <v>9.8089079415825037E-2</v>
       </c>
       <c r="H26">
         <v>0.1</v>
       </c>
       <c r="I26">
         <f t="shared" si="5"/>
-        <v>0.57000000000000006</v>
+        <v>0.69000000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -12163,25 +12163,25 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>0.14000000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="D27" s="4">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>3500.0000000000005</v>
+        <v>480</v>
       </c>
       <c r="G27" s="22">
         <f t="shared" si="4"/>
-        <v>6.1837455830388702E-2</v>
+        <v>6.9752234251253362E-2</v>
       </c>
       <c r="H27">
         <v>0.08</v>
       </c>
       <c r="I27">
         <f t="shared" si="5"/>
-        <v>0.71000000000000008</v>
+        <v>0.88200000000000012</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -12192,22 +12192,22 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D28" s="4">
-        <v>65000</v>
+        <v>6500</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>4550</v>
+        <v>455.00000000000006</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" si="4"/>
-        <v>8.0388692579505303E-2</v>
+        <v>6.6119305384000585E-2</v>
       </c>
       <c r="H28">
         <v>0.08</v>
       </c>
       <c r="I28">
         <f t="shared" si="5"/>
-        <v>0.78</v>
+        <v>0.95200000000000018</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -12215,25 +12215,25 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D29" s="4">
-        <v>105000</v>
+        <v>60500</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>4200</v>
+        <v>484</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="4"/>
-        <v>7.4204946996466431E-2</v>
+        <v>7.0333502870013803E-2</v>
       </c>
       <c r="H29">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I29">
         <f t="shared" si="5"/>
-        <v>0.82000000000000006</v>
+        <v>0.96000000000000019</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -12241,25 +12241,25 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D30" s="4">
         <v>90000</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>4500</v>
+        <v>450</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" si="4"/>
-        <v>7.9505300353356886E-2</v>
+        <v>6.5392719610550029E-2</v>
       </c>
       <c r="H30">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I30">
         <f t="shared" si="5"/>
-        <v>0.87000000000000011</v>
+        <v>0.96500000000000019</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -12267,25 +12267,25 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D31" s="4">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" si="4"/>
-        <v>7.0671378091872794E-2</v>
+        <v>5.8126861876044468E-2</v>
       </c>
       <c r="H31">
         <v>0.06</v>
       </c>
       <c r="I31">
         <f t="shared" si="5"/>
-        <v>0.91000000000000014</v>
+        <v>0.9750000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -12293,25 +12293,25 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>0.02</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D32" s="4">
-        <v>150000</v>
+        <v>55000</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>440</v>
       </c>
       <c r="G32" s="22">
         <f t="shared" si="4"/>
-        <v>5.3003533568904596E-2</v>
+        <v>6.3939548063648918E-2</v>
       </c>
       <c r="H32">
         <v>0.06</v>
       </c>
       <c r="I32">
         <f t="shared" si="5"/>
-        <v>0.93000000000000016</v>
+        <v>0.98300000000000021</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
@@ -12319,25 +12319,25 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>0.03</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D33" s="4">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>360</v>
       </c>
       <c r="G33" s="22">
         <f t="shared" si="4"/>
-        <v>5.3003533568904596E-2</v>
+        <v>5.2314175688440018E-2</v>
       </c>
       <c r="H33">
         <v>0.05</v>
       </c>
       <c r="I33">
         <f t="shared" si="5"/>
-        <v>0.96000000000000019</v>
+        <v>0.98900000000000021</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
@@ -12345,25 +12345,25 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D34" s="4">
-        <v>95000</v>
+        <v>59500</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>1900</v>
+        <v>297.5</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" si="4"/>
-        <v>3.3568904593639579E-2</v>
+        <v>4.3231853520308075E-2</v>
       </c>
       <c r="H34">
         <v>0.04</v>
       </c>
       <c r="I34">
         <f t="shared" si="5"/>
-        <v>0.9800000000000002</v>
+        <v>0.99400000000000022</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
@@ -12371,25 +12371,25 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D35" s="4">
-        <v>120000</v>
+        <v>62000</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>248</v>
       </c>
       <c r="G35" s="22">
         <f t="shared" si="4"/>
-        <v>2.1201413427561839E-2</v>
+        <v>3.6038654363147571E-2</v>
       </c>
       <c r="H35">
         <v>0.03</v>
       </c>
       <c r="I35">
         <f t="shared" si="5"/>
-        <v>0.99000000000000021</v>
+        <v>0.99800000000000022</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
@@ -12397,18 +12397,18 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="D36" s="4">
-        <v>110000</v>
+        <v>81000</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>162</v>
       </c>
       <c r="G36" s="22">
         <f t="shared" si="4"/>
-        <v>1.9434628975265017E-2</v>
+        <v>2.3541379059798008E-2</v>
       </c>
       <c r="H36">
         <v>0.02</v>
@@ -12425,11 +12425,11 @@
       </c>
       <c r="E37">
         <f>SUM(E23:E36)</f>
-        <v>56600</v>
+        <v>6881.5</v>
       </c>
       <c r="G37" s="22">
         <f>SUM(G23:G36)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <f>SUM(H23:H36)</f>

--- a/sanitized.xlsx
+++ b/sanitized.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="560" windowWidth="22560" windowHeight="13360" activeTab="10"/>
+    <workbookView xWindow="280" yWindow="600" windowWidth="22560" windowHeight="13360" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="impacts" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="97">
   <si>
     <t>astar</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Trial2_1_old</t>
+  </si>
+  <si>
+    <t>Trial3</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -4978,7 +4981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
@@ -9123,10 +9126,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9469,7 +9472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -9496,7 +9499,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
@@ -9523,7 +9526,7 @@
         <v>0.83400000000000007</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2</v>
       </c>
@@ -9550,7 +9553,7 @@
         <v>0.96400000000000008</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
@@ -9577,7 +9580,7 @@
         <v>0.97600000000000009</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>4</v>
       </c>
@@ -9607,7 +9610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>5</v>
       </c>
@@ -9634,7 +9637,7 @@
         <v>0.9890000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>6</v>
       </c>
@@ -9664,7 +9667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>7</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C25">
         <f>SUM(C17:C24)</f>
         <v>1</v>
@@ -9709,9 +9712,281 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G26" s="22" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C27">
+        <f>0.7*8</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.37</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6500</v>
+      </c>
+      <c r="E29" s="8">
+        <f>C29*D29</f>
+        <v>2405</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="22">
+        <f>E29/$E$25</f>
+        <v>0.39487726787620064</v>
+      </c>
+      <c r="H29">
+        <v>0.39</v>
+      </c>
+      <c r="I29" s="35">
+        <f>C29</f>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" ref="E30:E36" si="6">C30*D30</f>
+        <v>912</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="22">
+        <f t="shared" ref="G30:G36" si="7">E30/$E$25</f>
+        <v>0.14974140054182744</v>
+      </c>
+      <c r="H30">
+        <v>0.17</v>
+      </c>
+      <c r="I30" s="35">
+        <f>C30+I29</f>
+        <v>0.67399999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0.08</v>
+      </c>
+      <c r="D31" s="4">
+        <v>7500</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="22">
+        <f t="shared" si="7"/>
+        <v>9.8514079303833837E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.11</v>
+      </c>
+      <c r="I31" s="35">
+        <f t="shared" ref="I31:I36" si="8">C31+I30</f>
+        <v>0.75399999999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0.12</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="22">
+        <f t="shared" si="7"/>
+        <v>9.8514079303833837E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="35">
+        <f t="shared" si="8"/>
+        <v>0.87399999999999989</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0.05</v>
+      </c>
+      <c r="D33" s="4">
+        <v>10900</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="6"/>
+        <v>545</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="22">
+        <f t="shared" si="7"/>
+        <v>8.9483622034315743E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.09</v>
+      </c>
+      <c r="I33" s="35">
+        <f t="shared" si="8"/>
+        <v>0.92399999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>0.06</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8000</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="6"/>
+        <v>480</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="22">
+        <f t="shared" si="7"/>
+        <v>7.8811263443067076E-2</v>
+      </c>
+      <c r="H34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I34" s="35">
+        <f t="shared" si="8"/>
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>26500</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="6"/>
+        <v>397.5</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="22">
+        <f t="shared" si="7"/>
+        <v>6.5265577538789921E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.06</v>
+      </c>
+      <c r="I35" s="35">
+        <f t="shared" si="8"/>
+        <v>0.999</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>1E-3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>37500</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="22">
+        <f t="shared" si="7"/>
+        <v>6.1571299564896148E-3</v>
+      </c>
+      <c r="H36">
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f>SUM(C29:C36)</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
+        <f>SUM(E29:E36)</f>
+        <v>5977</v>
+      </c>
+      <c r="G37" s="22">
+        <f>SUM(G29:G36)</f>
+        <v>0.98136441999835811</v>
+      </c>
+      <c r="H37">
+        <f>SUM(H29:H36)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
